--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\eshare-architect-knowledge-network\阅读甘特图\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>书名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -77,6 +77,10 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>研磨设计模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -111,6 +115,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -392,37 +397,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +416,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +749,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -759,230 +764,230 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
         <v>2</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
         <v>3</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26">
         <v>4</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26">
         <v>5</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26">
         <v>6</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26">
         <v>7</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26">
         <v>8</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26">
         <v>9</v>
       </c>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="19">
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="27">
         <v>10</v>
       </c>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18">
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26">
         <v>11</v>
       </c>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18">
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26">
         <v>12</v>
       </c>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
     </row>
     <row r="2" spans="1:65" ht="11.1" customHeight="1"/>
     <row r="3" spans="1:65" ht="18" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="16">
+      <c r="D3" s="25"/>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14">
         <v>4</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14">
         <v>5</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
         <v>6</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14">
         <v>7</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
         <v>8</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
         <v>9</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14">
         <v>10</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14">
         <v>11</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14">
         <v>12</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16">
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14">
         <v>13</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14">
         <v>14</v>
       </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16">
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14">
         <v>15</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14">
         <v>16</v>
       </c>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16">
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14">
         <v>17</v>
       </c>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14">
         <v>18</v>
       </c>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16">
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14">
         <v>19</v>
       </c>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14">
         <v>20</v>
       </c>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16">
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14">
         <v>21</v>
       </c>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16">
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14">
         <v>22</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14">
         <v>23</v>
       </c>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16">
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14">
         <v>24</v>
       </c>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16">
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14">
         <v>25</v>
       </c>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16">
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14">
         <v>26</v>
       </c>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16">
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14">
         <v>27</v>
       </c>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16">
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14">
         <v>28</v>
       </c>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16">
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14">
         <v>29</v>
       </c>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16">
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14">
         <v>30</v>
       </c>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16">
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14">
         <v>31</v>
       </c>
-      <c r="BL3" s="23"/>
+      <c r="BL3" s="21"/>
       <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6"/>
@@ -1047,13 +1052,13 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="16">
+      <c r="BM4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1116,13 +1121,13 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="7"/>
-      <c r="BM5" s="16"/>
+      <c r="BM5" s="14"/>
     </row>
     <row r="6" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6"/>
@@ -1187,12 +1192,12 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="16">
+      <c r="BM6" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
@@ -1256,14 +1261,14 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="16"/>
+      <c r="BM7" s="14"/>
     </row>
     <row r="8" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>3</v>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
@@ -1327,13 +1332,13 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="16">
+      <c r="BM8" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1396,10 +1401,10 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="16"/>
+      <c r="BM9" s="14"/>
     </row>
     <row r="10" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1467,12 +1472,12 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="16">
+      <c r="BM10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
@@ -1536,14 +1541,14 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="4"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="16"/>
+      <c r="BM11" s="14"/>
     </row>
     <row r="12" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
+      <c r="B12" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
@@ -1607,13 +1612,13 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="16">
+      <c r="BM12" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1676,14 +1681,14 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="16"/>
+      <c r="BM13" s="14"/>
     </row>
     <row r="14" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>6</v>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
@@ -1747,12 +1752,12 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="16">
+      <c r="BM14" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
@@ -1816,14 +1821,14 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="16"/>
+      <c r="BM15" s="14"/>
     </row>
     <row r="16" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>8</v>
+      <c r="B16" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
@@ -1887,12 +1892,12 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="16">
+      <c r="BM16" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -1956,14 +1961,14 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="16"/>
+      <c r="BM17" s="14"/>
     </row>
     <row r="18" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>7</v>
+      <c r="B18" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -2027,12 +2032,12 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="16">
+      <c r="BM18" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
@@ -2096,14 +2101,14 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="16"/>
+      <c r="BM19" s="14"/>
     </row>
     <row r="20" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>9</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>9</v>
+      <c r="B20" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -2167,12 +2172,12 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="16">
+      <c r="BM20" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
@@ -2236,13 +2241,15 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="16"/>
+      <c r="BM21" s="14"/>
     </row>
     <row r="22" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>10</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2305,12 +2312,12 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="16">
+      <c r="BM22" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
@@ -2374,10 +2381,10 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="16"/>
+      <c r="BM23" s="14"/>
     </row>
     <row r="24" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>11</v>
       </c>
       <c r="B24" s="15"/>
@@ -2443,12 +2450,12 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="16">
+      <c r="BM24" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
@@ -2512,10 +2519,10 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="16"/>
+      <c r="BM25" s="14"/>
     </row>
     <row r="26" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
@@ -2581,12 +2588,12 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="16">
+      <c r="BM26" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
@@ -2650,10 +2657,10 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="16"/>
+      <c r="BM27" s="14"/>
     </row>
     <row r="28" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>13</v>
       </c>
       <c r="B28" s="15"/>
@@ -2719,12 +2726,12 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="16">
+      <c r="BM28" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -2788,10 +2795,10 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="16"/>
+      <c r="BM29" s="14"/>
     </row>
     <row r="30" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>14</v>
       </c>
       <c r="B30" s="15"/>
@@ -2857,12 +2864,12 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="16">
+      <c r="BM30" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="15"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
@@ -2926,10 +2933,10 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="16"/>
+      <c r="BM31" s="14"/>
     </row>
     <row r="32" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="16">
         <v>15</v>
       </c>
       <c r="B32" s="15"/>
@@ -2995,12 +3002,12 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="16">
+      <c r="BM32" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="15"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
@@ -3064,10 +3071,10 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="16"/>
+      <c r="BM33" s="14"/>
     </row>
     <row r="34" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="16">
         <v>16</v>
       </c>
       <c r="B34" s="15"/>
@@ -3133,12 +3140,12 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="16">
+      <c r="BM34" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="15"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
@@ -3202,10 +3209,10 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="16"/>
+      <c r="BM35" s="14"/>
     </row>
     <row r="36" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <v>17</v>
       </c>
       <c r="B36" s="15"/>
@@ -3271,12 +3278,12 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="16">
+      <c r="BM36" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="15"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
@@ -3340,10 +3347,10 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="16"/>
+      <c r="BM37" s="14"/>
     </row>
     <row r="38" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <v>18</v>
       </c>
       <c r="B38" s="15"/>
@@ -3409,12 +3416,12 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="16">
+      <c r="BM38" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A39" s="14"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="15"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
@@ -3478,10 +3485,10 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="16"/>
+      <c r="BM39" s="14"/>
     </row>
     <row r="40" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="16">
         <v>19</v>
       </c>
       <c r="B40" s="15"/>
@@ -3547,12 +3554,12 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="16">
+      <c r="BM40" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="15"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
@@ -3616,10 +3623,10 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="7"/>
-      <c r="BM41" s="16"/>
+      <c r="BM41" s="14"/>
     </row>
     <row r="42" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <v>20</v>
       </c>
       <c r="B42" s="15"/>
@@ -3685,12 +3692,12 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="16">
+      <c r="BM42" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="15"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
@@ -3754,10 +3761,10 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="16"/>
+      <c r="BM43" s="14"/>
     </row>
     <row r="44" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="16">
         <v>21</v>
       </c>
       <c r="B44" s="15"/>
@@ -3823,12 +3830,12 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="16">
+      <c r="BM44" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="15"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
@@ -3892,10 +3899,10 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="16"/>
+      <c r="BM45" s="14"/>
     </row>
     <row r="46" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="16">
         <v>22</v>
       </c>
       <c r="B46" s="15"/>
@@ -3961,12 +3968,12 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="16">
+      <c r="BM46" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="15"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -4030,10 +4037,10 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="16"/>
+      <c r="BM47" s="14"/>
     </row>
     <row r="48" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="16">
         <v>23</v>
       </c>
       <c r="B48" s="15"/>
@@ -4099,12 +4106,12 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="16">
+      <c r="BM48" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="15"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -4168,7 +4175,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="16"/>
+      <c r="BM49" s="14"/>
     </row>
     <row r="50" spans="1:65" ht="12.95" customHeight="1"/>
     <row r="51" spans="1:65" ht="12.95" customHeight="1"/>
@@ -4207,61 +4214,59 @@
     <row r="84" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="BM38:BM39"/>
-    <mergeCell ref="BM40:BM41"/>
-    <mergeCell ref="BM42:BM43"/>
-    <mergeCell ref="BM26:BM27"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BM30:BM31"/>
-    <mergeCell ref="BM32:BM33"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BM36:BM37"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BM18:BM19"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="BM24:BM25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="BM44:BM45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -4286,59 +4291,61 @@
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="BM48:BM49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="BM44:BM45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BM18:BM19"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BM40:BM41"/>
+    <mergeCell ref="BM42:BM43"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM30:BM31"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BM36:BM37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4372,7 +4379,7 @@
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="4294963191" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
+    <sheet name="2018年8月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>书名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -81,6 +81,37 @@
     <t>研磨设计模式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>程序员的数学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员的数学-概率统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员的数学-线性代数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>深入理解J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AVA虚拟机</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留系统重建实战</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -131,12 +162,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -354,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,19 +434,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,7 +789,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -764,231 +804,231 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="26">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="27">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27">
         <v>2</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27">
         <v>3</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27">
         <v>4</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27">
         <v>5</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27">
         <v>6</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27">
         <v>7</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27">
         <v>8</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26">
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27">
         <v>9</v>
       </c>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="27">
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="28">
         <v>10</v>
       </c>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26">
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27">
         <v>11</v>
       </c>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26">
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27">
         <v>12</v>
       </c>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
     </row>
     <row r="2" spans="1:65" ht="11.1" customHeight="1"/>
     <row r="3" spans="1:65" ht="18" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="14">
+      <c r="D3" s="26"/>
+      <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
         <v>4</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
         <v>5</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
         <v>6</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
         <v>7</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
         <v>8</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15">
         <v>10</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15">
         <v>11</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15">
         <v>12</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14">
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15">
         <v>13</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15">
         <v>14</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14">
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15">
         <v>15</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14">
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15">
         <v>16</v>
       </c>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14">
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15">
         <v>17</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14">
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15">
         <v>18</v>
       </c>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14">
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15">
         <v>19</v>
       </c>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15">
         <v>20</v>
       </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14">
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15">
         <v>21</v>
       </c>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14">
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15">
         <v>22</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15">
         <v>23</v>
       </c>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14">
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15">
         <v>24</v>
       </c>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14">
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15">
         <v>25</v>
       </c>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14">
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15">
         <v>26</v>
       </c>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14">
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15">
         <v>27</v>
       </c>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14">
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15">
         <v>28</v>
       </c>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14">
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15">
         <v>29</v>
       </c>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14">
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15">
         <v>30</v>
       </c>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14">
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15">
         <v>31</v>
       </c>
-      <c r="BL3" s="21"/>
+      <c r="BL3" s="22"/>
       <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A4" s="22">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
@@ -1002,7 +1042,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
@@ -1052,13 +1092,13 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="14">
+      <c r="BM4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1121,14 +1161,14 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="7"/>
-      <c r="BM5" s="14"/>
+      <c r="BM5" s="15"/>
     </row>
     <row r="6" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
@@ -1192,13 +1232,13 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="14">
+      <c r="BM6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1261,14 +1301,14 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="14"/>
+      <c r="BM7" s="15"/>
     </row>
     <row r="8" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
+      <c r="B8" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
@@ -1332,13 +1372,13 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="14">
+      <c r="BM8" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1401,14 +1441,14 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="14"/>
+      <c r="BM9" s="15"/>
     </row>
     <row r="10" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>4</v>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
@@ -1472,13 +1512,13 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="14">
+      <c r="BM10" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1541,14 +1581,14 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="4"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="14"/>
+      <c r="BM11" s="15"/>
     </row>
     <row r="12" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>3</v>
+      <c r="B12" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
@@ -1612,13 +1652,13 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="14">
+      <c r="BM12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1681,14 +1721,14 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="14"/>
+      <c r="BM13" s="15"/>
     </row>
     <row r="14" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
+      <c r="B14" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
@@ -1752,13 +1792,13 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="14">
+      <c r="BM14" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1821,14 +1861,14 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="14"/>
+      <c r="BM15" s="15"/>
     </row>
     <row r="16" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>6</v>
+      <c r="B16" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
@@ -1892,13 +1932,13 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="14">
+      <c r="BM16" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1961,14 +2001,14 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="14"/>
+      <c r="BM17" s="15"/>
     </row>
     <row r="18" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="18">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>8</v>
+      <c r="B18" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -2032,13 +2072,13 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="14">
+      <c r="BM18" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -2101,14 +2141,14 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="14"/>
+      <c r="BM19" s="15"/>
     </row>
     <row r="20" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="18">
         <v>9</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>7</v>
+      <c r="B20" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -2172,13 +2212,13 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="14">
+      <c r="BM20" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -2241,14 +2281,14 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="14"/>
+      <c r="BM21" s="15"/>
     </row>
     <row r="22" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="18">
         <v>10</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>9</v>
+      <c r="B22" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -2312,13 +2352,13 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="14">
+      <c r="BM22" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2381,13 +2421,15 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="14"/>
+      <c r="BM23" s="15"/>
     </row>
     <row r="24" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="18">
         <v>11</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -2450,13 +2492,13 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="14">
+      <c r="BM24" s="15">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2519,13 +2561,15 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="14"/>
+      <c r="BM25" s="15"/>
     </row>
     <row r="26" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="18">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -2588,13 +2632,13 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="14">
+      <c r="BM26" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -2657,13 +2701,15 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="14"/>
+      <c r="BM27" s="15"/>
     </row>
     <row r="28" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="18">
         <v>13</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -2726,13 +2772,13 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="14">
+      <c r="BM28" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -2795,13 +2841,15 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="14"/>
+      <c r="BM29" s="15"/>
     </row>
     <row r="30" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="18">
         <v>14</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
@@ -2864,13 +2912,13 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="14">
+      <c r="BM30" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -2933,13 +2981,15 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="14"/>
+      <c r="BM31" s="15"/>
     </row>
     <row r="32" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="18">
         <v>15</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
@@ -3002,13 +3052,13 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="14">
+      <c r="BM32" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -3071,13 +3121,13 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="14"/>
+      <c r="BM33" s="15"/>
     </row>
     <row r="34" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="18">
         <v>16</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -3140,13 +3190,13 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="14">
+      <c r="BM34" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -3209,13 +3259,13 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="14"/>
+      <c r="BM35" s="15"/>
     </row>
     <row r="36" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="18">
         <v>17</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
@@ -3278,13 +3328,13 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="14">
+      <c r="BM36" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -3347,13 +3397,13 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="14"/>
+      <c r="BM37" s="15"/>
     </row>
     <row r="38" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="18">
         <v>18</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
@@ -3416,13 +3466,13 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="14">
+      <c r="BM38" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -3485,13 +3535,13 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="14"/>
+      <c r="BM39" s="15"/>
     </row>
     <row r="40" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="18">
         <v>19</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
@@ -3554,13 +3604,13 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="14">
+      <c r="BM40" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -3623,13 +3673,13 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="7"/>
-      <c r="BM41" s="14"/>
+      <c r="BM41" s="15"/>
     </row>
     <row r="42" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="18">
         <v>20</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -3692,13 +3742,13 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="14">
+      <c r="BM42" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -3761,13 +3811,13 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="14"/>
+      <c r="BM43" s="15"/>
     </row>
     <row r="44" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="18">
         <v>21</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -3830,13 +3880,13 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="14">
+      <c r="BM44" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -3899,13 +3949,13 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="14"/>
+      <c r="BM45" s="15"/>
     </row>
     <row r="46" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="18">
         <v>22</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -3968,13 +4018,13 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="14">
+      <c r="BM46" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -4037,13 +4087,13 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="14"/>
+      <c r="BM47" s="15"/>
     </row>
     <row r="48" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="18">
         <v>23</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -4106,13 +4156,13 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="14">
+      <c r="BM48" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -4175,7 +4225,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="14"/>
+      <c r="BM49" s="15"/>
     </row>
     <row r="50" spans="1:65" ht="12.95" customHeight="1"/>
     <row r="51" spans="1:65" ht="12.95" customHeight="1"/>
@@ -4214,12 +4264,15 @@
     <row r="84" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="BM48:BM49"/>
@@ -4229,24 +4282,17 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="BM46:BM47"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -4267,6 +4313,10 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -4292,15 +4342,15 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -4315,30 +4365,22 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BM8:BM9"/>
     <mergeCell ref="BM10:BM11"/>
     <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="BM14:BM15"/>
     <mergeCell ref="BM16:BM17"/>
     <mergeCell ref="BM18:BM19"/>
     <mergeCell ref="BM20:BM21"/>
     <mergeCell ref="BM22:BM23"/>
     <mergeCell ref="BM24:BM25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="BM38:BM39"/>
-    <mergeCell ref="BM40:BM41"/>
     <mergeCell ref="BM42:BM43"/>
     <mergeCell ref="BM26:BM27"/>
     <mergeCell ref="BM28:BM29"/>
@@ -4346,6 +4388,14 @@
     <mergeCell ref="BM32:BM33"/>
     <mergeCell ref="BM34:BM35"/>
     <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BM40:BM41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4358,7 +4408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -171,7 +171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,9 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +789,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -804,230 +804,230 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="27">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26">
         <v>1</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
         <v>3</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26">
         <v>4</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26">
         <v>5</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26">
         <v>6</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26">
         <v>7</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26">
         <v>8</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26">
         <v>9</v>
       </c>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="28">
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="27">
         <v>10</v>
       </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27">
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26">
         <v>11</v>
       </c>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27">
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26">
         <v>12</v>
       </c>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
     </row>
     <row r="2" spans="1:65" ht="11.1" customHeight="1"/>
     <row r="3" spans="1:65" ht="18" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="15">
+      <c r="D3" s="25"/>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14">
         <v>5</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
         <v>6</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14">
         <v>7</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
         <v>8</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
         <v>9</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14">
         <v>10</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14">
         <v>11</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14">
         <v>12</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15">
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14">
         <v>13</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14">
         <v>14</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15">
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14">
         <v>15</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14">
         <v>16</v>
       </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15">
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14">
         <v>17</v>
       </c>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14">
         <v>18</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15">
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14">
         <v>19</v>
       </c>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14">
         <v>20</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15">
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14">
         <v>21</v>
       </c>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15">
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14">
         <v>22</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14">
         <v>23</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15">
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14">
         <v>24</v>
       </c>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15">
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14">
         <v>25</v>
       </c>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15">
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14">
         <v>26</v>
       </c>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15">
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14">
         <v>27</v>
       </c>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15">
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14">
         <v>28</v>
       </c>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15">
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14">
         <v>29</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15">
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14">
         <v>30</v>
       </c>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15">
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14">
         <v>31</v>
       </c>
-      <c r="BL3" s="22"/>
+      <c r="BL3" s="21"/>
       <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6"/>
@@ -1042,7 +1042,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
@@ -1092,13 +1092,13 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="15">
+      <c r="BM4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1161,13 +1161,13 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="7"/>
-      <c r="BM5" s="15"/>
+      <c r="BM5" s="14"/>
     </row>
     <row r="6" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
@@ -1232,13 +1232,13 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="15">
+      <c r="BM6" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1301,13 +1301,13 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="15"/>
+      <c r="BM7" s="14"/>
     </row>
     <row r="8" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6"/>
@@ -1372,13 +1372,13 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="15">
+      <c r="BM8" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1441,13 +1441,13 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="15"/>
+      <c r="BM9" s="14"/>
     </row>
     <row r="10" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6"/>
@@ -1512,13 +1512,13 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="15">
+      <c r="BM10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1581,13 +1581,13 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="4"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="15"/>
+      <c r="BM11" s="14"/>
     </row>
     <row r="12" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6"/>
@@ -1652,13 +1652,13 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="15">
+      <c r="BM12" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1721,13 +1721,13 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="15"/>
+      <c r="BM13" s="14"/>
     </row>
     <row r="14" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="6"/>
@@ -1792,13 +1792,13 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="15">
+      <c r="BM14" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1861,13 +1861,13 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="15"/>
+      <c r="BM15" s="14"/>
     </row>
     <row r="16" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6"/>
@@ -1932,13 +1932,13 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="15">
+      <c r="BM16" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -2001,13 +2001,13 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="15"/>
+      <c r="BM17" s="14"/>
     </row>
     <row r="18" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6"/>
@@ -2072,13 +2072,13 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="15">
+      <c r="BM18" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -2141,13 +2141,13 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="15"/>
+      <c r="BM19" s="14"/>
     </row>
     <row r="20" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6"/>
@@ -2212,13 +2212,13 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="15">
+      <c r="BM20" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -2281,13 +2281,13 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="15"/>
+      <c r="BM21" s="14"/>
     </row>
     <row r="22" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>10</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
@@ -2352,13 +2352,13 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="15">
+      <c r="BM22" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2421,13 +2421,13 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="15"/>
+      <c r="BM23" s="14"/>
     </row>
     <row r="24" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>11</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6"/>
@@ -2492,13 +2492,13 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="15">
+      <c r="BM24" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2561,13 +2561,13 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="15"/>
+      <c r="BM25" s="14"/>
     </row>
     <row r="26" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>12</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="6"/>
@@ -2632,13 +2632,13 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="15">
+      <c r="BM26" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -2701,13 +2701,13 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="15"/>
+      <c r="BM27" s="14"/>
     </row>
     <row r="28" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>13</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="6"/>
@@ -2772,13 +2772,13 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="15">
+      <c r="BM28" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -2841,13 +2841,13 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="15"/>
+      <c r="BM29" s="14"/>
     </row>
     <row r="30" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>14</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="6"/>
@@ -2912,13 +2912,13 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="15">
+      <c r="BM30" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -2981,13 +2981,13 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="15"/>
+      <c r="BM31" s="14"/>
     </row>
     <row r="32" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>15</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6"/>
@@ -3052,13 +3052,13 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="15">
+      <c r="BM32" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -3121,13 +3121,13 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="15"/>
+      <c r="BM33" s="14"/>
     </row>
     <row r="34" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>16</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -3190,13 +3190,13 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="15">
+      <c r="BM34" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -3259,13 +3259,13 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="15"/>
+      <c r="BM35" s="14"/>
     </row>
     <row r="36" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>17</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
@@ -3328,13 +3328,13 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="15">
+      <c r="BM36" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -3397,13 +3397,13 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="15"/>
+      <c r="BM37" s="14"/>
     </row>
     <row r="38" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>18</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
@@ -3466,13 +3466,13 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="15">
+      <c r="BM38" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -3535,13 +3535,13 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="15"/>
+      <c r="BM39" s="14"/>
     </row>
     <row r="40" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>19</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
@@ -3604,13 +3604,13 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="15">
+      <c r="BM40" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -3673,13 +3673,13 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="7"/>
-      <c r="BM41" s="15"/>
+      <c r="BM41" s="14"/>
     </row>
     <row r="42" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>20</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -3742,13 +3742,13 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="15">
+      <c r="BM42" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -3811,13 +3811,13 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="15"/>
+      <c r="BM43" s="14"/>
     </row>
     <row r="44" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>21</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -3880,13 +3880,13 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="15">
+      <c r="BM44" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -3949,13 +3949,13 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="15"/>
+      <c r="BM45" s="14"/>
     </row>
     <row r="46" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>22</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -4018,13 +4018,13 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="15">
+      <c r="BM46" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -4087,13 +4087,13 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="15"/>
+      <c r="BM47" s="14"/>
     </row>
     <row r="48" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>23</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -4156,13 +4156,13 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="15">
+      <c r="BM48" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -4225,7 +4225,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="15"/>
+      <c r="BM49" s="14"/>
     </row>
     <row r="50" spans="1:65" ht="12.95" customHeight="1"/>
     <row r="51" spans="1:65" ht="12.95" customHeight="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -162,7 +162,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,31 +440,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,16 +467,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +798,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -804,230 +813,230 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="26">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="15">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15">
         <v>2</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15">
         <v>3</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15">
         <v>4</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15">
         <v>5</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26">
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15">
         <v>6</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26">
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15">
         <v>7</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15">
         <v>8</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15">
         <v>9</v>
       </c>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="27">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="23">
         <v>10</v>
       </c>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15">
         <v>11</v>
       </c>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26">
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15">
         <v>12</v>
       </c>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
     </row>
     <row r="2" spans="1:65" ht="11.1" customHeight="1"/>
     <row r="3" spans="1:65" ht="18" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="14">
+      <c r="D3" s="22"/>
+      <c r="E3" s="18">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
         <v>4</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18">
         <v>5</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18">
         <v>6</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18">
         <v>7</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18">
         <v>8</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>9</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18">
         <v>10</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14">
+      <c r="V3" s="18"/>
+      <c r="W3" s="18">
         <v>11</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14">
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18">
         <v>12</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18">
         <v>13</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14">
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18">
         <v>14</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14">
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18">
         <v>15</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14">
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18">
         <v>16</v>
       </c>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14">
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18">
         <v>17</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14">
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18">
         <v>18</v>
       </c>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14">
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18">
         <v>19</v>
       </c>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14">
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18">
         <v>20</v>
       </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14">
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18">
         <v>21</v>
       </c>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14">
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18">
         <v>22</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14">
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18">
         <v>23</v>
       </c>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14">
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18">
         <v>24</v>
       </c>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14">
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18">
         <v>25</v>
       </c>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14">
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18">
         <v>26</v>
       </c>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14">
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18">
         <v>27</v>
       </c>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14">
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18">
         <v>28</v>
       </c>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14">
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18">
         <v>29</v>
       </c>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14">
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18">
         <v>30</v>
       </c>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14">
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18">
         <v>31</v>
       </c>
-      <c r="BL3" s="21"/>
+      <c r="BL3" s="24"/>
       <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A4" s="22">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6"/>
@@ -1042,11 +1051,11 @@
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="29"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="10"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="11"/>
       <c r="U4" s="10"/>
       <c r="V4" s="11"/>
@@ -1092,13 +1101,13 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="14">
+      <c r="BM4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -1161,13 +1170,13 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="7"/>
-      <c r="BM5" s="14"/>
+      <c r="BM5" s="18"/>
     </row>
     <row r="6" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
@@ -1232,13 +1241,13 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="14">
+      <c r="BM6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1301,13 +1310,13 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="14"/>
+      <c r="BM7" s="18"/>
     </row>
     <row r="8" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6"/>
@@ -1372,13 +1381,13 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="14">
+      <c r="BM8" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -1441,13 +1450,13 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="14"/>
+      <c r="BM9" s="18"/>
     </row>
     <row r="10" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6"/>
@@ -1512,13 +1521,13 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="14">
+      <c r="BM10" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1581,13 +1590,13 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="4"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="14"/>
+      <c r="BM11" s="18"/>
     </row>
     <row r="12" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6"/>
@@ -1652,13 +1661,13 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="14">
+      <c r="BM12" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1721,13 +1730,13 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="14"/>
+      <c r="BM13" s="18"/>
     </row>
     <row r="14" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="6"/>
@@ -1792,13 +1801,13 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="14">
+      <c r="BM14" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1861,13 +1870,13 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="14"/>
+      <c r="BM15" s="18"/>
     </row>
     <row r="16" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6"/>
@@ -1932,13 +1941,13 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="14">
+      <c r="BM16" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -2001,13 +2010,13 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="14"/>
+      <c r="BM17" s="18"/>
     </row>
     <row r="18" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6"/>
@@ -2072,13 +2081,13 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="14">
+      <c r="BM18" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -2141,13 +2150,13 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="14"/>
+      <c r="BM19" s="18"/>
     </row>
     <row r="20" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>9</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6"/>
@@ -2212,13 +2221,13 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="14">
+      <c r="BM20" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -2281,13 +2290,13 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="14"/>
+      <c r="BM21" s="18"/>
     </row>
     <row r="22" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>10</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
@@ -2352,13 +2361,13 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="14">
+      <c r="BM22" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2421,13 +2430,13 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="14"/>
+      <c r="BM23" s="18"/>
     </row>
     <row r="24" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>11</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6"/>
@@ -2492,13 +2501,13 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="14">
+      <c r="BM24" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2561,13 +2570,13 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="14"/>
+      <c r="BM25" s="18"/>
     </row>
     <row r="26" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>12</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="6"/>
@@ -2632,13 +2641,13 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="14">
+      <c r="BM26" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -2701,13 +2710,13 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="14"/>
+      <c r="BM27" s="18"/>
     </row>
     <row r="28" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>13</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="6"/>
@@ -2772,13 +2781,13 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="14">
+      <c r="BM28" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -2841,13 +2850,13 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="14"/>
+      <c r="BM29" s="18"/>
     </row>
     <row r="30" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>14</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="6"/>
@@ -2912,13 +2921,13 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="14">
+      <c r="BM30" s="18">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -2981,13 +2990,13 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="14"/>
+      <c r="BM31" s="18"/>
     </row>
     <row r="32" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>15</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6"/>
@@ -3052,13 +3061,13 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="14">
+      <c r="BM32" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -3121,13 +3130,13 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="14"/>
+      <c r="BM33" s="18"/>
     </row>
     <row r="34" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>16</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -3190,13 +3199,13 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="14">
+      <c r="BM34" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -3259,13 +3268,13 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="14"/>
+      <c r="BM35" s="18"/>
     </row>
     <row r="36" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>17</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
@@ -3328,13 +3337,13 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="14">
+      <c r="BM36" s="18">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -3397,13 +3406,13 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="14"/>
+      <c r="BM37" s="18"/>
     </row>
     <row r="38" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>18</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
@@ -3466,13 +3475,13 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="14">
+      <c r="BM38" s="18">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -3535,13 +3544,13 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="14"/>
+      <c r="BM39" s="18"/>
     </row>
     <row r="40" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>19</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
@@ -3604,13 +3613,13 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="14">
+      <c r="BM40" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -3673,13 +3682,13 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="7"/>
-      <c r="BM41" s="14"/>
+      <c r="BM41" s="18"/>
     </row>
     <row r="42" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>20</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -3742,13 +3751,13 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="14">
+      <c r="BM42" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -3811,13 +3820,13 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="14"/>
+      <c r="BM43" s="18"/>
     </row>
     <row r="44" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>21</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -3880,13 +3889,13 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="14">
+      <c r="BM44" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
@@ -3949,13 +3958,13 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="14"/>
+      <c r="BM45" s="18"/>
     </row>
     <row r="46" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>22</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -4018,13 +4027,13 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="14">
+      <c r="BM46" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -4087,13 +4096,13 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="14"/>
+      <c r="BM47" s="18"/>
     </row>
     <row r="48" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>23</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -4156,13 +4165,13 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="14">
+      <c r="BM48" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -4225,7 +4234,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="14"/>
+      <c r="BM49" s="18"/>
     </row>
     <row r="50" spans="1:65" ht="12.95" customHeight="1"/>
     <row r="51" spans="1:65" ht="12.95" customHeight="1"/>
@@ -4264,35 +4273,85 @@
     <row r="84" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="BM48:BM49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="BM44:BM45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="BM46:BM47"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="BM42:BM43"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM30:BM31"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BM40:BM41"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BM18:BM19"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -4317,85 +4376,35 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BM18:BM19"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="BM24:BM25"/>
-    <mergeCell ref="BM42:BM43"/>
-    <mergeCell ref="BM26:BM27"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BM30:BM31"/>
-    <mergeCell ref="BM32:BM33"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BM36:BM37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="BM38:BM39"/>
-    <mergeCell ref="BM40:BM41"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="BM44:BM45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -443,19 +443,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,29 +482,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,7 +798,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -813,230 +813,230 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="15">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="28">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28">
         <v>3</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28">
         <v>4</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28">
         <v>5</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28">
         <v>6</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28">
         <v>7</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28">
         <v>8</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15">
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28">
         <v>9</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="23">
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29">
         <v>10</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15">
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28">
         <v>11</v>
       </c>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15">
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28">
         <v>12</v>
       </c>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
     </row>
     <row r="2" spans="1:65" ht="11.1" customHeight="1"/>
     <row r="3" spans="1:65" ht="18" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="18">
+      <c r="D3" s="27"/>
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16">
         <v>3</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
         <v>5</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16">
         <v>7</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16">
         <v>8</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18">
+      <c r="R3" s="16"/>
+      <c r="S3" s="16">
         <v>9</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
         <v>10</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18">
+      <c r="V3" s="16"/>
+      <c r="W3" s="16">
         <v>11</v>
       </c>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16">
         <v>12</v>
       </c>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18">
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16">
         <v>13</v>
       </c>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16">
         <v>14</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18">
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16">
         <v>15</v>
       </c>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18">
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16">
         <v>16</v>
       </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18">
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16">
         <v>17</v>
       </c>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18">
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16">
         <v>18</v>
       </c>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18">
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16">
         <v>19</v>
       </c>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18">
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16">
         <v>20</v>
       </c>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18">
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16">
         <v>21</v>
       </c>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18">
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16">
         <v>22</v>
       </c>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18">
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16">
         <v>23</v>
       </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18">
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16">
         <v>24</v>
       </c>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18">
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16">
         <v>25</v>
       </c>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18">
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16">
         <v>26</v>
       </c>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18">
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16">
         <v>27</v>
       </c>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18">
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16">
         <v>28</v>
       </c>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18">
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16">
         <v>29</v>
       </c>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18">
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16">
         <v>30</v>
       </c>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18">
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16">
         <v>31</v>
       </c>
-      <c r="BL3" s="24"/>
+      <c r="BL3" s="23"/>
       <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6"/>
@@ -1055,11 +1055,11 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="30"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="10"/>
+      <c r="U4" s="15"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="10"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="5"/>
@@ -1101,12 +1101,12 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="18">
+      <c r="BM4" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
@@ -1170,13 +1170,13 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="7"/>
-      <c r="BM5" s="18"/>
+      <c r="BM5" s="16"/>
     </row>
     <row r="6" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
@@ -1241,13 +1241,13 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="8"/>
-      <c r="BM6" s="18">
+      <c r="BM6" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -1310,13 +1310,13 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="18"/>
+      <c r="BM7" s="16"/>
     </row>
     <row r="8" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6"/>
@@ -1381,12 +1381,12 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="8"/>
-      <c r="BM8" s="18">
+      <c r="BM8" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -1450,13 +1450,13 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="18"/>
+      <c r="BM9" s="16"/>
     </row>
     <row r="10" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6"/>
@@ -1521,12 +1521,12 @@
       <c r="BJ10" s="5"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="8"/>
-      <c r="BM10" s="18">
+      <c r="BM10" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
@@ -1590,10 +1590,10 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="4"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="18"/>
+      <c r="BM11" s="16"/>
     </row>
     <row r="12" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1661,12 +1661,12 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="8"/>
-      <c r="BM12" s="18">
+      <c r="BM12" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
@@ -1730,13 +1730,13 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="4"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="18"/>
+      <c r="BM13" s="16"/>
     </row>
     <row r="14" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="6"/>
@@ -1801,13 +1801,13 @@
       <c r="BJ14" s="5"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="8"/>
-      <c r="BM14" s="18">
+      <c r="BM14" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -1870,10 +1870,10 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="4"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="18"/>
+      <c r="BM15" s="16"/>
     </row>
     <row r="16" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -1941,12 +1941,12 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="8"/>
-      <c r="BM16" s="18">
+      <c r="BM16" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -2010,13 +2010,13 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="18"/>
+      <c r="BM17" s="16"/>
     </row>
     <row r="18" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6"/>
@@ -2081,12 +2081,12 @@
       <c r="BJ18" s="5"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="8"/>
-      <c r="BM18" s="18">
+      <c r="BM18" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
@@ -2150,13 +2150,13 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="18"/>
+      <c r="BM19" s="16"/>
     </row>
     <row r="20" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="19">
         <v>9</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6"/>
@@ -2221,12 +2221,12 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="8"/>
-      <c r="BM20" s="18">
+      <c r="BM20" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
@@ -2290,13 +2290,13 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="18"/>
+      <c r="BM21" s="16"/>
     </row>
     <row r="22" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6"/>
@@ -2361,12 +2361,12 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="8"/>
-      <c r="BM22" s="18">
+      <c r="BM22" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
@@ -2430,13 +2430,13 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="4"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="18"/>
+      <c r="BM23" s="16"/>
     </row>
     <row r="24" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="19">
         <v>11</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="6"/>
@@ -2501,12 +2501,12 @@
       <c r="BJ24" s="5"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="8"/>
-      <c r="BM24" s="18">
+      <c r="BM24" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
@@ -2570,13 +2570,13 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="4"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="18"/>
+      <c r="BM25" s="16"/>
     </row>
     <row r="26" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="6"/>
@@ -2641,12 +2641,12 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="8"/>
-      <c r="BM26" s="18">
+      <c r="BM26" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
@@ -2710,13 +2710,13 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="4"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="18"/>
+      <c r="BM27" s="16"/>
     </row>
     <row r="28" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="19">
         <v>13</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="6"/>
@@ -2781,12 +2781,12 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
-      <c r="BM28" s="18">
+      <c r="BM28" s="16">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -2850,13 +2850,13 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="4"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="18"/>
+      <c r="BM29" s="16"/>
     </row>
     <row r="30" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="19">
         <v>14</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="6"/>
@@ -2921,12 +2921,12 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="8"/>
-      <c r="BM30" s="18">
+      <c r="BM30" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
@@ -2990,13 +2990,13 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="4"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="18"/>
+      <c r="BM31" s="16"/>
     </row>
     <row r="32" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="19">
         <v>15</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6"/>
@@ -3061,12 +3061,12 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="8"/>
-      <c r="BM32" s="18">
+      <c r="BM32" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
@@ -3130,10 +3130,10 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="18"/>
+      <c r="BM33" s="16"/>
     </row>
     <row r="34" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="19">
         <v>16</v>
       </c>
       <c r="B34" s="17"/>
@@ -3199,12 +3199,12 @@
       <c r="BJ34" s="5"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="8"/>
-      <c r="BM34" s="18">
+      <c r="BM34" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="17"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
@@ -3268,10 +3268,10 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="18"/>
+      <c r="BM35" s="16"/>
     </row>
     <row r="36" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="19">
         <v>17</v>
       </c>
       <c r="B36" s="17"/>
@@ -3337,12 +3337,12 @@
       <c r="BJ36" s="5"/>
       <c r="BK36" s="6"/>
       <c r="BL36" s="8"/>
-      <c r="BM36" s="18">
+      <c r="BM36" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="17"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
@@ -3406,10 +3406,10 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="18"/>
+      <c r="BM37" s="16"/>
     </row>
     <row r="38" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="19">
         <v>18</v>
       </c>
       <c r="B38" s="17"/>
@@ -3475,12 +3475,12 @@
       <c r="BJ38" s="5"/>
       <c r="BK38" s="6"/>
       <c r="BL38" s="8"/>
-      <c r="BM38" s="18">
+      <c r="BM38" s="16">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A39" s="16"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="17"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
@@ -3544,10 +3544,10 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="18"/>
+      <c r="BM39" s="16"/>
     </row>
     <row r="40" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="19">
         <v>19</v>
       </c>
       <c r="B40" s="17"/>
@@ -3613,12 +3613,12 @@
       <c r="BJ40" s="5"/>
       <c r="BK40" s="6"/>
       <c r="BL40" s="8"/>
-      <c r="BM40" s="18">
+      <c r="BM40" s="16">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="17"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
@@ -3682,10 +3682,10 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="7"/>
-      <c r="BM41" s="18"/>
+      <c r="BM41" s="16"/>
     </row>
     <row r="42" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="19">
         <v>20</v>
       </c>
       <c r="B42" s="17"/>
@@ -3751,12 +3751,12 @@
       <c r="BJ42" s="5"/>
       <c r="BK42" s="6"/>
       <c r="BL42" s="8"/>
-      <c r="BM42" s="18">
+      <c r="BM42" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="17"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
@@ -3820,10 +3820,10 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="18"/>
+      <c r="BM43" s="16"/>
     </row>
     <row r="44" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="19">
         <v>21</v>
       </c>
       <c r="B44" s="17"/>
@@ -3889,12 +3889,12 @@
       <c r="BJ44" s="5"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="8"/>
-      <c r="BM44" s="18">
+      <c r="BM44" s="16">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A45" s="16"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="17"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
@@ -3958,10 +3958,10 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="18"/>
+      <c r="BM45" s="16"/>
     </row>
     <row r="46" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="19">
         <v>22</v>
       </c>
       <c r="B46" s="17"/>
@@ -4027,12 +4027,12 @@
       <c r="BJ46" s="5"/>
       <c r="BK46" s="6"/>
       <c r="BL46" s="8"/>
-      <c r="BM46" s="18">
+      <c r="BM46" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A47" s="16"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="17"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -4096,10 +4096,10 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="18"/>
+      <c r="BM47" s="16"/>
     </row>
     <row r="48" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="19">
         <v>23</v>
       </c>
       <c r="B48" s="17"/>
@@ -4165,12 +4165,12 @@
       <c r="BJ48" s="5"/>
       <c r="BK48" s="6"/>
       <c r="BL48" s="8"/>
-      <c r="BM48" s="18">
+      <c r="BM48" s="16">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:65" ht="10.15" customHeight="1">
-      <c r="A49" s="16"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="17"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -4234,7 +4234,7 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="18"/>
+      <c r="BM49" s="16"/>
     </row>
     <row r="50" spans="1:65" ht="12.95" customHeight="1"/>
     <row r="51" spans="1:65" ht="12.95" customHeight="1"/>
@@ -4273,37 +4273,83 @@
     <row r="84" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="BM42:BM43"/>
-    <mergeCell ref="BM26:BM27"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BM30:BM31"/>
-    <mergeCell ref="BM32:BM33"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BM36:BM37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="BM38:BM39"/>
-    <mergeCell ref="BM40:BM41"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BM18:BM19"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="BM44:BM45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4328,83 +4374,37 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="BM48:BM49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="BM44:BM45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="BM46:BM47"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BM18:BM19"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="BM42:BM43"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM30:BM31"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BM40:BM41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -98,6 +98,15 @@
       <t>AVA虚拟机</t>
     </r>
   </si>
+  <si>
+    <t>消费金融真经</t>
+  </si>
+  <si>
+    <t>影响力</t>
+  </si>
+  <si>
+    <t>人月神话</t>
+  </si>
 </sst>
 </file>
 
@@ -105,11 +114,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -142,19 +151,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -192,21 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,15 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +265,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -292,7 +288,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,13 +323,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,31 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,37 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,49 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,17 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -734,17 +727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -797,17 +805,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,148 +820,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +993,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1010,13 +1014,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -1406,7 +1410,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3744,7 +3748,9 @@
       <c r="A34" s="12">
         <v>16</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="10"/>
@@ -3882,7 +3888,9 @@
       <c r="A36" s="12">
         <v>17</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="10"/>
@@ -4020,7 +4028,9 @@
       <c r="A38" s="12">
         <v>18</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="10"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>研磨设计模式</t>
+  </si>
+  <si>
+    <t>实现领域驱动设计</t>
+  </si>
+  <si>
+    <t>领域驱动设计</t>
+  </si>
+  <si>
+    <t>消费金融真经</t>
   </si>
   <si>
     <t>大型网站系统与java中间件实践</t>
@@ -99,9 +108,6 @@
     </r>
   </si>
   <si>
-    <t>消费金融真经</t>
-  </si>
-  <si>
     <t>影响力</t>
   </si>
   <si>
@@ -113,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -154,22 +160,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,36 +173,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +203,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +234,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -272,10 +249,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,9 +263,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,7 +329,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +377,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,31 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,120 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,22 +728,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,46 +790,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -820,148 +826,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,7 +1416,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2348,7 +2354,7 @@
       <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
@@ -2419,7 +2425,7 @@
     </row>
     <row r="15" ht="10.15" customHeight="1" spans="1:65">
       <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="14"/>
@@ -2628,7 +2634,7 @@
       <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="10"/>
@@ -2768,7 +2774,7 @@
       <c r="A20" s="12">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="10"/>
@@ -2839,7 +2845,7 @@
     </row>
     <row r="21" ht="10.15" customHeight="1" spans="1:65">
       <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
@@ -2908,7 +2914,7 @@
       <c r="A22" s="12">
         <v>10</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="10"/>
@@ -3748,7 +3754,7 @@
       <c r="A34" s="12">
         <v>16</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="10"/>
@@ -3888,7 +3894,7 @@
       <c r="A36" s="12">
         <v>17</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="10"/>
@@ -4028,7 +4034,7 @@
       <c r="A38" s="12">
         <v>18</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="10"/>
@@ -4168,7 +4174,9 @@
       <c r="A40" s="12">
         <v>19</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="10"/>
@@ -4306,7 +4314,9 @@
       <c r="A42" s="12">
         <v>20</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
       <c r="E42" s="10"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9635"/>
+    <workbookView windowWidth="22943" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -158,6 +158,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -165,14 +202,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,66 +303,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +335,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,79 +449,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,61 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,24 +726,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,11 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,164 +821,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1679,7 +1679,7 @@
       <c r="V4" s="21"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="11"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="11124"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -166,6 +166,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,7 +187,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,52 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,9 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,18 +300,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,7 +329,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,31 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,79 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,49 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +724,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -738,8 +777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,23 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,177 +821,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,10 +1416,10 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -1681,7 +1681,7 @@
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="10"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
@@ -5049,7 +5049,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5066,7 +5066,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -158,28 +158,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,36 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,9 +186,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -277,8 +240,45 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,10 +301,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,13 +329,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +389,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,79 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +724,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -735,6 +762,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,44 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,168 +821,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1685,7 +1685,7 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="10"/>
+      <c r="AE4" s="22"/>
       <c r="AF4" s="11"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="11"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28703" windowHeight="13164"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -119,8 +119,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -157,20 +157,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -194,7 +180,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +227,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,15 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +257,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +285,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -329,19 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,19 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,133 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,26 +727,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,28 +763,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,153 +810,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,10 +1416,10 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -1687,7 +1687,7 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="10"/>
+      <c r="AG4" s="22"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="11"/>
@@ -5049,7 +5049,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5066,7 +5066,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -157,6 +157,87 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,30 +254,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,42 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -273,36 +303,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,37 +329,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,43 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,43 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +727,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -748,39 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -796,21 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -821,157 +812,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1045,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1416,7 +1419,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1487,10 +1490,10 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="25">
+      <c r="AO1" s="26">
         <v>10</v>
       </c>
-      <c r="AP1" s="25"/>
+      <c r="AP1" s="26"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4">
@@ -1503,20 +1506,20 @@
         <v>12</v>
       </c>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
     </row>
     <row r="2" ht="11.1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1" spans="1:65">
@@ -1647,8 +1650,8 @@
       <c r="BK3" s="7">
         <v>31</v>
       </c>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="30"/>
+      <c r="BL3" s="28"/>
+      <c r="BM3" s="31"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="8">
@@ -1689,7 +1692,7 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="22"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="10"/>
+      <c r="AI4" s="25"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
@@ -1718,7 +1721,7 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="10"/>
-      <c r="BL4" s="28"/>
+      <c r="BL4" s="29"/>
       <c r="BM4" s="7">
         <v>1</v>
       </c>
@@ -1758,7 +1761,7 @@
       <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="14"/>
+      <c r="AI5" s="22"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="14"/>
       <c r="AL5" s="15"/>
@@ -1787,7 +1790,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="29"/>
+      <c r="BL5" s="30"/>
       <c r="BM5" s="7"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -1858,7 +1861,7 @@
       <c r="BI6" s="10"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
-      <c r="BL6" s="28"/>
+      <c r="BL6" s="29"/>
       <c r="BM6" s="7">
         <v>2</v>
       </c>
@@ -1927,7 +1930,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="29"/>
+      <c r="BL7" s="30"/>
       <c r="BM7" s="7"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -1998,7 +2001,7 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="28"/>
+      <c r="BL8" s="29"/>
       <c r="BM8" s="7">
         <v>3</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="29"/>
+      <c r="BL9" s="30"/>
       <c r="BM9" s="7"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2138,7 +2141,7 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="28"/>
+      <c r="BL10" s="29"/>
       <c r="BM10" s="7">
         <v>4</v>
       </c>
@@ -2207,7 +2210,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="29"/>
+      <c r="BL11" s="30"/>
       <c r="BM11" s="7"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2278,7 +2281,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="28"/>
+      <c r="BL12" s="29"/>
       <c r="BM12" s="7">
         <v>5</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="29"/>
+      <c r="BL13" s="30"/>
       <c r="BM13" s="7"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2418,7 +2421,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="28"/>
+      <c r="BL14" s="29"/>
       <c r="BM14" s="7">
         <v>6</v>
       </c>
@@ -2487,7 +2490,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="29"/>
+      <c r="BL15" s="30"/>
       <c r="BM15" s="7"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2558,7 +2561,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="10"/>
-      <c r="BL16" s="28"/>
+      <c r="BL16" s="29"/>
       <c r="BM16" s="7">
         <v>7</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="29"/>
+      <c r="BL17" s="30"/>
       <c r="BM17" s="7"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2698,7 +2701,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="10"/>
-      <c r="BL18" s="28"/>
+      <c r="BL18" s="29"/>
       <c r="BM18" s="7">
         <v>8</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="29"/>
+      <c r="BL19" s="30"/>
       <c r="BM19" s="7"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -2838,7 +2841,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="28"/>
+      <c r="BL20" s="29"/>
       <c r="BM20" s="7">
         <v>9</v>
       </c>
@@ -2907,7 +2910,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="29"/>
+      <c r="BL21" s="30"/>
       <c r="BM21" s="7"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -2978,7 +2981,7 @@
       <c r="BI22" s="10"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="10"/>
-      <c r="BL22" s="28"/>
+      <c r="BL22" s="29"/>
       <c r="BM22" s="7">
         <v>10</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="29"/>
+      <c r="BL23" s="30"/>
       <c r="BM23" s="7"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3118,7 +3121,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="10"/>
-      <c r="BL24" s="28"/>
+      <c r="BL24" s="29"/>
       <c r="BM24" s="7">
         <v>11</v>
       </c>
@@ -3187,7 +3190,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="29"/>
+      <c r="BL25" s="30"/>
       <c r="BM25" s="7"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3258,7 +3261,7 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="28"/>
+      <c r="BL26" s="29"/>
       <c r="BM26" s="7">
         <v>12</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="29"/>
+      <c r="BL27" s="30"/>
       <c r="BM27" s="7"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3398,7 +3401,7 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="10"/>
-      <c r="BL28" s="28"/>
+      <c r="BL28" s="29"/>
       <c r="BM28" s="7">
         <v>13</v>
       </c>
@@ -3467,7 +3470,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="29"/>
+      <c r="BL29" s="30"/>
       <c r="BM29" s="7"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3538,7 +3541,7 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="10"/>
-      <c r="BL30" s="28"/>
+      <c r="BL30" s="29"/>
       <c r="BM30" s="7">
         <v>14</v>
       </c>
@@ -3607,7 +3610,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="29"/>
+      <c r="BL31" s="30"/>
       <c r="BM31" s="7"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3678,7 +3681,7 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="28"/>
+      <c r="BL32" s="29"/>
       <c r="BM32" s="7">
         <v>15</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="29"/>
+      <c r="BL33" s="30"/>
       <c r="BM33" s="7"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -3818,7 +3821,7 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="10"/>
-      <c r="BL34" s="28"/>
+      <c r="BL34" s="29"/>
       <c r="BM34" s="7">
         <v>16</v>
       </c>
@@ -3887,7 +3890,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="29"/>
+      <c r="BL35" s="30"/>
       <c r="BM35" s="7"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -3958,7 +3961,7 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="10"/>
-      <c r="BL36" s="28"/>
+      <c r="BL36" s="29"/>
       <c r="BM36" s="7">
         <v>17</v>
       </c>
@@ -4027,7 +4030,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="29"/>
+      <c r="BL37" s="30"/>
       <c r="BM37" s="7"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4098,7 +4101,7 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="10"/>
-      <c r="BL38" s="28"/>
+      <c r="BL38" s="29"/>
       <c r="BM38" s="7">
         <v>18</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="29"/>
+      <c r="BL39" s="30"/>
       <c r="BM39" s="7"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4238,7 +4241,7 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="10"/>
-      <c r="BL40" s="28"/>
+      <c r="BL40" s="29"/>
       <c r="BM40" s="7">
         <v>19</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="29"/>
+      <c r="BL41" s="30"/>
       <c r="BM41" s="7"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4378,7 +4381,7 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="10"/>
-      <c r="BL42" s="28"/>
+      <c r="BL42" s="29"/>
       <c r="BM42" s="7">
         <v>20</v>
       </c>
@@ -4447,7 +4450,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="29"/>
+      <c r="BL43" s="30"/>
       <c r="BM43" s="7"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -4516,7 +4519,7 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="10"/>
-      <c r="BL44" s="28"/>
+      <c r="BL44" s="29"/>
       <c r="BM44" s="7">
         <v>21</v>
       </c>
@@ -4585,7 +4588,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="29"/>
+      <c r="BL45" s="30"/>
       <c r="BM45" s="7"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4654,7 +4657,7 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="10"/>
-      <c r="BL46" s="28"/>
+      <c r="BL46" s="29"/>
       <c r="BM46" s="7">
         <v>22</v>
       </c>
@@ -4723,7 +4726,7 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="29"/>
+      <c r="BL47" s="30"/>
       <c r="BM47" s="7"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:65">
@@ -4792,7 +4795,7 @@
       <c r="BI48" s="10"/>
       <c r="BJ48" s="11"/>
       <c r="BK48" s="10"/>
-      <c r="BL48" s="28"/>
+      <c r="BL48" s="29"/>
       <c r="BM48" s="7">
         <v>23</v>
       </c>
@@ -4861,7 +4864,7 @@
       <c r="BI49" s="14"/>
       <c r="BJ49" s="15"/>
       <c r="BK49" s="14"/>
-      <c r="BL49" s="29"/>
+      <c r="BL49" s="30"/>
       <c r="BM49" s="7"/>
     </row>
     <row r="50" ht="12.95" customHeight="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28703" windowHeight="13164"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -165,13 +165,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,7 +172,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,54 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -247,7 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,10 +232,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,17 +263,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +347,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,109 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +443,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,15 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,17 +739,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +774,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -804,20 +815,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,10 +829,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,133 +841,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,10 +1419,10 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -1692,7 +1692,7 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="22"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="25"/>
+      <c r="AI4" s="20"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
@@ -1761,7 +1761,6 @@
       <c r="AF5" s="15"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="22"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="14"/>
       <c r="AL5" s="15"/>
@@ -1832,9 +1831,9 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="10"/>
+      <c r="AI6" s="22"/>
       <c r="AJ6" s="11"/>
-      <c r="AK6" s="10"/>
+      <c r="AK6" s="25"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="11"/>
@@ -5052,7 +5051,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5069,7 +5068,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>人月神话</t>
   </si>
+  <si>
+    <t>企业应用架构模式</t>
+  </si>
 </sst>
 </file>
 
@@ -120,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -157,10 +160,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +236,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,23 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,76 +297,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -329,13 +332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +374,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,133 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,32 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -798,6 +775,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -812,166 +824,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,9 +1048,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1490,10 +1490,10 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="26">
+      <c r="AO1" s="25">
         <v>10</v>
       </c>
-      <c r="AP1" s="26"/>
+      <c r="AP1" s="25"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4">
@@ -1506,20 +1506,20 @@
         <v>12</v>
       </c>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
     </row>
     <row r="2" ht="11.1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1" spans="1:65">
@@ -1650,8 +1650,8 @@
       <c r="BK3" s="7">
         <v>31</v>
       </c>
-      <c r="BL3" s="28"/>
-      <c r="BM3" s="31"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="30"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="8">
@@ -1721,7 +1721,7 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="10"/>
-      <c r="BL4" s="29"/>
+      <c r="BL4" s="28"/>
       <c r="BM4" s="7">
         <v>1</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="30"/>
+      <c r="BL5" s="29"/>
       <c r="BM5" s="7"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -1833,13 +1833,13 @@
       <c r="AH6" s="11"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="11"/>
-      <c r="AK6" s="25"/>
+      <c r="AK6" s="20"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="10"/>
+      <c r="AQ6" s="22"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="11"/>
@@ -1860,7 +1860,7 @@
       <c r="BI6" s="10"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
-      <c r="BL6" s="29"/>
+      <c r="BL6" s="28"/>
       <c r="BM6" s="7">
         <v>2</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="30"/>
+      <c r="BL7" s="29"/>
       <c r="BM7" s="7"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -2000,7 +2000,7 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="29"/>
+      <c r="BL8" s="28"/>
       <c r="BM8" s="7">
         <v>3</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="30"/>
+      <c r="BL9" s="29"/>
       <c r="BM9" s="7"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2140,7 +2140,7 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="29"/>
+      <c r="BL10" s="28"/>
       <c r="BM10" s="7">
         <v>4</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="30"/>
+      <c r="BL11" s="29"/>
       <c r="BM11" s="7"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2280,7 +2280,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="29"/>
+      <c r="BL12" s="28"/>
       <c r="BM12" s="7">
         <v>5</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="30"/>
+      <c r="BL13" s="29"/>
       <c r="BM13" s="7"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2420,7 +2420,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="29"/>
+      <c r="BL14" s="28"/>
       <c r="BM14" s="7">
         <v>6</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="30"/>
+      <c r="BL15" s="29"/>
       <c r="BM15" s="7"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2560,7 +2560,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="10"/>
-      <c r="BL16" s="29"/>
+      <c r="BL16" s="28"/>
       <c r="BM16" s="7">
         <v>7</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="30"/>
+      <c r="BL17" s="29"/>
       <c r="BM17" s="7"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2700,7 +2700,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="10"/>
-      <c r="BL18" s="29"/>
+      <c r="BL18" s="28"/>
       <c r="BM18" s="7">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="30"/>
+      <c r="BL19" s="29"/>
       <c r="BM19" s="7"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -2840,7 +2840,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="29"/>
+      <c r="BL20" s="28"/>
       <c r="BM20" s="7">
         <v>9</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="30"/>
+      <c r="BL21" s="29"/>
       <c r="BM21" s="7"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -2980,7 +2980,7 @@
       <c r="BI22" s="10"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="10"/>
-      <c r="BL22" s="29"/>
+      <c r="BL22" s="28"/>
       <c r="BM22" s="7">
         <v>10</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="30"/>
+      <c r="BL23" s="29"/>
       <c r="BM23" s="7"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3120,7 +3120,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="10"/>
-      <c r="BL24" s="29"/>
+      <c r="BL24" s="28"/>
       <c r="BM24" s="7">
         <v>11</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="30"/>
+      <c r="BL25" s="29"/>
       <c r="BM25" s="7"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3260,7 +3260,7 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="29"/>
+      <c r="BL26" s="28"/>
       <c r="BM26" s="7">
         <v>12</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="30"/>
+      <c r="BL27" s="29"/>
       <c r="BM27" s="7"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3400,7 +3400,7 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="10"/>
-      <c r="BL28" s="29"/>
+      <c r="BL28" s="28"/>
       <c r="BM28" s="7">
         <v>13</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="30"/>
+      <c r="BL29" s="29"/>
       <c r="BM29" s="7"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3540,7 +3540,7 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="10"/>
-      <c r="BL30" s="29"/>
+      <c r="BL30" s="28"/>
       <c r="BM30" s="7">
         <v>14</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="30"/>
+      <c r="BL31" s="29"/>
       <c r="BM31" s="7"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3680,7 +3680,7 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="29"/>
+      <c r="BL32" s="28"/>
       <c r="BM32" s="7">
         <v>15</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="30"/>
+      <c r="BL33" s="29"/>
       <c r="BM33" s="7"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -3820,7 +3820,7 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="10"/>
-      <c r="BL34" s="29"/>
+      <c r="BL34" s="28"/>
       <c r="BM34" s="7">
         <v>16</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="30"/>
+      <c r="BL35" s="29"/>
       <c r="BM35" s="7"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -3960,7 +3960,7 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="10"/>
-      <c r="BL36" s="29"/>
+      <c r="BL36" s="28"/>
       <c r="BM36" s="7">
         <v>17</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="30"/>
+      <c r="BL37" s="29"/>
       <c r="BM37" s="7"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4100,7 +4100,7 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="10"/>
-      <c r="BL38" s="29"/>
+      <c r="BL38" s="28"/>
       <c r="BM38" s="7">
         <v>18</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="30"/>
+      <c r="BL39" s="29"/>
       <c r="BM39" s="7"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4240,7 +4240,7 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="10"/>
-      <c r="BL40" s="29"/>
+      <c r="BL40" s="28"/>
       <c r="BM40" s="7">
         <v>19</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="30"/>
+      <c r="BL41" s="29"/>
       <c r="BM41" s="7"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4380,7 +4380,7 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="10"/>
-      <c r="BL42" s="29"/>
+      <c r="BL42" s="28"/>
       <c r="BM42" s="7">
         <v>20</v>
       </c>
@@ -4449,14 +4449,16 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="30"/>
+      <c r="BL43" s="29"/>
       <c r="BM43" s="7"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
       <c r="A44" s="12">
         <v>21</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="10"/>
@@ -4518,7 +4520,7 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="10"/>
-      <c r="BL44" s="29"/>
+      <c r="BL44" s="28"/>
       <c r="BM44" s="7">
         <v>21</v>
       </c>
@@ -4587,7 +4589,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="30"/>
+      <c r="BL45" s="29"/>
       <c r="BM45" s="7"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4656,7 +4658,7 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="10"/>
-      <c r="BL46" s="29"/>
+      <c r="BL46" s="28"/>
       <c r="BM46" s="7">
         <v>22</v>
       </c>
@@ -4725,7 +4727,7 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="30"/>
+      <c r="BL47" s="29"/>
       <c r="BM47" s="7"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:65">
@@ -4794,7 +4796,7 @@
       <c r="BI48" s="10"/>
       <c r="BJ48" s="11"/>
       <c r="BK48" s="10"/>
-      <c r="BL48" s="29"/>
+      <c r="BL48" s="28"/>
       <c r="BM48" s="7">
         <v>23</v>
       </c>
@@ -4863,7 +4865,7 @@
       <c r="BI49" s="14"/>
       <c r="BJ49" s="15"/>
       <c r="BK49" s="14"/>
-      <c r="BL49" s="30"/>
+      <c r="BL49" s="29"/>
       <c r="BM49" s="7"/>
     </row>
     <row r="50" ht="12.95" customHeight="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -160,6 +160,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -182,11 +203,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,52 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -304,8 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,13 +332,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,19 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,115 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +737,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -753,9 +768,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,203 +824,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1702,8 +1702,8 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="11"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="10"/>
@@ -1770,8 +1770,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="15"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -116,15 +116,18 @@
   <si>
     <t>企业应用架构模式</t>
   </si>
+  <si>
+    <t>刻意练习</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -161,13 +164,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -176,6 +172,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,17 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +262,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -281,16 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,14 +309,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,19 +335,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,19 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,61 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,41 +730,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,15 +761,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,23 +783,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +835,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,16 +847,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,115 +865,115 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,7 +1422,7 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4596,7 +4599,9 @@
       <c r="A46" s="12">
         <v>22</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
       <c r="E46" s="10"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28703" windowHeight="13164"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -119,16 +119,19 @@
   <si>
     <t>刻意练习</t>
   </si>
+  <si>
+    <t>java深度历险</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -164,13 +167,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,7 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,18 +203,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,11 +264,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,14 +303,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,13 +338,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,43 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,103 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +733,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,57 +787,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,153 +815,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,10 +1425,10 @@
   <dimension ref="A1:BM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -4739,7 +4742,9 @@
       <c r="A48" s="12">
         <v>23</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="10"/>
@@ -5058,7 +5063,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5075,7 +5080,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28703" windowHeight="13164"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -120,6 +120,9 @@
     <t>刻意练习</t>
   </si>
   <si>
+    <t>数据库重构</t>
+  </si>
+  <si>
     <t>java深度历险</t>
   </si>
 </sst>
@@ -128,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -173,9 +176,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,44 +221,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,23 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +296,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -311,7 +314,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,30 +353,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,25 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +401,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,37 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -694,6 +697,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="dotted">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
@@ -733,38 +767,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="dotted">
+        <color indexed="22"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -787,7 +795,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,8 +827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,157 +847,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +1081,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,13 +1117,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,13 +1480,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM84"/>
+  <dimension ref="A1:BM86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -1496,10 +1554,10 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="25">
+      <c r="AO1" s="29">
         <v>10</v>
       </c>
-      <c r="AP1" s="25"/>
+      <c r="AP1" s="29"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4">
@@ -1512,20 +1570,20 @@
         <v>12</v>
       </c>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
     </row>
     <row r="2" ht="11.1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1" spans="1:65">
@@ -1656,8 +1714,8 @@
       <c r="BK3" s="7">
         <v>31</v>
       </c>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="30"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="35"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="8">
@@ -1678,27 +1736,27 @@
       <c r="L4" s="11"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="22"/>
+      <c r="AA4" s="26"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="22"/>
+      <c r="AE4" s="26"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="22"/>
+      <c r="AG4" s="26"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="20"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
@@ -1708,8 +1766,8 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="10"/>
@@ -1727,7 +1785,7 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="10"/>
-      <c r="BL4" s="28"/>
+      <c r="BL4" s="32"/>
       <c r="BM4" s="7">
         <v>1</v>
       </c>
@@ -1749,14 +1807,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="28"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="14"/>
@@ -1776,8 +1834,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>
@@ -1795,7 +1853,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="29"/>
+      <c r="BL5" s="33"/>
       <c r="BM5" s="7"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -1819,14 +1877,14 @@
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="21"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="10"/>
@@ -1837,15 +1895,15 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="22"/>
+      <c r="AI6" s="26"/>
       <c r="AJ6" s="11"/>
-      <c r="AK6" s="20"/>
+      <c r="AK6" s="24"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="22"/>
+      <c r="AQ6" s="26"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="11"/>
@@ -1866,7 +1924,7 @@
       <c r="BI6" s="10"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
-      <c r="BL6" s="28"/>
+      <c r="BL6" s="32"/>
       <c r="BM6" s="7">
         <v>2</v>
       </c>
@@ -1888,14 +1946,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
@@ -1935,7 +1993,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="29"/>
+      <c r="BL7" s="33"/>
       <c r="BM7" s="7"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -2006,7 +2064,7 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="28"/>
+      <c r="BL8" s="32"/>
       <c r="BM8" s="7">
         <v>3</v>
       </c>
@@ -2075,7 +2133,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="29"/>
+      <c r="BL9" s="33"/>
       <c r="BM9" s="7"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2131,7 +2189,7 @@
       <c r="AT10" s="11"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="10"/>
+      <c r="AW10" s="26"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
@@ -2146,7 +2204,7 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="28"/>
+      <c r="BL10" s="32"/>
       <c r="BM10" s="7">
         <v>4</v>
       </c>
@@ -2215,7 +2273,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="29"/>
+      <c r="BL11" s="33"/>
       <c r="BM11" s="7"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2286,7 +2344,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="28"/>
+      <c r="BL12" s="32"/>
       <c r="BM12" s="7">
         <v>5</v>
       </c>
@@ -2355,7 +2413,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="29"/>
+      <c r="BL13" s="33"/>
       <c r="BM13" s="7"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2426,7 +2484,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="28"/>
+      <c r="BL14" s="32"/>
       <c r="BM14" s="7">
         <v>6</v>
       </c>
@@ -2495,7 +2553,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="29"/>
+      <c r="BL15" s="33"/>
       <c r="BM15" s="7"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2566,7 +2624,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="10"/>
-      <c r="BL16" s="28"/>
+      <c r="BL16" s="32"/>
       <c r="BM16" s="7">
         <v>7</v>
       </c>
@@ -2635,7 +2693,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="29"/>
+      <c r="BL17" s="33"/>
       <c r="BM17" s="7"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2706,7 +2764,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="10"/>
-      <c r="BL18" s="28"/>
+      <c r="BL18" s="32"/>
       <c r="BM18" s="7">
         <v>8</v>
       </c>
@@ -2775,7 +2833,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="29"/>
+      <c r="BL19" s="33"/>
       <c r="BM19" s="7"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -2846,7 +2904,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="28"/>
+      <c r="BL20" s="32"/>
       <c r="BM20" s="7">
         <v>9</v>
       </c>
@@ -2915,7 +2973,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="29"/>
+      <c r="BL21" s="33"/>
       <c r="BM21" s="7"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -2986,7 +3044,7 @@
       <c r="BI22" s="10"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="10"/>
-      <c r="BL22" s="28"/>
+      <c r="BL22" s="32"/>
       <c r="BM22" s="7">
         <v>10</v>
       </c>
@@ -3055,7 +3113,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="29"/>
+      <c r="BL23" s="33"/>
       <c r="BM23" s="7"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3126,7 +3184,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="10"/>
-      <c r="BL24" s="28"/>
+      <c r="BL24" s="32"/>
       <c r="BM24" s="7">
         <v>11</v>
       </c>
@@ -3195,7 +3253,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="29"/>
+      <c r="BL25" s="33"/>
       <c r="BM25" s="7"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3266,7 +3324,7 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="28"/>
+      <c r="BL26" s="32"/>
       <c r="BM26" s="7">
         <v>12</v>
       </c>
@@ -3335,7 +3393,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="29"/>
+      <c r="BL27" s="33"/>
       <c r="BM27" s="7"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3406,7 +3464,7 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="10"/>
-      <c r="BL28" s="28"/>
+      <c r="BL28" s="32"/>
       <c r="BM28" s="7">
         <v>13</v>
       </c>
@@ -3475,7 +3533,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="29"/>
+      <c r="BL29" s="33"/>
       <c r="BM29" s="7"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3546,7 +3604,7 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="10"/>
-      <c r="BL30" s="28"/>
+      <c r="BL30" s="32"/>
       <c r="BM30" s="7">
         <v>14</v>
       </c>
@@ -3615,7 +3673,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="29"/>
+      <c r="BL31" s="33"/>
       <c r="BM31" s="7"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3686,7 +3744,7 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="28"/>
+      <c r="BL32" s="32"/>
       <c r="BM32" s="7">
         <v>15</v>
       </c>
@@ -3755,7 +3813,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="29"/>
+      <c r="BL33" s="33"/>
       <c r="BM33" s="7"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -3826,7 +3884,7 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="10"/>
-      <c r="BL34" s="28"/>
+      <c r="BL34" s="32"/>
       <c r="BM34" s="7">
         <v>16</v>
       </c>
@@ -3895,7 +3953,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="29"/>
+      <c r="BL35" s="33"/>
       <c r="BM35" s="7"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -3966,7 +4024,7 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="10"/>
-      <c r="BL36" s="28"/>
+      <c r="BL36" s="32"/>
       <c r="BM36" s="7">
         <v>17</v>
       </c>
@@ -4035,7 +4093,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="29"/>
+      <c r="BL37" s="33"/>
       <c r="BM37" s="7"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4106,7 +4164,7 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="10"/>
-      <c r="BL38" s="28"/>
+      <c r="BL38" s="32"/>
       <c r="BM38" s="7">
         <v>18</v>
       </c>
@@ -4175,7 +4233,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="29"/>
+      <c r="BL39" s="33"/>
       <c r="BM39" s="7"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4246,7 +4304,7 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="10"/>
-      <c r="BL40" s="28"/>
+      <c r="BL40" s="32"/>
       <c r="BM40" s="7">
         <v>19</v>
       </c>
@@ -4315,7 +4373,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="29"/>
+      <c r="BL41" s="33"/>
       <c r="BM41" s="7"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4386,7 +4444,7 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="10"/>
-      <c r="BL42" s="28"/>
+      <c r="BL42" s="32"/>
       <c r="BM42" s="7">
         <v>20</v>
       </c>
@@ -4455,7 +4513,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="29"/>
+      <c r="BL43" s="33"/>
       <c r="BM43" s="7"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -4526,7 +4584,7 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="10"/>
-      <c r="BL44" s="28"/>
+      <c r="BL44" s="32"/>
       <c r="BM44" s="7">
         <v>21</v>
       </c>
@@ -4595,7 +4653,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="29"/>
+      <c r="BL45" s="33"/>
       <c r="BM45" s="7"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4666,7 +4724,7 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="10"/>
-      <c r="BL46" s="28"/>
+      <c r="BL46" s="32"/>
       <c r="BM46" s="7">
         <v>22</v>
       </c>
@@ -4735,151 +4793,285 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="29"/>
+      <c r="BL47" s="33"/>
       <c r="BM47" s="7"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A48" s="12">
-        <v>23</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="11"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="11"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="11"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="11"/>
-      <c r="AY48" s="10"/>
-      <c r="AZ48" s="11"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="11"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="11"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="11"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="11"/>
-      <c r="BI48" s="10"/>
-      <c r="BJ48" s="11"/>
-      <c r="BK48" s="10"/>
-      <c r="BL48" s="28"/>
-      <c r="BM48" s="7">
-        <v>23</v>
-      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="21"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="21"/>
+      <c r="BA48" s="20"/>
+      <c r="BB48" s="21"/>
+      <c r="BC48" s="20"/>
+      <c r="BD48" s="21"/>
+      <c r="BE48" s="20"/>
+      <c r="BF48" s="21"/>
+      <c r="BG48" s="20"/>
+      <c r="BH48" s="21"/>
+      <c r="BI48" s="20"/>
+      <c r="BJ48" s="21"/>
+      <c r="BK48" s="20"/>
+      <c r="BL48" s="34"/>
+      <c r="BM48" s="7"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
       <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="15"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="15"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="15"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="15"/>
-      <c r="AU49" s="14"/>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="15"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="15"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="15"/>
-      <c r="BC49" s="14"/>
-      <c r="BD49" s="15"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="15"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="15"/>
-      <c r="BI49" s="14"/>
-      <c r="BJ49" s="15"/>
-      <c r="BK49" s="14"/>
-      <c r="BL49" s="29"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="21"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="21"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="21"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="21"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="21"/>
+      <c r="BG49" s="20"/>
+      <c r="BH49" s="21"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="21"/>
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="34"/>
       <c r="BM49" s="7"/>
     </row>
-    <row r="50" ht="12.95" customHeight="1"/>
-    <row r="51" ht="12.95" customHeight="1"/>
+    <row r="50" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A50" s="12">
+        <v>23</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="11"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="10"/>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="32"/>
+      <c r="BM50" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="15"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="14"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="33"/>
+      <c r="BM51" s="7"/>
+    </row>
     <row r="52" ht="12.95" customHeight="1"/>
     <row r="53" ht="12.95" customHeight="1"/>
     <row r="54" ht="12.95" customHeight="1"/>
@@ -4913,8 +5105,10 @@
     <row r="82" ht="12.95" customHeight="1"/>
     <row r="83" ht="12.95" customHeight="1"/>
     <row r="84" ht="12.95" customHeight="1"/>
+    <row r="85" ht="12.95" customHeight="1"/>
+    <row r="86" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="133">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5000,7 +5194,7 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
@@ -5024,6 +5218,7 @@
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BM8:BM9"/>
@@ -5046,7 +5241,7 @@
     <mergeCell ref="BM42:BM43"/>
     <mergeCell ref="BM44:BM45"/>
     <mergeCell ref="BM46:BM47"/>
-    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="BM50:BM51"/>
   </mergeCells>
   <pageMargins left="0.747916666666667" right="0.393055555555556" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>
@@ -5063,7 +5258,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5080,7 +5275,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -123,6 +123,9 @@
     <t>数据库重构</t>
   </si>
   <si>
+    <t>大数据应用与技术丛书·数据仓库工具箱（第3版）</t>
+  </si>
+  <si>
     <t>java深度历险</t>
   </si>
 </sst>
@@ -131,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -170,7 +173,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,36 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,20 +240,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +271,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -296,25 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,108 +344,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,7 +356,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,37 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,26 +528,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -697,6 +700,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="dotted">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -802,9 +818,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +860,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,183 +889,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,18 +1097,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1114,19 +1148,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1480,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM86"/>
+  <dimension ref="A1:BM88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+      <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1554,10 +1588,10 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="29">
+      <c r="AO1" s="35">
         <v>10</v>
       </c>
-      <c r="AP1" s="29"/>
+      <c r="AP1" s="35"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4">
@@ -1570,20 +1604,20 @@
         <v>12</v>
       </c>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="30"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
     </row>
     <row r="2" ht="11.1" customHeight="1"/>
     <row r="3" ht="18" customHeight="1" spans="1:65">
@@ -1714,8 +1748,8 @@
       <c r="BK3" s="7">
         <v>31</v>
       </c>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="35"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="41"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="8">
@@ -1736,27 +1770,27 @@
       <c r="L4" s="11"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="23"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="26"/>
+      <c r="AA4" s="32"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="26"/>
+      <c r="AE4" s="32"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="26"/>
+      <c r="AG4" s="32"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="24"/>
+      <c r="AI4" s="30"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
@@ -1766,8 +1800,8 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="10"/>
@@ -1785,7 +1819,7 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="10"/>
-      <c r="BL4" s="32"/>
+      <c r="BL4" s="37"/>
       <c r="BM4" s="7">
         <v>1</v>
       </c>
@@ -1807,14 +1841,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="28"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="14"/>
@@ -1834,8 +1868,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>
@@ -1853,7 +1887,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="33"/>
+      <c r="BL5" s="38"/>
       <c r="BM5" s="7"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -1877,14 +1911,14 @@
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="31"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="10"/>
@@ -1895,15 +1929,15 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="26"/>
+      <c r="AI6" s="32"/>
       <c r="AJ6" s="11"/>
-      <c r="AK6" s="24"/>
+      <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="26"/>
+      <c r="AQ6" s="32"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="11"/>
@@ -1924,7 +1958,7 @@
       <c r="BI6" s="10"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
-      <c r="BL6" s="32"/>
+      <c r="BL6" s="37"/>
       <c r="BM6" s="7">
         <v>2</v>
       </c>
@@ -1946,14 +1980,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="28"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="34"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
@@ -1993,7 +2027,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="33"/>
+      <c r="BL7" s="38"/>
       <c r="BM7" s="7"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -2064,7 +2098,7 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="32"/>
+      <c r="BL8" s="37"/>
       <c r="BM8" s="7">
         <v>3</v>
       </c>
@@ -2133,7 +2167,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="33"/>
+      <c r="BL9" s="38"/>
       <c r="BM9" s="7"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2189,7 +2223,7 @@
       <c r="AT10" s="11"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="26"/>
+      <c r="AW10" s="32"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
@@ -2204,7 +2238,7 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="32"/>
+      <c r="BL10" s="37"/>
       <c r="BM10" s="7">
         <v>4</v>
       </c>
@@ -2273,7 +2307,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="33"/>
+      <c r="BL11" s="38"/>
       <c r="BM11" s="7"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2344,7 +2378,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="32"/>
+      <c r="BL12" s="37"/>
       <c r="BM12" s="7">
         <v>5</v>
       </c>
@@ -2413,7 +2447,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="33"/>
+      <c r="BL13" s="38"/>
       <c r="BM13" s="7"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2484,7 +2518,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="32"/>
+      <c r="BL14" s="37"/>
       <c r="BM14" s="7">
         <v>6</v>
       </c>
@@ -2553,7 +2587,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="33"/>
+      <c r="BL15" s="38"/>
       <c r="BM15" s="7"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2624,7 +2658,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="10"/>
-      <c r="BL16" s="32"/>
+      <c r="BL16" s="37"/>
       <c r="BM16" s="7">
         <v>7</v>
       </c>
@@ -2693,7 +2727,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="33"/>
+      <c r="BL17" s="38"/>
       <c r="BM17" s="7"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2764,7 +2798,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="10"/>
-      <c r="BL18" s="32"/>
+      <c r="BL18" s="37"/>
       <c r="BM18" s="7">
         <v>8</v>
       </c>
@@ -2833,7 +2867,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="33"/>
+      <c r="BL19" s="38"/>
       <c r="BM19" s="7"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -2904,7 +2938,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="32"/>
+      <c r="BL20" s="37"/>
       <c r="BM20" s="7">
         <v>9</v>
       </c>
@@ -2973,7 +3007,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="33"/>
+      <c r="BL21" s="38"/>
       <c r="BM21" s="7"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -3044,7 +3078,7 @@
       <c r="BI22" s="10"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="10"/>
-      <c r="BL22" s="32"/>
+      <c r="BL22" s="37"/>
       <c r="BM22" s="7">
         <v>10</v>
       </c>
@@ -3113,7 +3147,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="33"/>
+      <c r="BL23" s="38"/>
       <c r="BM23" s="7"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3184,7 +3218,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="10"/>
-      <c r="BL24" s="32"/>
+      <c r="BL24" s="37"/>
       <c r="BM24" s="7">
         <v>11</v>
       </c>
@@ -3253,7 +3287,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="33"/>
+      <c r="BL25" s="38"/>
       <c r="BM25" s="7"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3324,7 +3358,7 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="32"/>
+      <c r="BL26" s="37"/>
       <c r="BM26" s="7">
         <v>12</v>
       </c>
@@ -3393,7 +3427,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="33"/>
+      <c r="BL27" s="38"/>
       <c r="BM27" s="7"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3464,7 +3498,7 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="10"/>
-      <c r="BL28" s="32"/>
+      <c r="BL28" s="37"/>
       <c r="BM28" s="7">
         <v>13</v>
       </c>
@@ -3533,7 +3567,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="33"/>
+      <c r="BL29" s="38"/>
       <c r="BM29" s="7"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3604,7 +3638,7 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="10"/>
-      <c r="BL30" s="32"/>
+      <c r="BL30" s="37"/>
       <c r="BM30" s="7">
         <v>14</v>
       </c>
@@ -3673,7 +3707,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="33"/>
+      <c r="BL31" s="38"/>
       <c r="BM31" s="7"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3744,7 +3778,7 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="32"/>
+      <c r="BL32" s="37"/>
       <c r="BM32" s="7">
         <v>15</v>
       </c>
@@ -3813,7 +3847,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="33"/>
+      <c r="BL33" s="38"/>
       <c r="BM33" s="7"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -3884,7 +3918,7 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="10"/>
-      <c r="BL34" s="32"/>
+      <c r="BL34" s="37"/>
       <c r="BM34" s="7">
         <v>16</v>
       </c>
@@ -3953,7 +3987,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="33"/>
+      <c r="BL35" s="38"/>
       <c r="BM35" s="7"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -4024,7 +4058,7 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="10"/>
-      <c r="BL36" s="32"/>
+      <c r="BL36" s="37"/>
       <c r="BM36" s="7">
         <v>17</v>
       </c>
@@ -4093,7 +4127,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="33"/>
+      <c r="BL37" s="38"/>
       <c r="BM37" s="7"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4164,7 +4198,7 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="10"/>
-      <c r="BL38" s="32"/>
+      <c r="BL38" s="37"/>
       <c r="BM38" s="7">
         <v>18</v>
       </c>
@@ -4233,7 +4267,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="33"/>
+      <c r="BL39" s="38"/>
       <c r="BM39" s="7"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4304,7 +4338,7 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="10"/>
-      <c r="BL40" s="32"/>
+      <c r="BL40" s="37"/>
       <c r="BM40" s="7">
         <v>19</v>
       </c>
@@ -4373,7 +4407,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="33"/>
+      <c r="BL41" s="38"/>
       <c r="BM41" s="7"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4444,7 +4478,7 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="10"/>
-      <c r="BL42" s="32"/>
+      <c r="BL42" s="37"/>
       <c r="BM42" s="7">
         <v>20</v>
       </c>
@@ -4513,7 +4547,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="33"/>
+      <c r="BL43" s="38"/>
       <c r="BM43" s="7"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -4584,7 +4618,7 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="10"/>
-      <c r="BL44" s="32"/>
+      <c r="BL44" s="37"/>
       <c r="BM44" s="7">
         <v>21</v>
       </c>
@@ -4653,7 +4687,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="33"/>
+      <c r="BL45" s="38"/>
       <c r="BM45" s="7"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4724,7 +4758,7 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="10"/>
-      <c r="BL46" s="32"/>
+      <c r="BL46" s="37"/>
       <c r="BM46" s="7">
         <v>22</v>
       </c>
@@ -4793,287 +4827,425 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="33"/>
+      <c r="BL47" s="38"/>
       <c r="BM47" s="7"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A48" s="12"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="19">
+        <v>23</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="21"/>
-      <c r="AO48" s="20"/>
-      <c r="AP48" s="21"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="21"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="21"/>
-      <c r="AU48" s="20"/>
-      <c r="AV48" s="21"/>
-      <c r="AW48" s="20"/>
-      <c r="AX48" s="21"/>
-      <c r="AY48" s="20"/>
-      <c r="AZ48" s="21"/>
-      <c r="BA48" s="20"/>
-      <c r="BB48" s="21"/>
-      <c r="BC48" s="20"/>
-      <c r="BD48" s="21"/>
-      <c r="BE48" s="20"/>
-      <c r="BF48" s="21"/>
-      <c r="BG48" s="20"/>
-      <c r="BH48" s="21"/>
-      <c r="BI48" s="20"/>
-      <c r="BJ48" s="21"/>
-      <c r="BK48" s="20"/>
-      <c r="BL48" s="34"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="22"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="22"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="22"/>
+      <c r="AW48" s="21"/>
+      <c r="AX48" s="22"/>
+      <c r="AY48" s="21"/>
+      <c r="AZ48" s="22"/>
+      <c r="BA48" s="21"/>
+      <c r="BB48" s="22"/>
+      <c r="BC48" s="21"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="21"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="21"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="21"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="21"/>
+      <c r="BL48" s="39"/>
       <c r="BM48" s="7"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A49" s="12"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="20"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="20"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="20"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="20"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="20"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="20"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="20"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="20"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="20"/>
-      <c r="BF49" s="21"/>
-      <c r="BG49" s="20"/>
-      <c r="BH49" s="21"/>
-      <c r="BI49" s="20"/>
-      <c r="BJ49" s="21"/>
-      <c r="BK49" s="20"/>
-      <c r="BL49" s="34"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="22"/>
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="21"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="21"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="39"/>
       <c r="BM49" s="7"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A50" s="12">
-        <v>23</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="19">
+        <v>24</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="11"/>
-      <c r="AY50" s="10"/>
-      <c r="AZ50" s="11"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="11"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="11"/>
-      <c r="BE50" s="10"/>
-      <c r="BF50" s="11"/>
-      <c r="BG50" s="10"/>
-      <c r="BH50" s="11"/>
-      <c r="BI50" s="10"/>
-      <c r="BJ50" s="11"/>
-      <c r="BK50" s="10"/>
-      <c r="BL50" s="32"/>
-      <c r="BM50" s="7">
-        <v>23</v>
-      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="27"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="27"/>
+      <c r="AM50" s="26"/>
+      <c r="AN50" s="27"/>
+      <c r="AO50" s="26"/>
+      <c r="AP50" s="27"/>
+      <c r="AQ50" s="26"/>
+      <c r="AR50" s="27"/>
+      <c r="AS50" s="26"/>
+      <c r="AT50" s="27"/>
+      <c r="AU50" s="26"/>
+      <c r="AV50" s="27"/>
+      <c r="AW50" s="26"/>
+      <c r="AX50" s="27"/>
+      <c r="AY50" s="26"/>
+      <c r="AZ50" s="27"/>
+      <c r="BA50" s="26"/>
+      <c r="BB50" s="27"/>
+      <c r="BC50" s="26"/>
+      <c r="BD50" s="27"/>
+      <c r="BE50" s="26"/>
+      <c r="BF50" s="27"/>
+      <c r="BG50" s="26"/>
+      <c r="BH50" s="27"/>
+      <c r="BI50" s="26"/>
+      <c r="BJ50" s="27"/>
+      <c r="BK50" s="26"/>
+      <c r="BL50" s="40"/>
+      <c r="BM50" s="7"/>
     </row>
     <row r="51" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="15"/>
-      <c r="AU51" s="14"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="15"/>
-      <c r="AY51" s="14"/>
-      <c r="AZ51" s="15"/>
-      <c r="BA51" s="14"/>
-      <c r="BB51" s="15"/>
-      <c r="BC51" s="14"/>
-      <c r="BD51" s="15"/>
-      <c r="BE51" s="14"/>
-      <c r="BF51" s="15"/>
-      <c r="BG51" s="14"/>
-      <c r="BH51" s="15"/>
-      <c r="BI51" s="14"/>
-      <c r="BJ51" s="15"/>
-      <c r="BK51" s="14"/>
-      <c r="BL51" s="33"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="26"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="26"/>
+      <c r="AT51" s="27"/>
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="27"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="27"/>
+      <c r="AY51" s="26"/>
+      <c r="AZ51" s="27"/>
+      <c r="BA51" s="26"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="26"/>
+      <c r="BD51" s="27"/>
+      <c r="BE51" s="26"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="26"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="26"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="26"/>
+      <c r="BL51" s="40"/>
       <c r="BM51" s="7"/>
     </row>
-    <row r="52" ht="12.95" customHeight="1"/>
-    <row r="53" ht="12.95" customHeight="1"/>
+    <row r="52" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A52" s="12">
+        <v>25</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="10"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="10"/>
+      <c r="AZ52" s="11"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="10"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="10"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="10"/>
+      <c r="BL52" s="37"/>
+      <c r="BM52" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="14"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="14"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="14"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="38"/>
+      <c r="BM53" s="7"/>
+    </row>
     <row r="54" ht="12.95" customHeight="1"/>
     <row r="55" ht="12.95" customHeight="1"/>
     <row r="56" ht="12.95" customHeight="1"/>
@@ -5107,8 +5279,10 @@
     <row r="84" ht="12.95" customHeight="1"/>
     <row r="85" ht="12.95" customHeight="1"/>
     <row r="86" ht="12.95" customHeight="1"/>
+    <row r="87" ht="12.95" customHeight="1"/>
+    <row r="88" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="136">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5194,7 +5368,9 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
@@ -5219,6 +5395,7 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BM8:BM9"/>
@@ -5241,7 +5418,7 @@
     <mergeCell ref="BM42:BM43"/>
     <mergeCell ref="BM44:BM45"/>
     <mergeCell ref="BM46:BM47"/>
-    <mergeCell ref="BM50:BM51"/>
+    <mergeCell ref="BM52:BM53"/>
   </mergeCells>
   <pageMargins left="0.747916666666667" right="0.393055555555556" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -123,7 +123,7 @@
     <t>数据库重构</t>
   </si>
   <si>
-    <t>大数据应用与技术丛书·数据仓库工具箱（第3版）</t>
+    <t>大型网站技术架构演进与性能优化</t>
   </si>
   <si>
     <t>java深度历险</t>
@@ -134,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -173,31 +173,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,9 +195,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -239,7 +224,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,37 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -316,14 +285,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,19 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +422,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,25 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,54 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,26 +798,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,32 +836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,157 +871,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,24 +1115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1137,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1155,9 +1152,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -1517,7 +1511,7 @@
   <dimension ref="A1:BM88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B51"/>
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1588,10 +1582,10 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="35">
+      <c r="AO1" s="32">
         <v>10</v>
       </c>
-      <c r="AP1" s="35"/>
+      <c r="AP1" s="32"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4">
@@ -1604,22 +1598,28 @@
         <v>12</v>
       </c>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
     </row>
-    <row r="2" ht="11.1" customHeight="1"/>
+    <row r="2" ht="11.1" customHeight="1" spans="29:33">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="31"/>
+    </row>
     <row r="3" ht="18" customHeight="1" spans="1:65">
       <c r="A3" s="5" t="s">
         <v>1</v>
@@ -1748,8 +1748,8 @@
       <c r="BK3" s="7">
         <v>31</v>
       </c>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="41"/>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="37"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="8">
@@ -1770,27 +1770,27 @@
       <c r="L4" s="11"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="29"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="32"/>
+      <c r="AA4" s="28"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="32"/>
+      <c r="AE4" s="28"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="32"/>
+      <c r="AG4" s="28"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="30"/>
+      <c r="AI4" s="26"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
@@ -1800,8 +1800,8 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="10"/>
@@ -1819,7 +1819,7 @@
       <c r="BI4" s="10"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="10"/>
-      <c r="BL4" s="37"/>
+      <c r="BL4" s="34"/>
       <c r="BM4" s="7">
         <v>1</v>
       </c>
@@ -1841,14 +1841,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="14"/>
@@ -1868,8 +1868,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>
@@ -1887,7 +1887,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="38"/>
+      <c r="BL5" s="35"/>
       <c r="BM5" s="7"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -1911,14 +1911,14 @@
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="31"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="10"/>
@@ -1929,15 +1929,15 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="32"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="11"/>
-      <c r="AK6" s="30"/>
+      <c r="AK6" s="26"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="10"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="32"/>
+      <c r="AQ6" s="28"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="11"/>
@@ -1958,7 +1958,7 @@
       <c r="BI6" s="10"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
-      <c r="BL6" s="37"/>
+      <c r="BL6" s="34"/>
       <c r="BM6" s="7">
         <v>2</v>
       </c>
@@ -1980,14 +1980,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
@@ -2027,7 +2027,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="38"/>
+      <c r="BL7" s="35"/>
       <c r="BM7" s="7"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -2098,7 +2098,7 @@
       <c r="BI8" s="10"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="10"/>
-      <c r="BL8" s="37"/>
+      <c r="BL8" s="34"/>
       <c r="BM8" s="7">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="38"/>
+      <c r="BL9" s="35"/>
       <c r="BM9" s="7"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2223,7 +2223,7 @@
       <c r="AT10" s="11"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="32"/>
+      <c r="AW10" s="28"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
@@ -2238,7 +2238,7 @@
       <c r="BI10" s="10"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="10"/>
-      <c r="BL10" s="37"/>
+      <c r="BL10" s="34"/>
       <c r="BM10" s="7">
         <v>4</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="38"/>
+      <c r="BL11" s="35"/>
       <c r="BM11" s="7"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2378,7 +2378,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="10"/>
-      <c r="BL12" s="37"/>
+      <c r="BL12" s="34"/>
       <c r="BM12" s="7">
         <v>5</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="38"/>
+      <c r="BL13" s="35"/>
       <c r="BM13" s="7"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2518,7 +2518,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="10"/>
-      <c r="BL14" s="37"/>
+      <c r="BL14" s="34"/>
       <c r="BM14" s="7">
         <v>6</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="38"/>
+      <c r="BL15" s="35"/>
       <c r="BM15" s="7"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2658,7 +2658,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="10"/>
-      <c r="BL16" s="37"/>
+      <c r="BL16" s="34"/>
       <c r="BM16" s="7">
         <v>7</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="38"/>
+      <c r="BL17" s="35"/>
       <c r="BM17" s="7"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2798,7 +2798,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="10"/>
-      <c r="BL18" s="37"/>
+      <c r="BL18" s="34"/>
       <c r="BM18" s="7">
         <v>8</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="38"/>
+      <c r="BL19" s="35"/>
       <c r="BM19" s="7"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -2938,7 +2938,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="10"/>
-      <c r="BL20" s="37"/>
+      <c r="BL20" s="34"/>
       <c r="BM20" s="7">
         <v>9</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="38"/>
+      <c r="BL21" s="35"/>
       <c r="BM21" s="7"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -3078,7 +3078,7 @@
       <c r="BI22" s="10"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="10"/>
-      <c r="BL22" s="37"/>
+      <c r="BL22" s="34"/>
       <c r="BM22" s="7">
         <v>10</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="38"/>
+      <c r="BL23" s="35"/>
       <c r="BM23" s="7"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3218,7 +3218,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="10"/>
-      <c r="BL24" s="37"/>
+      <c r="BL24" s="34"/>
       <c r="BM24" s="7">
         <v>11</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="38"/>
+      <c r="BL25" s="35"/>
       <c r="BM25" s="7"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3358,7 +3358,7 @@
       <c r="BI26" s="10"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="10"/>
-      <c r="BL26" s="37"/>
+      <c r="BL26" s="34"/>
       <c r="BM26" s="7">
         <v>12</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="38"/>
+      <c r="BL27" s="35"/>
       <c r="BM27" s="7"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3498,7 +3498,7 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="10"/>
-      <c r="BL28" s="37"/>
+      <c r="BL28" s="34"/>
       <c r="BM28" s="7">
         <v>13</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="38"/>
+      <c r="BL29" s="35"/>
       <c r="BM29" s="7"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3638,7 +3638,7 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="10"/>
-      <c r="BL30" s="37"/>
+      <c r="BL30" s="34"/>
       <c r="BM30" s="7">
         <v>14</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="38"/>
+      <c r="BL31" s="35"/>
       <c r="BM31" s="7"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3778,7 +3778,7 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="37"/>
+      <c r="BL32" s="34"/>
       <c r="BM32" s="7">
         <v>15</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="38"/>
+      <c r="BL33" s="35"/>
       <c r="BM33" s="7"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -3918,7 +3918,7 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="10"/>
-      <c r="BL34" s="37"/>
+      <c r="BL34" s="34"/>
       <c r="BM34" s="7">
         <v>16</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="38"/>
+      <c r="BL35" s="35"/>
       <c r="BM35" s="7"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -4058,7 +4058,7 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="10"/>
-      <c r="BL36" s="37"/>
+      <c r="BL36" s="34"/>
       <c r="BM36" s="7">
         <v>17</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="38"/>
+      <c r="BL37" s="35"/>
       <c r="BM37" s="7"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4198,7 +4198,7 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="10"/>
-      <c r="BL38" s="37"/>
+      <c r="BL38" s="34"/>
       <c r="BM38" s="7">
         <v>18</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="38"/>
+      <c r="BL39" s="35"/>
       <c r="BM39" s="7"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4338,7 +4338,7 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="10"/>
-      <c r="BL40" s="37"/>
+      <c r="BL40" s="34"/>
       <c r="BM40" s="7">
         <v>19</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="38"/>
+      <c r="BL41" s="35"/>
       <c r="BM41" s="7"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4478,7 +4478,7 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="10"/>
-      <c r="BL42" s="37"/>
+      <c r="BL42" s="34"/>
       <c r="BM42" s="7">
         <v>20</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="38"/>
+      <c r="BL43" s="35"/>
       <c r="BM43" s="7"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -4618,7 +4618,7 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="10"/>
-      <c r="BL44" s="37"/>
+      <c r="BL44" s="34"/>
       <c r="BM44" s="7">
         <v>21</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="38"/>
+      <c r="BL45" s="35"/>
       <c r="BM45" s="7"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4758,7 +4758,7 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="10"/>
-      <c r="BL46" s="37"/>
+      <c r="BL46" s="34"/>
       <c r="BM46" s="7">
         <v>22</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="38"/>
+      <c r="BL47" s="35"/>
       <c r="BM47" s="7"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:65">
@@ -4898,12 +4898,12 @@
       <c r="BI48" s="21"/>
       <c r="BJ48" s="22"/>
       <c r="BK48" s="21"/>
-      <c r="BL48" s="39"/>
+      <c r="BL48" s="36"/>
       <c r="BM48" s="7"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
       <c r="E49" s="21"/>
@@ -4965,145 +4965,145 @@
       <c r="BI49" s="21"/>
       <c r="BJ49" s="22"/>
       <c r="BK49" s="21"/>
-      <c r="BL49" s="39"/>
+      <c r="BL49" s="36"/>
       <c r="BM49" s="7"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
       <c r="A50" s="19">
         <v>24</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="26"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="26"/>
-      <c r="AR50" s="27"/>
-      <c r="AS50" s="26"/>
-      <c r="AT50" s="27"/>
-      <c r="AU50" s="26"/>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="26"/>
-      <c r="AX50" s="27"/>
-      <c r="AY50" s="26"/>
-      <c r="AZ50" s="27"/>
-      <c r="BA50" s="26"/>
-      <c r="BB50" s="27"/>
-      <c r="BC50" s="26"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="26"/>
-      <c r="BF50" s="27"/>
-      <c r="BG50" s="26"/>
-      <c r="BH50" s="27"/>
-      <c r="BI50" s="26"/>
-      <c r="BJ50" s="27"/>
-      <c r="BK50" s="26"/>
-      <c r="BL50" s="40"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="22"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="22"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="22"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="22"/>
+      <c r="AQ50" s="21"/>
+      <c r="AR50" s="22"/>
+      <c r="AS50" s="21"/>
+      <c r="AT50" s="22"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="22"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="22"/>
+      <c r="AY50" s="21"/>
+      <c r="AZ50" s="22"/>
+      <c r="BA50" s="21"/>
+      <c r="BB50" s="22"/>
+      <c r="BC50" s="21"/>
+      <c r="BD50" s="22"/>
+      <c r="BE50" s="21"/>
+      <c r="BF50" s="22"/>
+      <c r="BG50" s="21"/>
+      <c r="BH50" s="22"/>
+      <c r="BI50" s="21"/>
+      <c r="BJ50" s="22"/>
+      <c r="BK50" s="21"/>
+      <c r="BL50" s="36"/>
       <c r="BM50" s="7"/>
     </row>
     <row r="51" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A51" s="23"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="27"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="27"/>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="27"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="27"/>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="27"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="27"/>
-      <c r="BC51" s="26"/>
-      <c r="BD51" s="27"/>
-      <c r="BE51" s="26"/>
-      <c r="BF51" s="27"/>
-      <c r="BG51" s="26"/>
-      <c r="BH51" s="27"/>
-      <c r="BI51" s="26"/>
-      <c r="BJ51" s="27"/>
-      <c r="BK51" s="26"/>
-      <c r="BL51" s="40"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="22"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="22"/>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="22"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="22"/>
+      <c r="BC51" s="21"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="21"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="21"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="21"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="36"/>
       <c r="BM51" s="7"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
@@ -5174,7 +5174,7 @@
       <c r="BI52" s="10"/>
       <c r="BJ52" s="11"/>
       <c r="BK52" s="10"/>
-      <c r="BL52" s="37"/>
+      <c r="BL52" s="34"/>
       <c r="BM52" s="7">
         <v>23</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="BI53" s="14"/>
       <c r="BJ53" s="15"/>
       <c r="BK53" s="14"/>
-      <c r="BL53" s="38"/>
+      <c r="BL53" s="35"/>
       <c r="BM53" s="7"/>
     </row>
     <row r="54" ht="12.95" customHeight="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -128,15 +128,21 @@
   <si>
     <t>java深度历险</t>
   </si>
+  <si>
+    <t>领域驱动设计模式、原理与实践</t>
+  </si>
+  <si>
+    <t>spring-5-design-patterns</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -173,9 +179,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,36 +237,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +282,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -285,24 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,8 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +356,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,19 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +482,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,144 +536,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -799,6 +805,32 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -822,26 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -857,17 +869,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,11 +913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,152 +932,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,6 +1190,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM88"/>
+  <dimension ref="A1:BN88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4830,7 +4877,7 @@
       <c r="BL47" s="35"/>
       <c r="BM47" s="7"/>
     </row>
-    <row r="48" ht="10.15" customHeight="1" spans="1:65">
+    <row r="48" ht="10.15" customHeight="1" spans="1:66">
       <c r="A48" s="19">
         <v>23</v>
       </c>
@@ -4899,7 +4946,10 @@
       <c r="BJ48" s="22"/>
       <c r="BK48" s="21"/>
       <c r="BL48" s="36"/>
-      <c r="BM48" s="7"/>
+      <c r="BM48" s="38">
+        <v>23</v>
+      </c>
+      <c r="BN48" s="39"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
       <c r="A49" s="8"/>
@@ -4966,7 +5016,7 @@
       <c r="BJ49" s="22"/>
       <c r="BK49" s="21"/>
       <c r="BL49" s="36"/>
-      <c r="BM49" s="7"/>
+      <c r="BM49" s="40"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
       <c r="A50" s="19">
@@ -5037,7 +5087,9 @@
       <c r="BJ50" s="22"/>
       <c r="BK50" s="21"/>
       <c r="BL50" s="36"/>
-      <c r="BM50" s="7"/>
+      <c r="BM50" s="41">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" ht="10.15" customHeight="1" spans="1:65">
       <c r="A51" s="8"/>
@@ -5104,7 +5156,7 @@
       <c r="BJ51" s="22"/>
       <c r="BK51" s="21"/>
       <c r="BL51" s="36"/>
-      <c r="BM51" s="7"/>
+      <c r="BM51" s="42"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
       <c r="A52" s="12">
@@ -5176,7 +5228,7 @@
       <c r="BK52" s="10"/>
       <c r="BL52" s="34"/>
       <c r="BM52" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="10.15" customHeight="1" spans="1:65">
@@ -5246,10 +5298,286 @@
       <c r="BL53" s="35"/>
       <c r="BM53" s="7"/>
     </row>
-    <row r="54" ht="12.95" customHeight="1"/>
-    <row r="55" ht="12.95" customHeight="1"/>
-    <row r="56" ht="12.95" customHeight="1"/>
-    <row r="57" ht="12.95" customHeight="1"/>
+    <row r="54" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A54" s="12">
+        <v>26</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="10"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="10"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="10"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="10"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="10"/>
+      <c r="AZ54" s="11"/>
+      <c r="BA54" s="10"/>
+      <c r="BB54" s="11"/>
+      <c r="BC54" s="10"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="10"/>
+      <c r="BF54" s="11"/>
+      <c r="BG54" s="10"/>
+      <c r="BH54" s="11"/>
+      <c r="BI54" s="10"/>
+      <c r="BJ54" s="11"/>
+      <c r="BK54" s="10"/>
+      <c r="BL54" s="34"/>
+      <c r="BM54" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="35"/>
+      <c r="BM55" s="7"/>
+    </row>
+    <row r="56" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A56" s="12">
+        <v>27</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="11"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="11"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="11"/>
+      <c r="BE56" s="10"/>
+      <c r="BF56" s="11"/>
+      <c r="BG56" s="10"/>
+      <c r="BH56" s="11"/>
+      <c r="BI56" s="10"/>
+      <c r="BJ56" s="11"/>
+      <c r="BK56" s="10"/>
+      <c r="BL56" s="34"/>
+      <c r="BM56" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="15"/>
+      <c r="AQ57" s="14"/>
+      <c r="AR57" s="15"/>
+      <c r="AS57" s="14"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="14"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="14"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="14"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="14"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="14"/>
+      <c r="BD57" s="15"/>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="14"/>
+      <c r="BH57" s="15"/>
+      <c r="BI57" s="14"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="14"/>
+      <c r="BL57" s="35"/>
+      <c r="BM57" s="7"/>
+    </row>
     <row r="58" ht="12.95" customHeight="1"/>
     <row r="59" ht="12.95" customHeight="1"/>
     <row r="60" ht="12.95" customHeight="1"/>
@@ -5282,7 +5610,7 @@
     <row r="87" ht="12.95" customHeight="1"/>
     <row r="88" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="144">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5371,6 +5699,8 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
@@ -5396,6 +5726,8 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BM8:BM9"/>
@@ -5418,7 +5750,11 @@
     <mergeCell ref="BM42:BM43"/>
     <mergeCell ref="BM44:BM45"/>
     <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="BM50:BM51"/>
     <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BM54:BM55"/>
+    <mergeCell ref="BM56:BM57"/>
   </mergeCells>
   <pageMargins left="0.747916666666667" right="0.393055555555556" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -141,9 +141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -179,14 +179,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +215,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,22 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +307,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -313,17 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,19 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,48 +398,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,7 +410,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,25 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,61 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +869,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -897,36 +927,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -935,10 +935,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,137 +947,137 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,9 +1199,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1558,7 +1555,7 @@
   <dimension ref="A1:BN88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="AQ51" sqref="AQ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5065,7 +5062,7 @@
       <c r="AN50" s="22"/>
       <c r="AO50" s="21"/>
       <c r="AP50" s="22"/>
-      <c r="AQ50" s="21"/>
+      <c r="AQ50" s="31"/>
       <c r="AR50" s="22"/>
       <c r="AS50" s="21"/>
       <c r="AT50" s="22"/>
@@ -5087,7 +5084,7 @@
       <c r="BJ50" s="22"/>
       <c r="BK50" s="21"/>
       <c r="BL50" s="36"/>
-      <c r="BM50" s="41">
+      <c r="BM50" s="6">
         <v>24</v>
       </c>
     </row>
@@ -5156,7 +5153,7 @@
       <c r="BJ51" s="22"/>
       <c r="BK51" s="21"/>
       <c r="BL51" s="36"/>
-      <c r="BM51" s="42"/>
+      <c r="BM51" s="41"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
       <c r="A52" s="12">

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28703" windowHeight="13164"/>
   </bookViews>
   <sheets>
     <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -134,6 +134,9 @@
   <si>
     <t>spring-5-design-patterns</t>
   </si>
+  <si>
+    <t>恰如其分的架构</t>
+  </si>
 </sst>
 </file>
 
@@ -141,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -179,14 +182,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +212,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,45 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,9 +256,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,23 +317,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +359,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +395,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,25 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,43 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,61 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,8 +836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,6 +853,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,30 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -918,162 +930,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1555,10 +1558,10 @@
   <dimension ref="A1:BN88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ51" sqref="AQ51"/>
+      <selection activeCell="BD49" sqref="BD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -5575,8 +5578,146 @@
       <c r="BL57" s="35"/>
       <c r="BM57" s="7"/>
     </row>
-    <row r="58" ht="12.95" customHeight="1"/>
-    <row r="59" ht="12.95" customHeight="1"/>
+    <row r="58" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A58" s="12">
+        <v>28</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="10"/>
+      <c r="AZ58" s="11"/>
+      <c r="BA58" s="10"/>
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="10"/>
+      <c r="BD58" s="11"/>
+      <c r="BE58" s="10"/>
+      <c r="BF58" s="11"/>
+      <c r="BG58" s="10"/>
+      <c r="BH58" s="11"/>
+      <c r="BI58" s="10"/>
+      <c r="BJ58" s="11"/>
+      <c r="BK58" s="10"/>
+      <c r="BL58" s="34"/>
+      <c r="BM58" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="15"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="15"/>
+      <c r="AM59" s="14"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="14"/>
+      <c r="AP59" s="15"/>
+      <c r="AQ59" s="14"/>
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="14"/>
+      <c r="AT59" s="15"/>
+      <c r="AU59" s="14"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="14"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="14"/>
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="14"/>
+      <c r="BB59" s="15"/>
+      <c r="BC59" s="14"/>
+      <c r="BD59" s="15"/>
+      <c r="BE59" s="14"/>
+      <c r="BF59" s="15"/>
+      <c r="BG59" s="14"/>
+      <c r="BH59" s="15"/>
+      <c r="BI59" s="14"/>
+      <c r="BJ59" s="15"/>
+      <c r="BK59" s="14"/>
+      <c r="BL59" s="35"/>
+      <c r="BM59" s="7"/>
+    </row>
     <row r="60" ht="12.95" customHeight="1"/>
     <row r="61" ht="12.95" customHeight="1"/>
     <row r="62" ht="12.95" customHeight="1"/>
@@ -5607,7 +5748,7 @@
     <row r="87" ht="12.95" customHeight="1"/>
     <row r="88" ht="12.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="147">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5698,6 +5839,7 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
@@ -5725,6 +5867,7 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BM8:BM9"/>
@@ -5752,6 +5895,7 @@
     <mergeCell ref="BM52:BM53"/>
     <mergeCell ref="BM54:BM55"/>
     <mergeCell ref="BM56:BM57"/>
+    <mergeCell ref="BM58:BM59"/>
   </mergeCells>
   <pageMargins left="0.747916666666667" right="0.393055555555556" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>
@@ -5768,7 +5912,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
@@ -5785,7 +5929,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28703" windowHeight="13164"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2018年7月" sheetId="1" r:id="rId1"/>
-    <sheet name="2018年8月" sheetId="2" r:id="rId2"/>
+    <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
+    <sheet name="学习计划" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t xml:space="preserve">    2018  年</t>
   </si>
@@ -137,14 +137,56 @@
   <si>
     <t>恰如其分的架构</t>
   </si>
+  <si>
+    <t>课程行动计划</t>
+  </si>
+  <si>
+    <t>并发编程</t>
+  </si>
+  <si>
+    <t>性能优化-什么是性能优化</t>
+  </si>
+  <si>
+    <t>性能优化-性能测试与优化</t>
+  </si>
+  <si>
+    <t>性能优化-性能优化JVM篇</t>
+  </si>
+  <si>
+    <t>性能优化-性能优化Tomcat篇</t>
+  </si>
+  <si>
+    <t>性能优化-性能优化Mysql篇</t>
+  </si>
+  <si>
+    <t>分布式专题-分布式架构的基础</t>
+  </si>
+  <si>
+    <t>分布式专题-分布式通信框架</t>
+  </si>
+  <si>
+    <t>分布式专题-分布式协调服务</t>
+  </si>
+  <si>
+    <t>分布式专题-分布式消息通信</t>
+  </si>
+  <si>
+    <t>BATJ面试</t>
+  </si>
+  <si>
+    <t>阿里巴巴开发手册</t>
+  </si>
+  <si>
+    <t>GO WEB编程</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -182,30 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +238,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,22 +299,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -280,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +329,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,8 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +361,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,61 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +437,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,91 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +592,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="dotted">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,21 +658,6 @@
       </top>
       <bottom style="thin">
         <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="dotted">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,15 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="22"/>
       </left>
@@ -708,6 +741,15 @@
       <right style="thin">
         <color indexed="55"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="55"/>
@@ -833,11 +875,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,48 +949,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,169 +972,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1096,23 +1141,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1120,7 +1162,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -1150,22 +1192,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1174,7 +1219,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1192,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,6 +1269,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1557,94 +1626,94 @@
   <sheetPr/>
   <dimension ref="A1:BN88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BD49" sqref="BD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BS28" sqref="BS28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
     <col min="3" max="64" width="1.625" customWidth="1"/>
-    <col min="65" max="65" width="2.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="2.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:64">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5">
         <v>3</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5">
         <v>4</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5">
         <v>5</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5">
         <v>6</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5">
         <v>7</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5">
         <v>8</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5">
         <v>9</v>
       </c>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="32">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="39">
         <v>10</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4">
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5">
         <v>11</v>
       </c>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4">
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5">
         <v>12</v>
       </c>
-      <c r="AX1" s="4"/>
+      <c r="AX1" s="5"/>
       <c r="AY1" s="24"/>
       <c r="AZ1" s="24"/>
       <c r="BA1" s="24"/>
@@ -1661,213 +1730,213 @@
       <c r="BL1" s="24"/>
     </row>
     <row r="2" ht="11.1" customHeight="1" spans="29:33">
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="31"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:65">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>4</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
         <v>6</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
         <v>7</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
         <v>8</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8">
         <v>9</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
         <v>10</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8">
         <v>11</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8">
         <v>12</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8">
         <v>13</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8">
         <v>14</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8">
         <v>15</v>
       </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8">
         <v>16</v>
       </c>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7">
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8">
         <v>17</v>
       </c>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7">
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8">
         <v>18</v>
       </c>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7">
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8">
         <v>19</v>
       </c>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8">
         <v>20</v>
       </c>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8">
         <v>21</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7">
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8">
         <v>22</v>
       </c>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7">
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8">
         <v>23</v>
       </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7">
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8">
         <v>24</v>
       </c>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7">
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8">
         <v>25</v>
       </c>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7">
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8">
         <v>26</v>
       </c>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7">
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8">
         <v>27</v>
       </c>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7">
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8">
         <v>28</v>
       </c>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7">
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8">
         <v>29</v>
       </c>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7">
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8">
         <v>30</v>
       </c>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7">
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8">
         <v>31</v>
       </c>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="37"/>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="44"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="11"/>
       <c r="O4" s="25"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
+      <c r="S4" s="49"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
+      <c r="U4" s="49"/>
       <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="28"/>
+      <c r="AA4" s="49"/>
       <c r="AB4" s="11"/>
-      <c r="AC4" s="10"/>
+      <c r="AC4" s="1"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="28"/>
+      <c r="AE4" s="49"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="28"/>
+      <c r="AG4" s="49"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="11"/>
-      <c r="AK4" s="10"/>
+      <c r="AK4" s="1"/>
       <c r="AL4" s="11"/>
-      <c r="AM4" s="10"/>
+      <c r="AM4" s="1"/>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="10"/>
+      <c r="AO4" s="1"/>
       <c r="AP4" s="11"/>
-      <c r="AQ4" s="10"/>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="10"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="1"/>
       <c r="AV4" s="11"/>
-      <c r="AW4" s="10"/>
+      <c r="AW4" s="1"/>
       <c r="AX4" s="11"/>
-      <c r="AY4" s="10"/>
+      <c r="AY4" s="1"/>
       <c r="AZ4" s="11"/>
-      <c r="BA4" s="10"/>
+      <c r="BA4" s="1"/>
       <c r="BB4" s="11"/>
-      <c r="BC4" s="10"/>
+      <c r="BC4" s="1"/>
       <c r="BD4" s="11"/>
-      <c r="BE4" s="10"/>
+      <c r="BE4" s="1"/>
       <c r="BF4" s="11"/>
-      <c r="BG4" s="10"/>
+      <c r="BG4" s="1"/>
       <c r="BH4" s="11"/>
-      <c r="BI4" s="10"/>
+      <c r="BI4" s="1"/>
       <c r="BJ4" s="11"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="7">
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1888,14 +1957,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="14"/>
@@ -1915,8 +1984,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>
@@ -1934,29 +2003,29 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="35"/>
-      <c r="BM5" s="7"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="8"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="27"/>
@@ -1966,53 +2035,53 @@
       <c r="V6" s="27"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="10"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="1"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="10"/>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="11"/>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="1"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="28"/>
+      <c r="AI6" s="49"/>
       <c r="AJ6" s="11"/>
       <c r="AK6" s="26"/>
       <c r="AL6" s="11"/>
-      <c r="AM6" s="10"/>
+      <c r="AM6" s="1"/>
       <c r="AN6" s="11"/>
-      <c r="AO6" s="10"/>
+      <c r="AO6" s="1"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="28"/>
+      <c r="AQ6" s="49"/>
       <c r="AR6" s="11"/>
-      <c r="AS6" s="10"/>
+      <c r="AS6" s="1"/>
       <c r="AT6" s="11"/>
-      <c r="AU6" s="10"/>
+      <c r="AU6" s="1"/>
       <c r="AV6" s="11"/>
-      <c r="AW6" s="10"/>
+      <c r="AW6" s="1"/>
       <c r="AX6" s="11"/>
-      <c r="AY6" s="10"/>
+      <c r="AY6" s="1"/>
       <c r="AZ6" s="11"/>
-      <c r="BA6" s="10"/>
+      <c r="BA6" s="1"/>
       <c r="BB6" s="11"/>
-      <c r="BC6" s="10"/>
+      <c r="BC6" s="1"/>
       <c r="BD6" s="11"/>
-      <c r="BE6" s="10"/>
+      <c r="BE6" s="1"/>
       <c r="BF6" s="11"/>
-      <c r="BG6" s="10"/>
+      <c r="BG6" s="1"/>
       <c r="BH6" s="11"/>
-      <c r="BI6" s="10"/>
+      <c r="BI6" s="1"/>
       <c r="BJ6" s="11"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="7">
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="10.15" customHeight="1" spans="1:65">
       <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
@@ -2027,14 +2096,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="31"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
@@ -2074,79 +2143,79 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="7"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="8"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
       <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="10"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="10"/>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="10"/>
+      <c r="AC8" s="1"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="10"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="11"/>
-      <c r="AG8" s="10"/>
+      <c r="AG8" s="1"/>
       <c r="AH8" s="11"/>
-      <c r="AI8" s="10"/>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="11"/>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="1"/>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="10"/>
+      <c r="AM8" s="1"/>
       <c r="AN8" s="11"/>
-      <c r="AO8" s="10"/>
+      <c r="AO8" s="1"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="10"/>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="10"/>
+      <c r="AS8" s="1"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="10"/>
+      <c r="AU8" s="1"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="10"/>
+      <c r="AW8" s="1"/>
       <c r="AX8" s="11"/>
-      <c r="AY8" s="10"/>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="10"/>
+      <c r="BA8" s="1"/>
       <c r="BB8" s="11"/>
-      <c r="BC8" s="10"/>
+      <c r="BC8" s="1"/>
       <c r="BD8" s="11"/>
-      <c r="BE8" s="10"/>
+      <c r="BE8" s="1"/>
       <c r="BF8" s="11"/>
-      <c r="BG8" s="10"/>
+      <c r="BG8" s="1"/>
       <c r="BH8" s="11"/>
-      <c r="BI8" s="10"/>
+      <c r="BI8" s="1"/>
       <c r="BJ8" s="11"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="7">
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="41"/>
+      <c r="BM8" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2214,79 +2283,79 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="7"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="8"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="10"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="10"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="11"/>
-      <c r="AC10" s="10"/>
+      <c r="AC10" s="1"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="11"/>
-      <c r="AG10" s="10"/>
+      <c r="AG10" s="1"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="10"/>
+      <c r="AI10" s="1"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="10"/>
+      <c r="AK10" s="1"/>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="10"/>
+      <c r="AM10" s="1"/>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="10"/>
+      <c r="AO10" s="1"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="10"/>
+      <c r="AQ10" s="1"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="10"/>
+      <c r="AS10" s="1"/>
       <c r="AT10" s="11"/>
-      <c r="AU10" s="10"/>
+      <c r="AU10" s="1"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="28"/>
+      <c r="AW10" s="49"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="10"/>
+      <c r="AY10" s="1"/>
       <c r="AZ10" s="11"/>
-      <c r="BA10" s="10"/>
+      <c r="BA10" s="1"/>
       <c r="BB10" s="11"/>
-      <c r="BC10" s="10"/>
+      <c r="BC10" s="1"/>
       <c r="BD10" s="11"/>
-      <c r="BE10" s="10"/>
+      <c r="BE10" s="1"/>
       <c r="BF10" s="11"/>
-      <c r="BG10" s="10"/>
+      <c r="BG10" s="1"/>
       <c r="BH10" s="11"/>
-      <c r="BI10" s="10"/>
+      <c r="BI10" s="1"/>
       <c r="BJ10" s="11"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="7">
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2354,8 +2423,8 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="7"/>
+      <c r="BL11" s="42"/>
+      <c r="BM11" s="8"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
       <c r="A12" s="12">
@@ -2364,69 +2433,69 @@
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="10"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="10"/>
+      <c r="AC12" s="1"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="10"/>
+      <c r="AE12" s="1"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="10"/>
+      <c r="AG12" s="1"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="10"/>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="10"/>
+      <c r="AM12" s="1"/>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="10"/>
+      <c r="AO12" s="1"/>
       <c r="AP12" s="11"/>
-      <c r="AQ12" s="10"/>
+      <c r="AQ12" s="1"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="10"/>
+      <c r="AS12" s="1"/>
       <c r="AT12" s="11"/>
-      <c r="AU12" s="10"/>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="11"/>
-      <c r="AW12" s="10"/>
+      <c r="AW12" s="1"/>
       <c r="AX12" s="11"/>
-      <c r="AY12" s="10"/>
+      <c r="AY12" s="1"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="10"/>
+      <c r="BA12" s="1"/>
       <c r="BB12" s="11"/>
-      <c r="BC12" s="10"/>
+      <c r="BC12" s="1"/>
       <c r="BD12" s="11"/>
-      <c r="BE12" s="10"/>
+      <c r="BE12" s="1"/>
       <c r="BF12" s="11"/>
-      <c r="BG12" s="10"/>
+      <c r="BG12" s="1"/>
       <c r="BH12" s="11"/>
-      <c r="BI12" s="10"/>
+      <c r="BI12" s="1"/>
       <c r="BJ12" s="11"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="7">
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2494,8 +2563,8 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="35"/>
-      <c r="BM13" s="7"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="8"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
       <c r="A14" s="12">
@@ -2504,69 +2573,69 @@
       <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="10"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="1"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="1"/>
       <c r="AD14" s="11"/>
-      <c r="AE14" s="10"/>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
-      <c r="AG14" s="10"/>
+      <c r="AG14" s="1"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="10"/>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="11"/>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="1"/>
       <c r="AL14" s="11"/>
-      <c r="AM14" s="10"/>
+      <c r="AM14" s="1"/>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="10"/>
+      <c r="AO14" s="1"/>
       <c r="AP14" s="11"/>
-      <c r="AQ14" s="10"/>
+      <c r="AQ14" s="1"/>
       <c r="AR14" s="11"/>
-      <c r="AS14" s="10"/>
+      <c r="AS14" s="1"/>
       <c r="AT14" s="11"/>
-      <c r="AU14" s="10"/>
+      <c r="AU14" s="1"/>
       <c r="AV14" s="11"/>
-      <c r="AW14" s="10"/>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="11"/>
-      <c r="AY14" s="10"/>
+      <c r="AY14" s="1"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="10"/>
+      <c r="BA14" s="1"/>
       <c r="BB14" s="11"/>
-      <c r="BC14" s="10"/>
+      <c r="BC14" s="1"/>
       <c r="BD14" s="11"/>
-      <c r="BE14" s="10"/>
+      <c r="BE14" s="1"/>
       <c r="BF14" s="11"/>
-      <c r="BG14" s="10"/>
+      <c r="BG14" s="1"/>
       <c r="BH14" s="11"/>
-      <c r="BI14" s="10"/>
+      <c r="BI14" s="1"/>
       <c r="BJ14" s="11"/>
-      <c r="BK14" s="10"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="7">
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="41"/>
+      <c r="BM14" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2634,8 +2703,8 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="35"/>
-      <c r="BM15" s="7"/>
+      <c r="BL15" s="42"/>
+      <c r="BM15" s="8"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
       <c r="A16" s="12">
@@ -2644,69 +2713,69 @@
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="10"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="10"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="10"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="10"/>
+      <c r="AC16" s="1"/>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="10"/>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="10"/>
+      <c r="AG16" s="1"/>
       <c r="AH16" s="11"/>
-      <c r="AI16" s="10"/>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="10"/>
+      <c r="AK16" s="1"/>
       <c r="AL16" s="11"/>
-      <c r="AM16" s="10"/>
+      <c r="AM16" s="1"/>
       <c r="AN16" s="11"/>
-      <c r="AO16" s="10"/>
+      <c r="AO16" s="1"/>
       <c r="AP16" s="11"/>
-      <c r="AQ16" s="10"/>
+      <c r="AQ16" s="1"/>
       <c r="AR16" s="11"/>
-      <c r="AS16" s="10"/>
+      <c r="AS16" s="1"/>
       <c r="AT16" s="11"/>
-      <c r="AU16" s="10"/>
+      <c r="AU16" s="1"/>
       <c r="AV16" s="11"/>
-      <c r="AW16" s="10"/>
+      <c r="AW16" s="1"/>
       <c r="AX16" s="11"/>
-      <c r="AY16" s="10"/>
+      <c r="AY16" s="1"/>
       <c r="AZ16" s="11"/>
-      <c r="BA16" s="10"/>
+      <c r="BA16" s="1"/>
       <c r="BB16" s="11"/>
-      <c r="BC16" s="10"/>
+      <c r="BC16" s="1"/>
       <c r="BD16" s="11"/>
-      <c r="BE16" s="10"/>
+      <c r="BE16" s="1"/>
       <c r="BF16" s="11"/>
-      <c r="BG16" s="10"/>
+      <c r="BG16" s="1"/>
       <c r="BH16" s="11"/>
-      <c r="BI16" s="10"/>
+      <c r="BI16" s="1"/>
       <c r="BJ16" s="11"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="7">
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="8">
         <v>7</v>
       </c>
     </row>
@@ -2774,8 +2843,8 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="35"/>
-      <c r="BM17" s="7"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="8"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
       <c r="A18" s="12">
@@ -2784,69 +2853,69 @@
       <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="10"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="10"/>
+      <c r="U18" s="1"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="10"/>
+      <c r="AC18" s="1"/>
       <c r="AD18" s="11"/>
-      <c r="AE18" s="10"/>
+      <c r="AE18" s="1"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="10"/>
+      <c r="AG18" s="1"/>
       <c r="AH18" s="11"/>
-      <c r="AI18" s="10"/>
+      <c r="AI18" s="1"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="10"/>
+      <c r="AK18" s="1"/>
       <c r="AL18" s="11"/>
-      <c r="AM18" s="10"/>
+      <c r="AM18" s="1"/>
       <c r="AN18" s="11"/>
-      <c r="AO18" s="10"/>
+      <c r="AO18" s="1"/>
       <c r="AP18" s="11"/>
-      <c r="AQ18" s="10"/>
+      <c r="AQ18" s="1"/>
       <c r="AR18" s="11"/>
-      <c r="AS18" s="10"/>
+      <c r="AS18" s="1"/>
       <c r="AT18" s="11"/>
-      <c r="AU18" s="10"/>
+      <c r="AU18" s="1"/>
       <c r="AV18" s="11"/>
-      <c r="AW18" s="10"/>
+      <c r="AW18" s="1"/>
       <c r="AX18" s="11"/>
-      <c r="AY18" s="10"/>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="10"/>
+      <c r="BA18" s="1"/>
       <c r="BB18" s="11"/>
-      <c r="BC18" s="10"/>
+      <c r="BC18" s="1"/>
       <c r="BD18" s="11"/>
-      <c r="BE18" s="10"/>
+      <c r="BE18" s="1"/>
       <c r="BF18" s="11"/>
-      <c r="BG18" s="10"/>
+      <c r="BG18" s="1"/>
       <c r="BH18" s="11"/>
-      <c r="BI18" s="10"/>
+      <c r="BI18" s="1"/>
       <c r="BJ18" s="11"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="7">
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="41"/>
+      <c r="BM18" s="8">
         <v>8</v>
       </c>
     </row>
@@ -2914,85 +2983,85 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="35"/>
-      <c r="BM19" s="7"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="8"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
       <c r="A20" s="12">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="10"/>
+      <c r="U20" s="1"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="10"/>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="10"/>
+      <c r="AC20" s="1"/>
       <c r="AD20" s="11"/>
-      <c r="AE20" s="10"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="10"/>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="11"/>
-      <c r="AI20" s="10"/>
+      <c r="AI20" s="1"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="10"/>
+      <c r="AK20" s="1"/>
       <c r="AL20" s="11"/>
-      <c r="AM20" s="10"/>
+      <c r="AM20" s="1"/>
       <c r="AN20" s="11"/>
-      <c r="AO20" s="10"/>
+      <c r="AO20" s="1"/>
       <c r="AP20" s="11"/>
-      <c r="AQ20" s="10"/>
+      <c r="AQ20" s="1"/>
       <c r="AR20" s="11"/>
-      <c r="AS20" s="10"/>
+      <c r="AS20" s="1"/>
       <c r="AT20" s="11"/>
-      <c r="AU20" s="10"/>
+      <c r="AU20" s="1"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="10"/>
+      <c r="AW20" s="1"/>
       <c r="AX20" s="11"/>
-      <c r="AY20" s="10"/>
+      <c r="AY20" s="1"/>
       <c r="AZ20" s="11"/>
-      <c r="BA20" s="10"/>
+      <c r="BA20" s="1"/>
       <c r="BB20" s="11"/>
-      <c r="BC20" s="10"/>
+      <c r="BC20" s="1"/>
       <c r="BD20" s="11"/>
-      <c r="BE20" s="10"/>
+      <c r="BE20" s="1"/>
       <c r="BF20" s="11"/>
-      <c r="BG20" s="10"/>
+      <c r="BG20" s="1"/>
       <c r="BH20" s="11"/>
-      <c r="BI20" s="10"/>
+      <c r="BI20" s="1"/>
       <c r="BJ20" s="11"/>
-      <c r="BK20" s="10"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="7">
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="10.15" customHeight="1" spans="1:65">
       <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
@@ -3054,8 +3123,8 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="35"/>
-      <c r="BM21" s="7"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="8"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
       <c r="A22" s="12">
@@ -3064,69 +3133,69 @@
       <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="10"/>
+      <c r="S22" s="1"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="10"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="1"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="1"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="10"/>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="1"/>
       <c r="AD22" s="11"/>
-      <c r="AE22" s="10"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="10"/>
+      <c r="AG22" s="1"/>
       <c r="AH22" s="11"/>
-      <c r="AI22" s="10"/>
+      <c r="AI22" s="1"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="10"/>
+      <c r="AK22" s="1"/>
       <c r="AL22" s="11"/>
-      <c r="AM22" s="10"/>
+      <c r="AM22" s="1"/>
       <c r="AN22" s="11"/>
-      <c r="AO22" s="10"/>
+      <c r="AO22" s="1"/>
       <c r="AP22" s="11"/>
-      <c r="AQ22" s="10"/>
+      <c r="AQ22" s="1"/>
       <c r="AR22" s="11"/>
-      <c r="AS22" s="10"/>
+      <c r="AS22" s="1"/>
       <c r="AT22" s="11"/>
-      <c r="AU22" s="10"/>
+      <c r="AU22" s="1"/>
       <c r="AV22" s="11"/>
-      <c r="AW22" s="10"/>
+      <c r="AW22" s="1"/>
       <c r="AX22" s="11"/>
-      <c r="AY22" s="10"/>
+      <c r="AY22" s="1"/>
       <c r="AZ22" s="11"/>
-      <c r="BA22" s="10"/>
+      <c r="BA22" s="1"/>
       <c r="BB22" s="11"/>
-      <c r="BC22" s="10"/>
+      <c r="BC22" s="1"/>
       <c r="BD22" s="11"/>
-      <c r="BE22" s="10"/>
+      <c r="BE22" s="1"/>
       <c r="BF22" s="11"/>
-      <c r="BG22" s="10"/>
+      <c r="BG22" s="1"/>
       <c r="BH22" s="11"/>
-      <c r="BI22" s="10"/>
+      <c r="BI22" s="1"/>
       <c r="BJ22" s="11"/>
-      <c r="BK22" s="10"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="7">
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="41"/>
+      <c r="BM22" s="8">
         <v>10</v>
       </c>
     </row>
@@ -3194,79 +3263,79 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="35"/>
-      <c r="BM23" s="7"/>
+      <c r="BL23" s="42"/>
+      <c r="BM23" s="8"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
       <c r="A24" s="12">
         <v>11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="10"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
+      <c r="S24" s="1"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="10"/>
+      <c r="U24" s="1"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="10"/>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="1"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="10"/>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="10"/>
+      <c r="AG24" s="1"/>
       <c r="AH24" s="11"/>
-      <c r="AI24" s="10"/>
+      <c r="AI24" s="1"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="10"/>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="11"/>
-      <c r="AM24" s="10"/>
+      <c r="AM24" s="1"/>
       <c r="AN24" s="11"/>
-      <c r="AO24" s="10"/>
+      <c r="AO24" s="1"/>
       <c r="AP24" s="11"/>
-      <c r="AQ24" s="10"/>
+      <c r="AQ24" s="1"/>
       <c r="AR24" s="11"/>
-      <c r="AS24" s="10"/>
+      <c r="AS24" s="1"/>
       <c r="AT24" s="11"/>
-      <c r="AU24" s="10"/>
+      <c r="AU24" s="1"/>
       <c r="AV24" s="11"/>
-      <c r="AW24" s="10"/>
+      <c r="AW24" s="1"/>
       <c r="AX24" s="11"/>
-      <c r="AY24" s="10"/>
+      <c r="AY24" s="1"/>
       <c r="AZ24" s="11"/>
-      <c r="BA24" s="10"/>
+      <c r="BA24" s="1"/>
       <c r="BB24" s="11"/>
-      <c r="BC24" s="10"/>
+      <c r="BC24" s="1"/>
       <c r="BD24" s="11"/>
-      <c r="BE24" s="10"/>
+      <c r="BE24" s="1"/>
       <c r="BF24" s="11"/>
-      <c r="BG24" s="10"/>
+      <c r="BG24" s="1"/>
       <c r="BH24" s="11"/>
-      <c r="BI24" s="10"/>
+      <c r="BI24" s="1"/>
       <c r="BJ24" s="11"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="7">
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="8">
         <v>11</v>
       </c>
     </row>
@@ -3334,79 +3403,79 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="35"/>
-      <c r="BM25" s="7"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="8"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
       <c r="A26" s="12">
         <v>12</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="10"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
+      <c r="S26" s="1"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="10"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="10"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="10"/>
+      <c r="Y26" s="1"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="10"/>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="10"/>
+      <c r="AC26" s="1"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="10"/>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="10"/>
+      <c r="AG26" s="1"/>
       <c r="AH26" s="11"/>
-      <c r="AI26" s="10"/>
+      <c r="AI26" s="1"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="10"/>
+      <c r="AK26" s="1"/>
       <c r="AL26" s="11"/>
-      <c r="AM26" s="10"/>
+      <c r="AM26" s="1"/>
       <c r="AN26" s="11"/>
-      <c r="AO26" s="10"/>
+      <c r="AO26" s="1"/>
       <c r="AP26" s="11"/>
-      <c r="AQ26" s="10"/>
+      <c r="AQ26" s="1"/>
       <c r="AR26" s="11"/>
-      <c r="AS26" s="10"/>
+      <c r="AS26" s="1"/>
       <c r="AT26" s="11"/>
-      <c r="AU26" s="10"/>
+      <c r="AU26" s="1"/>
       <c r="AV26" s="11"/>
-      <c r="AW26" s="10"/>
+      <c r="AW26" s="1"/>
       <c r="AX26" s="11"/>
-      <c r="AY26" s="10"/>
+      <c r="AY26" s="1"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="10"/>
+      <c r="BA26" s="1"/>
       <c r="BB26" s="11"/>
-      <c r="BC26" s="10"/>
+      <c r="BC26" s="1"/>
       <c r="BD26" s="11"/>
-      <c r="BE26" s="10"/>
+      <c r="BE26" s="1"/>
       <c r="BF26" s="11"/>
-      <c r="BG26" s="10"/>
+      <c r="BG26" s="1"/>
       <c r="BH26" s="11"/>
-      <c r="BI26" s="10"/>
+      <c r="BI26" s="1"/>
       <c r="BJ26" s="11"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="7">
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="41"/>
+      <c r="BM26" s="8">
         <v>12</v>
       </c>
     </row>
@@ -3474,79 +3543,79 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="35"/>
-      <c r="BM27" s="7"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="8"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
       <c r="A28" s="12">
         <v>13</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="10"/>
+      <c r="S28" s="1"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="10"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="1"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="10"/>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="10"/>
+      <c r="AC28" s="1"/>
       <c r="AD28" s="11"/>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="10"/>
+      <c r="AG28" s="1"/>
       <c r="AH28" s="11"/>
-      <c r="AI28" s="10"/>
+      <c r="AI28" s="1"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="10"/>
+      <c r="AK28" s="1"/>
       <c r="AL28" s="11"/>
-      <c r="AM28" s="10"/>
+      <c r="AM28" s="1"/>
       <c r="AN28" s="11"/>
-      <c r="AO28" s="10"/>
+      <c r="AO28" s="1"/>
       <c r="AP28" s="11"/>
-      <c r="AQ28" s="10"/>
+      <c r="AQ28" s="1"/>
       <c r="AR28" s="11"/>
-      <c r="AS28" s="10"/>
+      <c r="AS28" s="1"/>
       <c r="AT28" s="11"/>
-      <c r="AU28" s="10"/>
+      <c r="AU28" s="1"/>
       <c r="AV28" s="11"/>
-      <c r="AW28" s="10"/>
+      <c r="AW28" s="1"/>
       <c r="AX28" s="11"/>
-      <c r="AY28" s="10"/>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="11"/>
-      <c r="BA28" s="10"/>
+      <c r="BA28" s="1"/>
       <c r="BB28" s="11"/>
-      <c r="BC28" s="10"/>
+      <c r="BC28" s="1"/>
       <c r="BD28" s="11"/>
-      <c r="BE28" s="10"/>
+      <c r="BE28" s="1"/>
       <c r="BF28" s="11"/>
-      <c r="BG28" s="10"/>
+      <c r="BG28" s="1"/>
       <c r="BH28" s="11"/>
-      <c r="BI28" s="10"/>
+      <c r="BI28" s="1"/>
       <c r="BJ28" s="11"/>
-      <c r="BK28" s="10"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="7">
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="8">
         <v>13</v>
       </c>
     </row>
@@ -3614,79 +3683,79 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="35"/>
-      <c r="BM29" s="7"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="8"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
       <c r="A30" s="12">
         <v>14</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="10"/>
+      <c r="S30" s="1"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="10"/>
+      <c r="U30" s="1"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="10"/>
+      <c r="Y30" s="1"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="10"/>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="11"/>
-      <c r="AC30" s="10"/>
+      <c r="AC30" s="1"/>
       <c r="AD30" s="11"/>
-      <c r="AE30" s="10"/>
+      <c r="AE30" s="1"/>
       <c r="AF30" s="11"/>
-      <c r="AG30" s="10"/>
+      <c r="AG30" s="1"/>
       <c r="AH30" s="11"/>
-      <c r="AI30" s="10"/>
+      <c r="AI30" s="1"/>
       <c r="AJ30" s="11"/>
-      <c r="AK30" s="10"/>
+      <c r="AK30" s="1"/>
       <c r="AL30" s="11"/>
-      <c r="AM30" s="10"/>
+      <c r="AM30" s="1"/>
       <c r="AN30" s="11"/>
-      <c r="AO30" s="10"/>
+      <c r="AO30" s="1"/>
       <c r="AP30" s="11"/>
-      <c r="AQ30" s="10"/>
+      <c r="AQ30" s="1"/>
       <c r="AR30" s="11"/>
-      <c r="AS30" s="10"/>
+      <c r="AS30" s="1"/>
       <c r="AT30" s="11"/>
-      <c r="AU30" s="10"/>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="11"/>
-      <c r="AW30" s="10"/>
+      <c r="AW30" s="1"/>
       <c r="AX30" s="11"/>
-      <c r="AY30" s="10"/>
+      <c r="AY30" s="1"/>
       <c r="AZ30" s="11"/>
-      <c r="BA30" s="10"/>
+      <c r="BA30" s="1"/>
       <c r="BB30" s="11"/>
-      <c r="BC30" s="10"/>
+      <c r="BC30" s="1"/>
       <c r="BD30" s="11"/>
-      <c r="BE30" s="10"/>
+      <c r="BE30" s="1"/>
       <c r="BF30" s="11"/>
-      <c r="BG30" s="10"/>
+      <c r="BG30" s="1"/>
       <c r="BH30" s="11"/>
-      <c r="BI30" s="10"/>
+      <c r="BI30" s="1"/>
       <c r="BJ30" s="11"/>
-      <c r="BK30" s="10"/>
-      <c r="BL30" s="34"/>
-      <c r="BM30" s="7">
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="41"/>
+      <c r="BM30" s="8">
         <v>14</v>
       </c>
     </row>
@@ -3754,79 +3823,79 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="35"/>
-      <c r="BM31" s="7"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="8"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
       <c r="A32" s="12">
         <v>15</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="10"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="10"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="10"/>
+      <c r="S32" s="1"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="10"/>
+      <c r="U32" s="1"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="1"/>
       <c r="X32" s="11"/>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="1"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="11"/>
-      <c r="AC32" s="10"/>
+      <c r="AC32" s="1"/>
       <c r="AD32" s="11"/>
-      <c r="AE32" s="10"/>
+      <c r="AE32" s="1"/>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="1"/>
       <c r="AH32" s="11"/>
-      <c r="AI32" s="10"/>
+      <c r="AI32" s="1"/>
       <c r="AJ32" s="11"/>
-      <c r="AK32" s="10"/>
+      <c r="AK32" s="1"/>
       <c r="AL32" s="11"/>
-      <c r="AM32" s="10"/>
+      <c r="AM32" s="1"/>
       <c r="AN32" s="11"/>
-      <c r="AO32" s="10"/>
+      <c r="AO32" s="1"/>
       <c r="AP32" s="11"/>
-      <c r="AQ32" s="10"/>
+      <c r="AQ32" s="1"/>
       <c r="AR32" s="11"/>
-      <c r="AS32" s="10"/>
+      <c r="AS32" s="1"/>
       <c r="AT32" s="11"/>
-      <c r="AU32" s="10"/>
+      <c r="AU32" s="1"/>
       <c r="AV32" s="11"/>
-      <c r="AW32" s="10"/>
+      <c r="AW32" s="1"/>
       <c r="AX32" s="11"/>
-      <c r="AY32" s="10"/>
+      <c r="AY32" s="1"/>
       <c r="AZ32" s="11"/>
-      <c r="BA32" s="10"/>
+      <c r="BA32" s="1"/>
       <c r="BB32" s="11"/>
-      <c r="BC32" s="10"/>
+      <c r="BC32" s="1"/>
       <c r="BD32" s="11"/>
-      <c r="BE32" s="10"/>
+      <c r="BE32" s="1"/>
       <c r="BF32" s="11"/>
-      <c r="BG32" s="10"/>
+      <c r="BG32" s="1"/>
       <c r="BH32" s="11"/>
-      <c r="BI32" s="10"/>
+      <c r="BI32" s="1"/>
       <c r="BJ32" s="11"/>
-      <c r="BK32" s="10"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="7">
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="8">
         <v>15</v>
       </c>
     </row>
@@ -3894,79 +3963,79 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="35"/>
-      <c r="BM33" s="7"/>
+      <c r="BL33" s="42"/>
+      <c r="BM33" s="8"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
       <c r="A34" s="12">
         <v>16</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="10"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="10"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="10"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="10"/>
+      <c r="S34" s="1"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="10"/>
+      <c r="U34" s="1"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="10"/>
+      <c r="W34" s="1"/>
       <c r="X34" s="11"/>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="1"/>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="10"/>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="11"/>
-      <c r="AC34" s="10"/>
+      <c r="AC34" s="1"/>
       <c r="AD34" s="11"/>
-      <c r="AE34" s="10"/>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="11"/>
-      <c r="AG34" s="10"/>
+      <c r="AG34" s="1"/>
       <c r="AH34" s="11"/>
-      <c r="AI34" s="10"/>
+      <c r="AI34" s="1"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="10"/>
+      <c r="AK34" s="1"/>
       <c r="AL34" s="11"/>
-      <c r="AM34" s="10"/>
+      <c r="AM34" s="1"/>
       <c r="AN34" s="11"/>
-      <c r="AO34" s="10"/>
+      <c r="AO34" s="1"/>
       <c r="AP34" s="11"/>
-      <c r="AQ34" s="10"/>
+      <c r="AQ34" s="1"/>
       <c r="AR34" s="11"/>
-      <c r="AS34" s="10"/>
+      <c r="AS34" s="1"/>
       <c r="AT34" s="11"/>
-      <c r="AU34" s="10"/>
+      <c r="AU34" s="1"/>
       <c r="AV34" s="11"/>
-      <c r="AW34" s="10"/>
+      <c r="AW34" s="1"/>
       <c r="AX34" s="11"/>
-      <c r="AY34" s="10"/>
+      <c r="AY34" s="1"/>
       <c r="AZ34" s="11"/>
-      <c r="BA34" s="10"/>
+      <c r="BA34" s="1"/>
       <c r="BB34" s="11"/>
-      <c r="BC34" s="10"/>
+      <c r="BC34" s="1"/>
       <c r="BD34" s="11"/>
-      <c r="BE34" s="10"/>
+      <c r="BE34" s="1"/>
       <c r="BF34" s="11"/>
-      <c r="BG34" s="10"/>
+      <c r="BG34" s="1"/>
       <c r="BH34" s="11"/>
-      <c r="BI34" s="10"/>
+      <c r="BI34" s="1"/>
       <c r="BJ34" s="11"/>
-      <c r="BK34" s="10"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="7">
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4034,79 +4103,79 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="35"/>
-      <c r="BM35" s="7"/>
+      <c r="BL35" s="42"/>
+      <c r="BM35" s="8"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
       <c r="A36" s="12">
         <v>17</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="10"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="10"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="10"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="10"/>
+      <c r="S36" s="1"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="10"/>
+      <c r="U36" s="1"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="10"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="11"/>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="1"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="10"/>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="11"/>
-      <c r="AC36" s="10"/>
+      <c r="AC36" s="1"/>
       <c r="AD36" s="11"/>
-      <c r="AE36" s="10"/>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="11"/>
-      <c r="AG36" s="10"/>
+      <c r="AG36" s="1"/>
       <c r="AH36" s="11"/>
-      <c r="AI36" s="10"/>
+      <c r="AI36" s="1"/>
       <c r="AJ36" s="11"/>
-      <c r="AK36" s="10"/>
+      <c r="AK36" s="1"/>
       <c r="AL36" s="11"/>
-      <c r="AM36" s="10"/>
+      <c r="AM36" s="1"/>
       <c r="AN36" s="11"/>
-      <c r="AO36" s="10"/>
+      <c r="AO36" s="1"/>
       <c r="AP36" s="11"/>
-      <c r="AQ36" s="10"/>
+      <c r="AQ36" s="1"/>
       <c r="AR36" s="11"/>
-      <c r="AS36" s="10"/>
+      <c r="AS36" s="1"/>
       <c r="AT36" s="11"/>
-      <c r="AU36" s="10"/>
+      <c r="AU36" s="1"/>
       <c r="AV36" s="11"/>
-      <c r="AW36" s="10"/>
+      <c r="AW36" s="1"/>
       <c r="AX36" s="11"/>
-      <c r="AY36" s="10"/>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="11"/>
-      <c r="BA36" s="10"/>
+      <c r="BA36" s="1"/>
       <c r="BB36" s="11"/>
-      <c r="BC36" s="10"/>
+      <c r="BC36" s="1"/>
       <c r="BD36" s="11"/>
-      <c r="BE36" s="10"/>
+      <c r="BE36" s="1"/>
       <c r="BF36" s="11"/>
-      <c r="BG36" s="10"/>
+      <c r="BG36" s="1"/>
       <c r="BH36" s="11"/>
-      <c r="BI36" s="10"/>
+      <c r="BI36" s="1"/>
       <c r="BJ36" s="11"/>
-      <c r="BK36" s="10"/>
-      <c r="BL36" s="34"/>
-      <c r="BM36" s="7">
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="8">
         <v>17</v>
       </c>
     </row>
@@ -4174,79 +4243,79 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="35"/>
-      <c r="BM37" s="7"/>
+      <c r="BL37" s="42"/>
+      <c r="BM37" s="8"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
       <c r="A38" s="12">
         <v>18</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="10"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="10"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="10"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="10"/>
+      <c r="S38" s="1"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="10"/>
+      <c r="U38" s="1"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="10"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="1"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="10"/>
+      <c r="AA38" s="1"/>
       <c r="AB38" s="11"/>
-      <c r="AC38" s="10"/>
+      <c r="AC38" s="1"/>
       <c r="AD38" s="11"/>
-      <c r="AE38" s="10"/>
+      <c r="AE38" s="1"/>
       <c r="AF38" s="11"/>
-      <c r="AG38" s="10"/>
+      <c r="AG38" s="1"/>
       <c r="AH38" s="11"/>
-      <c r="AI38" s="10"/>
+      <c r="AI38" s="1"/>
       <c r="AJ38" s="11"/>
-      <c r="AK38" s="10"/>
+      <c r="AK38" s="1"/>
       <c r="AL38" s="11"/>
-      <c r="AM38" s="10"/>
+      <c r="AM38" s="1"/>
       <c r="AN38" s="11"/>
-      <c r="AO38" s="10"/>
+      <c r="AO38" s="1"/>
       <c r="AP38" s="11"/>
-      <c r="AQ38" s="10"/>
+      <c r="AQ38" s="1"/>
       <c r="AR38" s="11"/>
-      <c r="AS38" s="10"/>
+      <c r="AS38" s="1"/>
       <c r="AT38" s="11"/>
-      <c r="AU38" s="10"/>
+      <c r="AU38" s="1"/>
       <c r="AV38" s="11"/>
-      <c r="AW38" s="10"/>
+      <c r="AW38" s="1"/>
       <c r="AX38" s="11"/>
-      <c r="AY38" s="10"/>
+      <c r="AY38" s="1"/>
       <c r="AZ38" s="11"/>
-      <c r="BA38" s="10"/>
+      <c r="BA38" s="1"/>
       <c r="BB38" s="11"/>
-      <c r="BC38" s="10"/>
+      <c r="BC38" s="1"/>
       <c r="BD38" s="11"/>
-      <c r="BE38" s="10"/>
+      <c r="BE38" s="1"/>
       <c r="BF38" s="11"/>
-      <c r="BG38" s="10"/>
+      <c r="BG38" s="1"/>
       <c r="BH38" s="11"/>
-      <c r="BI38" s="10"/>
+      <c r="BI38" s="1"/>
       <c r="BJ38" s="11"/>
-      <c r="BK38" s="10"/>
-      <c r="BL38" s="34"/>
-      <c r="BM38" s="7">
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="41"/>
+      <c r="BM38" s="8">
         <v>18</v>
       </c>
     </row>
@@ -4314,8 +4383,8 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="35"/>
-      <c r="BM39" s="7"/>
+      <c r="BL39" s="42"/>
+      <c r="BM39" s="8"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
       <c r="A40" s="12">
@@ -4324,69 +4393,69 @@
       <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="10"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="10"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="10"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="10"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="10"/>
+      <c r="S40" s="1"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="10"/>
+      <c r="U40" s="1"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="10"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="11"/>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="1"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="10"/>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="11"/>
-      <c r="AC40" s="10"/>
+      <c r="AC40" s="1"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="10"/>
+      <c r="AE40" s="1"/>
       <c r="AF40" s="11"/>
-      <c r="AG40" s="10"/>
+      <c r="AG40" s="1"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="10"/>
+      <c r="AI40" s="1"/>
       <c r="AJ40" s="11"/>
-      <c r="AK40" s="10"/>
+      <c r="AK40" s="1"/>
       <c r="AL40" s="11"/>
-      <c r="AM40" s="10"/>
+      <c r="AM40" s="1"/>
       <c r="AN40" s="11"/>
-      <c r="AO40" s="10"/>
+      <c r="AO40" s="1"/>
       <c r="AP40" s="11"/>
-      <c r="AQ40" s="10"/>
+      <c r="AQ40" s="1"/>
       <c r="AR40" s="11"/>
-      <c r="AS40" s="10"/>
+      <c r="AS40" s="1"/>
       <c r="AT40" s="11"/>
-      <c r="AU40" s="10"/>
+      <c r="AU40" s="1"/>
       <c r="AV40" s="11"/>
-      <c r="AW40" s="10"/>
+      <c r="AW40" s="1"/>
       <c r="AX40" s="11"/>
-      <c r="AY40" s="10"/>
+      <c r="AY40" s="1"/>
       <c r="AZ40" s="11"/>
-      <c r="BA40" s="10"/>
+      <c r="BA40" s="1"/>
       <c r="BB40" s="11"/>
-      <c r="BC40" s="10"/>
+      <c r="BC40" s="1"/>
       <c r="BD40" s="11"/>
-      <c r="BE40" s="10"/>
+      <c r="BE40" s="1"/>
       <c r="BF40" s="11"/>
-      <c r="BG40" s="10"/>
+      <c r="BG40" s="1"/>
       <c r="BH40" s="11"/>
-      <c r="BI40" s="10"/>
+      <c r="BI40" s="1"/>
       <c r="BJ40" s="11"/>
-      <c r="BK40" s="10"/>
-      <c r="BL40" s="34"/>
-      <c r="BM40" s="7">
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="41"/>
+      <c r="BM40" s="8">
         <v>19</v>
       </c>
     </row>
@@ -4454,8 +4523,8 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="35"/>
-      <c r="BM41" s="7"/>
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="8"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
       <c r="A42" s="12">
@@ -4464,69 +4533,69 @@
       <c r="B42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="10"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="10"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="10"/>
+      <c r="Q42" s="1"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="10"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="10"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="10"/>
+      <c r="W42" s="1"/>
       <c r="X42" s="11"/>
-      <c r="Y42" s="10"/>
+      <c r="Y42" s="1"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="10"/>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="11"/>
-      <c r="AC42" s="10"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="11"/>
-      <c r="AE42" s="10"/>
+      <c r="AE42" s="1"/>
       <c r="AF42" s="11"/>
-      <c r="AG42" s="10"/>
+      <c r="AG42" s="1"/>
       <c r="AH42" s="11"/>
-      <c r="AI42" s="10"/>
+      <c r="AI42" s="1"/>
       <c r="AJ42" s="11"/>
-      <c r="AK42" s="10"/>
+      <c r="AK42" s="1"/>
       <c r="AL42" s="11"/>
-      <c r="AM42" s="10"/>
+      <c r="AM42" s="1"/>
       <c r="AN42" s="11"/>
-      <c r="AO42" s="10"/>
+      <c r="AO42" s="1"/>
       <c r="AP42" s="11"/>
-      <c r="AQ42" s="10"/>
+      <c r="AQ42" s="1"/>
       <c r="AR42" s="11"/>
-      <c r="AS42" s="10"/>
+      <c r="AS42" s="1"/>
       <c r="AT42" s="11"/>
-      <c r="AU42" s="10"/>
+      <c r="AU42" s="1"/>
       <c r="AV42" s="11"/>
-      <c r="AW42" s="10"/>
+      <c r="AW42" s="1"/>
       <c r="AX42" s="11"/>
-      <c r="AY42" s="10"/>
+      <c r="AY42" s="1"/>
       <c r="AZ42" s="11"/>
-      <c r="BA42" s="10"/>
+      <c r="BA42" s="1"/>
       <c r="BB42" s="11"/>
-      <c r="BC42" s="10"/>
+      <c r="BC42" s="1"/>
       <c r="BD42" s="11"/>
-      <c r="BE42" s="10"/>
+      <c r="BE42" s="1"/>
       <c r="BF42" s="11"/>
-      <c r="BG42" s="10"/>
+      <c r="BG42" s="1"/>
       <c r="BH42" s="11"/>
-      <c r="BI42" s="10"/>
+      <c r="BI42" s="1"/>
       <c r="BJ42" s="11"/>
-      <c r="BK42" s="10"/>
-      <c r="BL42" s="34"/>
-      <c r="BM42" s="7">
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="8">
         <v>20</v>
       </c>
     </row>
@@ -4594,8 +4663,8 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="35"/>
-      <c r="BM43" s="7"/>
+      <c r="BL43" s="42"/>
+      <c r="BM43" s="8"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
       <c r="A44" s="12">
@@ -4604,69 +4673,69 @@
       <c r="B44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="10"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="10"/>
+      <c r="M44" s="1"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="10"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="10"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="10"/>
+      <c r="S44" s="1"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="10"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="10"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="10"/>
+      <c r="Y44" s="1"/>
       <c r="Z44" s="11"/>
-      <c r="AA44" s="10"/>
+      <c r="AA44" s="1"/>
       <c r="AB44" s="11"/>
-      <c r="AC44" s="10"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="11"/>
-      <c r="AE44" s="10"/>
+      <c r="AE44" s="1"/>
       <c r="AF44" s="11"/>
-      <c r="AG44" s="10"/>
+      <c r="AG44" s="1"/>
       <c r="AH44" s="11"/>
-      <c r="AI44" s="10"/>
+      <c r="AI44" s="1"/>
       <c r="AJ44" s="11"/>
-      <c r="AK44" s="10"/>
+      <c r="AK44" s="1"/>
       <c r="AL44" s="11"/>
-      <c r="AM44" s="10"/>
+      <c r="AM44" s="1"/>
       <c r="AN44" s="11"/>
-      <c r="AO44" s="10"/>
+      <c r="AO44" s="1"/>
       <c r="AP44" s="11"/>
-      <c r="AQ44" s="10"/>
+      <c r="AQ44" s="1"/>
       <c r="AR44" s="11"/>
-      <c r="AS44" s="10"/>
+      <c r="AS44" s="1"/>
       <c r="AT44" s="11"/>
-      <c r="AU44" s="10"/>
+      <c r="AU44" s="1"/>
       <c r="AV44" s="11"/>
-      <c r="AW44" s="10"/>
+      <c r="AW44" s="1"/>
       <c r="AX44" s="11"/>
-      <c r="AY44" s="10"/>
+      <c r="AY44" s="1"/>
       <c r="AZ44" s="11"/>
-      <c r="BA44" s="10"/>
+      <c r="BA44" s="1"/>
       <c r="BB44" s="11"/>
-      <c r="BC44" s="10"/>
+      <c r="BC44" s="1"/>
       <c r="BD44" s="11"/>
-      <c r="BE44" s="10"/>
+      <c r="BE44" s="1"/>
       <c r="BF44" s="11"/>
-      <c r="BG44" s="10"/>
+      <c r="BG44" s="1"/>
       <c r="BH44" s="11"/>
-      <c r="BI44" s="10"/>
+      <c r="BI44" s="1"/>
       <c r="BJ44" s="11"/>
-      <c r="BK44" s="10"/>
-      <c r="BL44" s="34"/>
-      <c r="BM44" s="7">
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="41"/>
+      <c r="BM44" s="8">
         <v>21</v>
       </c>
     </row>
@@ -4734,8 +4803,8 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="35"/>
-      <c r="BM45" s="7"/>
+      <c r="BL45" s="42"/>
+      <c r="BM45" s="8"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
       <c r="A46" s="12">
@@ -4744,69 +4813,69 @@
       <c r="B46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="10"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="10"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="10"/>
+      <c r="M46" s="1"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="10"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="10"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="10"/>
+      <c r="S46" s="1"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="10"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="10"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="11"/>
-      <c r="Y46" s="10"/>
+      <c r="Y46" s="1"/>
       <c r="Z46" s="11"/>
-      <c r="AA46" s="10"/>
+      <c r="AA46" s="1"/>
       <c r="AB46" s="11"/>
-      <c r="AC46" s="10"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="11"/>
-      <c r="AE46" s="10"/>
+      <c r="AE46" s="1"/>
       <c r="AF46" s="11"/>
-      <c r="AG46" s="10"/>
+      <c r="AG46" s="1"/>
       <c r="AH46" s="11"/>
-      <c r="AI46" s="10"/>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="11"/>
-      <c r="AK46" s="10"/>
+      <c r="AK46" s="1"/>
       <c r="AL46" s="11"/>
-      <c r="AM46" s="10"/>
+      <c r="AM46" s="1"/>
       <c r="AN46" s="11"/>
-      <c r="AO46" s="10"/>
+      <c r="AO46" s="1"/>
       <c r="AP46" s="11"/>
-      <c r="AQ46" s="10"/>
+      <c r="AQ46" s="1"/>
       <c r="AR46" s="11"/>
-      <c r="AS46" s="10"/>
+      <c r="AS46" s="1"/>
       <c r="AT46" s="11"/>
-      <c r="AU46" s="10"/>
+      <c r="AU46" s="1"/>
       <c r="AV46" s="11"/>
-      <c r="AW46" s="10"/>
+      <c r="AW46" s="1"/>
       <c r="AX46" s="11"/>
-      <c r="AY46" s="10"/>
+      <c r="AY46" s="1"/>
       <c r="AZ46" s="11"/>
-      <c r="BA46" s="10"/>
+      <c r="BA46" s="1"/>
       <c r="BB46" s="11"/>
-      <c r="BC46" s="10"/>
+      <c r="BC46" s="1"/>
       <c r="BD46" s="11"/>
-      <c r="BE46" s="10"/>
+      <c r="BE46" s="1"/>
       <c r="BF46" s="11"/>
-      <c r="BG46" s="10"/>
+      <c r="BG46" s="1"/>
       <c r="BH46" s="11"/>
-      <c r="BI46" s="10"/>
+      <c r="BI46" s="1"/>
       <c r="BJ46" s="11"/>
-      <c r="BK46" s="10"/>
-      <c r="BL46" s="34"/>
-      <c r="BM46" s="7">
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="41"/>
+      <c r="BM46" s="8">
         <v>22</v>
       </c>
     </row>
@@ -4874,8 +4943,8 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="35"/>
-      <c r="BM47" s="7"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="8"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:66">
       <c r="A48" s="19">
@@ -4945,14 +5014,14 @@
       <c r="BI48" s="21"/>
       <c r="BJ48" s="22"/>
       <c r="BK48" s="21"/>
-      <c r="BL48" s="36"/>
-      <c r="BM48" s="38">
+      <c r="BL48" s="43"/>
+      <c r="BM48" s="45">
         <v>23</v>
       </c>
-      <c r="BN48" s="39"/>
+      <c r="BN48" s="46"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="23"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
@@ -5015,8 +5084,8 @@
       <c r="BI49" s="21"/>
       <c r="BJ49" s="22"/>
       <c r="BK49" s="21"/>
-      <c r="BL49" s="36"/>
-      <c r="BM49" s="40"/>
+      <c r="BL49" s="43"/>
+      <c r="BM49" s="47"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
       <c r="A50" s="19">
@@ -5065,7 +5134,7 @@
       <c r="AN50" s="22"/>
       <c r="AO50" s="21"/>
       <c r="AP50" s="22"/>
-      <c r="AQ50" s="31"/>
+      <c r="AQ50" s="50"/>
       <c r="AR50" s="22"/>
       <c r="AS50" s="21"/>
       <c r="AT50" s="22"/>
@@ -5086,13 +5155,13 @@
       <c r="BI50" s="21"/>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="21"/>
-      <c r="BL50" s="36"/>
-      <c r="BM50" s="6">
+      <c r="BL50" s="43"/>
+      <c r="BM50" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="51" ht="10.15" customHeight="1" spans="1:65">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="23"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
@@ -5155,8 +5224,8 @@
       <c r="BI51" s="21"/>
       <c r="BJ51" s="22"/>
       <c r="BK51" s="21"/>
-      <c r="BL51" s="36"/>
-      <c r="BM51" s="41"/>
+      <c r="BL51" s="43"/>
+      <c r="BM51" s="48"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
       <c r="A52" s="12">
@@ -5165,69 +5234,69 @@
       <c r="B52" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="10"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="10"/>
+      <c r="M52" s="1"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="10"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="10"/>
+      <c r="Q52" s="1"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="10"/>
+      <c r="S52" s="1"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="10"/>
+      <c r="U52" s="1"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="10"/>
+      <c r="W52" s="1"/>
       <c r="X52" s="11"/>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="1"/>
       <c r="Z52" s="11"/>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="1"/>
       <c r="AB52" s="11"/>
-      <c r="AC52" s="10"/>
+      <c r="AC52" s="1"/>
       <c r="AD52" s="11"/>
-      <c r="AE52" s="10"/>
+      <c r="AE52" s="1"/>
       <c r="AF52" s="11"/>
-      <c r="AG52" s="10"/>
+      <c r="AG52" s="1"/>
       <c r="AH52" s="11"/>
-      <c r="AI52" s="10"/>
+      <c r="AI52" s="1"/>
       <c r="AJ52" s="11"/>
-      <c r="AK52" s="10"/>
+      <c r="AK52" s="1"/>
       <c r="AL52" s="11"/>
-      <c r="AM52" s="10"/>
+      <c r="AM52" s="1"/>
       <c r="AN52" s="11"/>
-      <c r="AO52" s="10"/>
+      <c r="AO52" s="1"/>
       <c r="AP52" s="11"/>
-      <c r="AQ52" s="10"/>
+      <c r="AQ52" s="1"/>
       <c r="AR52" s="11"/>
-      <c r="AS52" s="10"/>
+      <c r="AS52" s="1"/>
       <c r="AT52" s="11"/>
-      <c r="AU52" s="10"/>
+      <c r="AU52" s="1"/>
       <c r="AV52" s="11"/>
-      <c r="AW52" s="10"/>
+      <c r="AW52" s="1"/>
       <c r="AX52" s="11"/>
-      <c r="AY52" s="10"/>
+      <c r="AY52" s="1"/>
       <c r="AZ52" s="11"/>
-      <c r="BA52" s="10"/>
+      <c r="BA52" s="1"/>
       <c r="BB52" s="11"/>
-      <c r="BC52" s="10"/>
+      <c r="BC52" s="1"/>
       <c r="BD52" s="11"/>
-      <c r="BE52" s="10"/>
+      <c r="BE52" s="1"/>
       <c r="BF52" s="11"/>
-      <c r="BG52" s="10"/>
+      <c r="BG52" s="1"/>
       <c r="BH52" s="11"/>
-      <c r="BI52" s="10"/>
+      <c r="BI52" s="1"/>
       <c r="BJ52" s="11"/>
-      <c r="BK52" s="10"/>
-      <c r="BL52" s="34"/>
-      <c r="BM52" s="7">
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="41"/>
+      <c r="BM52" s="8">
         <v>25</v>
       </c>
     </row>
@@ -5295,8 +5364,8 @@
       <c r="BI53" s="14"/>
       <c r="BJ53" s="15"/>
       <c r="BK53" s="14"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="7"/>
+      <c r="BL53" s="42"/>
+      <c r="BM53" s="8"/>
     </row>
     <row r="54" ht="10.15" customHeight="1" spans="1:65">
       <c r="A54" s="12">
@@ -5305,69 +5374,69 @@
       <c r="B54" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="10"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="10"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="10"/>
+      <c r="M54" s="1"/>
       <c r="N54" s="11"/>
-      <c r="O54" s="10"/>
+      <c r="O54" s="1"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="10"/>
+      <c r="Q54" s="1"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="10"/>
+      <c r="S54" s="1"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="10"/>
+      <c r="U54" s="1"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="10"/>
+      <c r="W54" s="1"/>
       <c r="X54" s="11"/>
-      <c r="Y54" s="10"/>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="11"/>
-      <c r="AA54" s="10"/>
+      <c r="AA54" s="1"/>
       <c r="AB54" s="11"/>
-      <c r="AC54" s="10"/>
+      <c r="AC54" s="1"/>
       <c r="AD54" s="11"/>
-      <c r="AE54" s="10"/>
+      <c r="AE54" s="1"/>
       <c r="AF54" s="11"/>
-      <c r="AG54" s="10"/>
+      <c r="AG54" s="1"/>
       <c r="AH54" s="11"/>
-      <c r="AI54" s="10"/>
+      <c r="AI54" s="1"/>
       <c r="AJ54" s="11"/>
-      <c r="AK54" s="10"/>
+      <c r="AK54" s="1"/>
       <c r="AL54" s="11"/>
-      <c r="AM54" s="10"/>
+      <c r="AM54" s="1"/>
       <c r="AN54" s="11"/>
-      <c r="AO54" s="10"/>
+      <c r="AO54" s="1"/>
       <c r="AP54" s="11"/>
-      <c r="AQ54" s="10"/>
+      <c r="AQ54" s="1"/>
       <c r="AR54" s="11"/>
-      <c r="AS54" s="10"/>
+      <c r="AS54" s="1"/>
       <c r="AT54" s="11"/>
-      <c r="AU54" s="10"/>
+      <c r="AU54" s="1"/>
       <c r="AV54" s="11"/>
-      <c r="AW54" s="10"/>
+      <c r="AW54" s="1"/>
       <c r="AX54" s="11"/>
-      <c r="AY54" s="10"/>
+      <c r="AY54" s="1"/>
       <c r="AZ54" s="11"/>
-      <c r="BA54" s="10"/>
+      <c r="BA54" s="1"/>
       <c r="BB54" s="11"/>
-      <c r="BC54" s="10"/>
+      <c r="BC54" s="1"/>
       <c r="BD54" s="11"/>
-      <c r="BE54" s="10"/>
+      <c r="BE54" s="1"/>
       <c r="BF54" s="11"/>
-      <c r="BG54" s="10"/>
+      <c r="BG54" s="1"/>
       <c r="BH54" s="11"/>
-      <c r="BI54" s="10"/>
+      <c r="BI54" s="1"/>
       <c r="BJ54" s="11"/>
-      <c r="BK54" s="10"/>
-      <c r="BL54" s="34"/>
-      <c r="BM54" s="7">
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="41"/>
+      <c r="BM54" s="8">
         <v>26</v>
       </c>
     </row>
@@ -5435,8 +5504,8 @@
       <c r="BI55" s="14"/>
       <c r="BJ55" s="15"/>
       <c r="BK55" s="14"/>
-      <c r="BL55" s="35"/>
-      <c r="BM55" s="7"/>
+      <c r="BL55" s="42"/>
+      <c r="BM55" s="8"/>
     </row>
     <row r="56" ht="10.15" customHeight="1" spans="1:65">
       <c r="A56" s="12">
@@ -5445,69 +5514,69 @@
       <c r="B56" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="10"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="10"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="10"/>
+      <c r="M56" s="1"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="10"/>
+      <c r="O56" s="1"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="10"/>
+      <c r="Q56" s="1"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="10"/>
+      <c r="S56" s="1"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="10"/>
+      <c r="U56" s="1"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="10"/>
+      <c r="W56" s="1"/>
       <c r="X56" s="11"/>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="11"/>
-      <c r="AA56" s="10"/>
+      <c r="AA56" s="1"/>
       <c r="AB56" s="11"/>
-      <c r="AC56" s="10"/>
+      <c r="AC56" s="1"/>
       <c r="AD56" s="11"/>
-      <c r="AE56" s="10"/>
+      <c r="AE56" s="1"/>
       <c r="AF56" s="11"/>
-      <c r="AG56" s="10"/>
+      <c r="AG56" s="1"/>
       <c r="AH56" s="11"/>
-      <c r="AI56" s="10"/>
+      <c r="AI56" s="1"/>
       <c r="AJ56" s="11"/>
-      <c r="AK56" s="10"/>
+      <c r="AK56" s="1"/>
       <c r="AL56" s="11"/>
-      <c r="AM56" s="10"/>
+      <c r="AM56" s="1"/>
       <c r="AN56" s="11"/>
-      <c r="AO56" s="10"/>
+      <c r="AO56" s="1"/>
       <c r="AP56" s="11"/>
-      <c r="AQ56" s="10"/>
+      <c r="AQ56" s="1"/>
       <c r="AR56" s="11"/>
-      <c r="AS56" s="10"/>
+      <c r="AS56" s="1"/>
       <c r="AT56" s="11"/>
-      <c r="AU56" s="10"/>
+      <c r="AU56" s="1"/>
       <c r="AV56" s="11"/>
-      <c r="AW56" s="10"/>
+      <c r="AW56" s="1"/>
       <c r="AX56" s="11"/>
-      <c r="AY56" s="10"/>
+      <c r="AY56" s="1"/>
       <c r="AZ56" s="11"/>
-      <c r="BA56" s="10"/>
+      <c r="BA56" s="1"/>
       <c r="BB56" s="11"/>
-      <c r="BC56" s="10"/>
+      <c r="BC56" s="1"/>
       <c r="BD56" s="11"/>
-      <c r="BE56" s="10"/>
+      <c r="BE56" s="1"/>
       <c r="BF56" s="11"/>
-      <c r="BG56" s="10"/>
+      <c r="BG56" s="1"/>
       <c r="BH56" s="11"/>
-      <c r="BI56" s="10"/>
+      <c r="BI56" s="1"/>
       <c r="BJ56" s="11"/>
-      <c r="BK56" s="10"/>
-      <c r="BL56" s="34"/>
-      <c r="BM56" s="7">
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="41"/>
+      <c r="BM56" s="8">
         <v>27</v>
       </c>
     </row>
@@ -5575,8 +5644,8 @@
       <c r="BI57" s="14"/>
       <c r="BJ57" s="15"/>
       <c r="BK57" s="14"/>
-      <c r="BL57" s="35"/>
-      <c r="BM57" s="7"/>
+      <c r="BL57" s="42"/>
+      <c r="BM57" s="8"/>
     </row>
     <row r="58" ht="10.15" customHeight="1" spans="1:65">
       <c r="A58" s="12">
@@ -5585,69 +5654,69 @@
       <c r="B58" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="10"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="10"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="10"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="10"/>
+      <c r="M58" s="1"/>
       <c r="N58" s="11"/>
-      <c r="O58" s="10"/>
+      <c r="O58" s="1"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="10"/>
+      <c r="Q58" s="1"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="10"/>
+      <c r="S58" s="1"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="10"/>
+      <c r="U58" s="1"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="10"/>
+      <c r="W58" s="1"/>
       <c r="X58" s="11"/>
-      <c r="Y58" s="10"/>
+      <c r="Y58" s="1"/>
       <c r="Z58" s="11"/>
-      <c r="AA58" s="10"/>
+      <c r="AA58" s="1"/>
       <c r="AB58" s="11"/>
-      <c r="AC58" s="10"/>
+      <c r="AC58" s="1"/>
       <c r="AD58" s="11"/>
-      <c r="AE58" s="10"/>
+      <c r="AE58" s="1"/>
       <c r="AF58" s="11"/>
-      <c r="AG58" s="10"/>
+      <c r="AG58" s="1"/>
       <c r="AH58" s="11"/>
-      <c r="AI58" s="10"/>
+      <c r="AI58" s="1"/>
       <c r="AJ58" s="11"/>
-      <c r="AK58" s="10"/>
+      <c r="AK58" s="1"/>
       <c r="AL58" s="11"/>
-      <c r="AM58" s="10"/>
+      <c r="AM58" s="1"/>
       <c r="AN58" s="11"/>
-      <c r="AO58" s="10"/>
+      <c r="AO58" s="1"/>
       <c r="AP58" s="11"/>
-      <c r="AQ58" s="10"/>
+      <c r="AQ58" s="1"/>
       <c r="AR58" s="11"/>
-      <c r="AS58" s="10"/>
+      <c r="AS58" s="1"/>
       <c r="AT58" s="11"/>
-      <c r="AU58" s="10"/>
+      <c r="AU58" s="1"/>
       <c r="AV58" s="11"/>
-      <c r="AW58" s="10"/>
+      <c r="AW58" s="1"/>
       <c r="AX58" s="11"/>
-      <c r="AY58" s="10"/>
+      <c r="AY58" s="1"/>
       <c r="AZ58" s="11"/>
-      <c r="BA58" s="10"/>
+      <c r="BA58" s="1"/>
       <c r="BB58" s="11"/>
-      <c r="BC58" s="10"/>
+      <c r="BC58" s="1"/>
       <c r="BD58" s="11"/>
-      <c r="BE58" s="10"/>
+      <c r="BE58" s="1"/>
       <c r="BF58" s="11"/>
-      <c r="BG58" s="10"/>
+      <c r="BG58" s="1"/>
       <c r="BH58" s="11"/>
-      <c r="BI58" s="10"/>
+      <c r="BI58" s="1"/>
       <c r="BJ58" s="11"/>
-      <c r="BK58" s="10"/>
-      <c r="BL58" s="34"/>
-      <c r="BM58" s="7">
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="41"/>
+      <c r="BM58" s="8">
         <v>28</v>
       </c>
     </row>
@@ -5715,8 +5784,8 @@
       <c r="BI59" s="14"/>
       <c r="BJ59" s="15"/>
       <c r="BK59" s="14"/>
-      <c r="BL59" s="35"/>
-      <c r="BM59" s="7"/>
+      <c r="BL59" s="42"/>
+      <c r="BM59" s="8"/>
     </row>
     <row r="60" ht="12.95" customHeight="1"/>
     <row r="61" ht="12.95" customHeight="1"/>
@@ -5906,16 +5975,4324 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:BN88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="64" width="1.625" customWidth="1"/>
+    <col min="65" max="65" width="2.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:64">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5">
+        <v>4</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5">
+        <v>5</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="39">
+        <v>10</v>
+      </c>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5">
+        <v>11</v>
+      </c>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5">
+        <v>12</v>
+      </c>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+    </row>
+    <row r="2" ht="11.1" customHeight="1" spans="27:34">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="37"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:65">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
+        <v>6</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>7</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
+        <v>8</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
+        <v>10</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8">
+        <v>11</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8">
+        <v>19</v>
+      </c>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8">
+        <v>21</v>
+      </c>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8">
+        <v>22</v>
+      </c>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8">
+        <v>24</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8">
+        <v>25</v>
+      </c>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8">
+        <v>26</v>
+      </c>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8">
+        <v>27</v>
+      </c>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8">
+        <v>28</v>
+      </c>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8">
+        <v>29</v>
+      </c>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8">
+        <v>30</v>
+      </c>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8">
+        <v>31</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="44"/>
+    </row>
+    <row r="4" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="8"/>
+    </row>
+    <row r="6" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="29"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="8"/>
+    </row>
+    <row r="8" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="41"/>
+      <c r="BM8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="8"/>
+    </row>
+    <row r="10" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="29"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="42"/>
+      <c r="BM11" s="8"/>
+    </row>
+    <row r="12" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="8"/>
+    </row>
+    <row r="14" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="41"/>
+      <c r="BM14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="42"/>
+      <c r="BM15" s="8"/>
+    </row>
+    <row r="16" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A16" s="12">
+        <v>7</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="8"/>
+    </row>
+    <row r="18" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A18" s="12">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="41"/>
+      <c r="BM18" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="8"/>
+    </row>
+    <row r="20" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A20" s="12">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="34"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="34"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="33"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="33"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="33"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="8"/>
+    </row>
+    <row r="22" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A22" s="12">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="34"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="11"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="11"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="41"/>
+      <c r="BM22" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="42"/>
+      <c r="BM23" s="8"/>
+    </row>
+    <row r="24" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A24" s="12">
+        <v>11</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="11"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="11"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="11"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="33"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="32"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="8"/>
+    </row>
+    <row r="26" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A26" s="12">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="41"/>
+      <c r="BM26" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="14"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="14"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="14"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="8"/>
+    </row>
+    <row r="28" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A28" s="12">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="14"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="14"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="14"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="14"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="8"/>
+    </row>
+    <row r="30" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A30" s="12">
+        <v>14</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="34"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="34"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="11"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="11"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="41"/>
+      <c r="BM30" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="32"/>
+      <c r="AZ31" s="33"/>
+      <c r="BA31" s="32"/>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="14"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="14"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="14"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="8"/>
+    </row>
+    <row r="32" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A32" s="12">
+        <v>15</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="33"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="33"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="32"/>
+      <c r="AZ33" s="33"/>
+      <c r="BA33" s="32"/>
+      <c r="BB33" s="33"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="42"/>
+      <c r="BM33" s="8"/>
+    </row>
+    <row r="34" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A34" s="12">
+        <v>16</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="29"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="32"/>
+      <c r="BB35" s="33"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="14"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="14"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="14"/>
+      <c r="BL35" s="42"/>
+      <c r="BM35" s="8"/>
+    </row>
+    <row r="36" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A36" s="12">
+        <v>17</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="34"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="34"/>
+      <c r="BB36" s="29"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="42"/>
+      <c r="BM37" s="8"/>
+    </row>
+    <row r="38" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A38" s="12">
+        <v>18</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="41"/>
+      <c r="BM38" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="33"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="33"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="42"/>
+      <c r="BM39" s="8"/>
+    </row>
+    <row r="40" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A40" s="12">
+        <v>19</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="29"/>
+      <c r="AO40" s="34"/>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="34"/>
+      <c r="AR40" s="29"/>
+      <c r="AS40" s="34"/>
+      <c r="AT40" s="29"/>
+      <c r="AU40" s="34"/>
+      <c r="AV40" s="29"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="29"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="29"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="29"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="11"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="41"/>
+      <c r="BM40" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="32"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="32"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="32"/>
+      <c r="BB41" s="33"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="14"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="8"/>
+    </row>
+    <row r="42" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A42" s="12">
+        <v>20</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="34"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="34"/>
+      <c r="AT42" s="29"/>
+      <c r="AU42" s="34"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="34"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="34"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="34"/>
+      <c r="BB42" s="29"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="11"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="32"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="32"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="32"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="32"/>
+      <c r="BB43" s="33"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="14"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="14"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="42"/>
+      <c r="BM43" s="8"/>
+    </row>
+    <row r="44" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A44" s="12">
+        <v>21</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="34"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="34"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="34"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="34"/>
+      <c r="AR44" s="29"/>
+      <c r="AS44" s="34"/>
+      <c r="AT44" s="29"/>
+      <c r="AU44" s="34"/>
+      <c r="AV44" s="29"/>
+      <c r="AW44" s="34"/>
+      <c r="AX44" s="29"/>
+      <c r="AY44" s="34"/>
+      <c r="AZ44" s="29"/>
+      <c r="BA44" s="34"/>
+      <c r="BB44" s="29"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="41"/>
+      <c r="BM44" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="33"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="33"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="32"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="32"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="32"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="32"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="32"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="32"/>
+      <c r="BB45" s="33"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="14"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="14"/>
+      <c r="BL45" s="42"/>
+      <c r="BM45" s="8"/>
+    </row>
+    <row r="46" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A46" s="12">
+        <v>22</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="34"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="34"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="34"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="34"/>
+      <c r="AR46" s="29"/>
+      <c r="AS46" s="34"/>
+      <c r="AT46" s="29"/>
+      <c r="AU46" s="34"/>
+      <c r="AV46" s="29"/>
+      <c r="AW46" s="34"/>
+      <c r="AX46" s="29"/>
+      <c r="AY46" s="34"/>
+      <c r="AZ46" s="29"/>
+      <c r="BA46" s="34"/>
+      <c r="BB46" s="29"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="11"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="11"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="11"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="11"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="41"/>
+      <c r="BM46" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="33"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="33"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="33"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="33"/>
+      <c r="BC47" s="14"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="8"/>
+    </row>
+    <row r="48" ht="10.15" customHeight="1" spans="1:66">
+      <c r="A48" s="19">
+        <v>23</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="35"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="35"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="21"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="21"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="21"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="21"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="21"/>
+      <c r="BL48" s="43"/>
+      <c r="BM48" s="45">
+        <v>23</v>
+      </c>
+      <c r="BN48" s="46"/>
+    </row>
+    <row r="49" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A49" s="9"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="36"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="36"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="36"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="36"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="36"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="36"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="36"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="36"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="36"/>
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="21"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="21"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="43"/>
+      <c r="BM49" s="47"/>
+    </row>
+    <row r="50" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A50" s="19">
+        <v>24</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="36"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="36"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="36"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="35"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="36"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="36"/>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="36"/>
+      <c r="BA50" s="35"/>
+      <c r="BB50" s="36"/>
+      <c r="BC50" s="21"/>
+      <c r="BD50" s="22"/>
+      <c r="BE50" s="21"/>
+      <c r="BF50" s="22"/>
+      <c r="BG50" s="21"/>
+      <c r="BH50" s="22"/>
+      <c r="BI50" s="21"/>
+      <c r="BJ50" s="22"/>
+      <c r="BK50" s="21"/>
+      <c r="BL50" s="43"/>
+      <c r="BM50" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A51" s="9"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="36"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="35"/>
+      <c r="AR51" s="36"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="36"/>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="36"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="36"/>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="36"/>
+      <c r="BA51" s="35"/>
+      <c r="BB51" s="36"/>
+      <c r="BC51" s="21"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="21"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="21"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="21"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="43"/>
+      <c r="BM51" s="48"/>
+    </row>
+    <row r="52" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A52" s="12">
+        <v>25</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="34"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="34"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="34"/>
+      <c r="AV52" s="29"/>
+      <c r="AW52" s="34"/>
+      <c r="AX52" s="29"/>
+      <c r="AY52" s="34"/>
+      <c r="AZ52" s="29"/>
+      <c r="BA52" s="34"/>
+      <c r="BB52" s="29"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="41"/>
+      <c r="BM52" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="33"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="33"/>
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="33"/>
+      <c r="AQ53" s="32"/>
+      <c r="AR53" s="33"/>
+      <c r="AS53" s="32"/>
+      <c r="AT53" s="33"/>
+      <c r="AU53" s="32"/>
+      <c r="AV53" s="33"/>
+      <c r="AW53" s="32"/>
+      <c r="AX53" s="33"/>
+      <c r="AY53" s="32"/>
+      <c r="AZ53" s="33"/>
+      <c r="BA53" s="32"/>
+      <c r="BB53" s="33"/>
+      <c r="BC53" s="14"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="14"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="42"/>
+      <c r="BM53" s="8"/>
+    </row>
+    <row r="54" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A54" s="12">
+        <v>26</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="29"/>
+      <c r="AO54" s="34"/>
+      <c r="AP54" s="29"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="29"/>
+      <c r="AS54" s="34"/>
+      <c r="AT54" s="29"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="29"/>
+      <c r="AW54" s="34"/>
+      <c r="AX54" s="29"/>
+      <c r="AY54" s="34"/>
+      <c r="AZ54" s="29"/>
+      <c r="BA54" s="34"/>
+      <c r="BB54" s="29"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="11"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="11"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="11"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="41"/>
+      <c r="BM54" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="42"/>
+      <c r="BM55" s="8"/>
+    </row>
+    <row r="56" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A56" s="12">
+        <v>27</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="11"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="11"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="11"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="11"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="11"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="11"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="41"/>
+      <c r="BM56" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="15"/>
+      <c r="AQ57" s="14"/>
+      <c r="AR57" s="15"/>
+      <c r="AS57" s="14"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="14"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="14"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="14"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="14"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="14"/>
+      <c r="BD57" s="15"/>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="14"/>
+      <c r="BH57" s="15"/>
+      <c r="BI57" s="14"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="14"/>
+      <c r="BL57" s="42"/>
+      <c r="BM57" s="8"/>
+    </row>
+    <row r="58" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A58" s="12">
+        <v>28</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="11"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="11"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="11"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="11"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="11"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="41"/>
+      <c r="BM58" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" ht="10.15" customHeight="1" spans="1:65">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="15"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="15"/>
+      <c r="AM59" s="14"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="14"/>
+      <c r="AP59" s="15"/>
+      <c r="AQ59" s="14"/>
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="14"/>
+      <c r="AT59" s="15"/>
+      <c r="AU59" s="14"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="14"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="14"/>
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="14"/>
+      <c r="BB59" s="15"/>
+      <c r="BC59" s="14"/>
+      <c r="BD59" s="15"/>
+      <c r="BE59" s="14"/>
+      <c r="BF59" s="15"/>
+      <c r="BG59" s="14"/>
+      <c r="BH59" s="15"/>
+      <c r="BI59" s="14"/>
+      <c r="BJ59" s="15"/>
+      <c r="BK59" s="14"/>
+      <c r="BL59" s="42"/>
+      <c r="BM59" s="8"/>
+    </row>
+    <row r="60" ht="12.95" customHeight="1"/>
+    <row r="61" ht="12.95" customHeight="1"/>
+    <row r="62" ht="12.95" customHeight="1"/>
+    <row r="63" ht="12.95" customHeight="1"/>
+    <row r="64" ht="12.95" customHeight="1"/>
+    <row r="65" ht="12.95" customHeight="1"/>
+    <row r="66" ht="12.95" customHeight="1"/>
+    <row r="67" ht="12.95" customHeight="1"/>
+    <row r="68" ht="12.95" customHeight="1"/>
+    <row r="69" ht="12.95" customHeight="1"/>
+    <row r="70" ht="12.95" customHeight="1"/>
+    <row r="71" ht="12.95" customHeight="1"/>
+    <row r="72" ht="12.95" customHeight="1"/>
+    <row r="73" ht="12.95" customHeight="1"/>
+    <row r="74" ht="12.95" customHeight="1"/>
+    <row r="75" ht="12.95" customHeight="1"/>
+    <row r="76" ht="12.95" customHeight="1"/>
+    <row r="77" ht="12.95" customHeight="1"/>
+    <row r="78" ht="12.95" customHeight="1"/>
+    <row r="79" ht="12.95" customHeight="1"/>
+    <row r="80" ht="12.95" customHeight="1"/>
+    <row r="81" ht="12.95" customHeight="1"/>
+    <row r="82" ht="12.95" customHeight="1"/>
+    <row r="83" ht="12.95" customHeight="1"/>
+    <row r="84" ht="12.95" customHeight="1"/>
+    <row r="85" ht="12.95" customHeight="1"/>
+    <row r="86" ht="12.95" customHeight="1"/>
+    <row r="87" ht="12.95" customHeight="1"/>
+    <row r="88" ht="12.95" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="147">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BM18:BM19"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BM24:BM25"/>
+    <mergeCell ref="BM26:BM27"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM30:BM31"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BM40:BM41"/>
+    <mergeCell ref="BM42:BM43"/>
+    <mergeCell ref="BM44:BM45"/>
+    <mergeCell ref="BM46:BM47"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="BM50:BM51"/>
+    <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BM54:BM55"/>
+    <mergeCell ref="BM56:BM57"/>
+    <mergeCell ref="BM58:BM59"/>
+  </mergeCells>
+  <pageMargins left="0.747916666666667" right="0.393055555555556" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5929,8 +10306,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter alignWithMargins="0"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -224,13 +224,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -238,7 +231,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +308,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -320,16 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,31 +373,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,13 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,19 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,43 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +497,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,49 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,16 +882,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,11 +931,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,28 +955,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,10 +986,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,137 +998,137 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,34 +1213,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1270,10 +1261,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1698,10 +1689,10 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="39">
+      <c r="AO1" s="34">
         <v>10</v>
       </c>
-      <c r="AP1" s="39"/>
+      <c r="AP1" s="34"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5">
@@ -1730,11 +1721,11 @@
       <c r="BL1" s="24"/>
     </row>
     <row r="2" ht="11.1" customHeight="1" spans="29:33">
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="50"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:65">
       <c r="A3" s="6" t="s">
@@ -1864,8 +1855,8 @@
       <c r="BK3" s="8">
         <v>31</v>
       </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="44"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="39"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="9">
@@ -1890,21 +1881,21 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="49"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="49"/>
+      <c r="U4" s="44"/>
       <c r="V4" s="27"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="49"/>
+      <c r="AA4" s="44"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="49"/>
+      <c r="AE4" s="44"/>
       <c r="AF4" s="11"/>
-      <c r="AG4" s="49"/>
+      <c r="AG4" s="44"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="11"/>
@@ -1916,8 +1907,8 @@
       <c r="AP4" s="11"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="11"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="1"/>
@@ -1935,7 +1926,7 @@
       <c r="BI4" s="1"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="41"/>
+      <c r="BL4" s="36"/>
       <c r="BM4" s="8">
         <v>1</v>
       </c>
@@ -1957,14 +1948,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="14"/>
@@ -1984,8 +1975,8 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="14"/>
@@ -2003,7 +1994,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="42"/>
+      <c r="BL5" s="37"/>
       <c r="BM5" s="8"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -2045,7 +2036,7 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="44"/>
       <c r="AJ6" s="11"/>
       <c r="AK6" s="26"/>
       <c r="AL6" s="11"/>
@@ -2053,7 +2044,7 @@
       <c r="AN6" s="11"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="49"/>
+      <c r="AQ6" s="44"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="11"/>
@@ -2074,7 +2065,7 @@
       <c r="BI6" s="1"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="1"/>
-      <c r="BL6" s="41"/>
+      <c r="BL6" s="36"/>
       <c r="BM6" s="8">
         <v>2</v>
       </c>
@@ -2096,14 +2087,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="31"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="14"/>
@@ -2143,7 +2134,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="42"/>
+      <c r="BL7" s="37"/>
       <c r="BM7" s="8"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -2214,7 +2205,7 @@
       <c r="BI8" s="1"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="41"/>
+      <c r="BL8" s="36"/>
       <c r="BM8" s="8">
         <v>3</v>
       </c>
@@ -2283,7 +2274,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="42"/>
+      <c r="BL9" s="37"/>
       <c r="BM9" s="8"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -2339,7 +2330,7 @@
       <c r="AT10" s="11"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="49"/>
+      <c r="AW10" s="44"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="11"/>
@@ -2354,7 +2345,7 @@
       <c r="BI10" s="1"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="1"/>
-      <c r="BL10" s="41"/>
+      <c r="BL10" s="36"/>
       <c r="BM10" s="8">
         <v>4</v>
       </c>
@@ -2423,7 +2414,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="42"/>
+      <c r="BL11" s="37"/>
       <c r="BM11" s="8"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -2494,7 +2485,7 @@
       <c r="BI12" s="1"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="41"/>
+      <c r="BL12" s="36"/>
       <c r="BM12" s="8">
         <v>5</v>
       </c>
@@ -2563,7 +2554,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="42"/>
+      <c r="BL13" s="37"/>
       <c r="BM13" s="8"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -2634,7 +2625,7 @@
       <c r="BI14" s="1"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="41"/>
+      <c r="BL14" s="36"/>
       <c r="BM14" s="8">
         <v>6</v>
       </c>
@@ -2703,7 +2694,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="42"/>
+      <c r="BL15" s="37"/>
       <c r="BM15" s="8"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -2774,7 +2765,7 @@
       <c r="BI16" s="1"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="41"/>
+      <c r="BL16" s="36"/>
       <c r="BM16" s="8">
         <v>7</v>
       </c>
@@ -2843,7 +2834,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="42"/>
+      <c r="BL17" s="37"/>
       <c r="BM17" s="8"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -2914,7 +2905,7 @@
       <c r="BI18" s="1"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="41"/>
+      <c r="BL18" s="36"/>
       <c r="BM18" s="8">
         <v>8</v>
       </c>
@@ -2983,7 +2974,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="42"/>
+      <c r="BL19" s="37"/>
       <c r="BM19" s="8"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -3054,7 +3045,7 @@
       <c r="BI20" s="1"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="1"/>
-      <c r="BL20" s="41"/>
+      <c r="BL20" s="36"/>
       <c r="BM20" s="8">
         <v>9</v>
       </c>
@@ -3123,7 +3114,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="42"/>
+      <c r="BL21" s="37"/>
       <c r="BM21" s="8"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -3194,7 +3185,7 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="41"/>
+      <c r="BL22" s="36"/>
       <c r="BM22" s="8">
         <v>10</v>
       </c>
@@ -3263,7 +3254,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="42"/>
+      <c r="BL23" s="37"/>
       <c r="BM23" s="8"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -3334,7 +3325,7 @@
       <c r="BI24" s="1"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="1"/>
-      <c r="BL24" s="41"/>
+      <c r="BL24" s="36"/>
       <c r="BM24" s="8">
         <v>11</v>
       </c>
@@ -3403,7 +3394,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="42"/>
+      <c r="BL25" s="37"/>
       <c r="BM25" s="8"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -3474,7 +3465,7 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="1"/>
-      <c r="BL26" s="41"/>
+      <c r="BL26" s="36"/>
       <c r="BM26" s="8">
         <v>12</v>
       </c>
@@ -3543,7 +3534,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="42"/>
+      <c r="BL27" s="37"/>
       <c r="BM27" s="8"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -3614,7 +3605,7 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="1"/>
-      <c r="BL28" s="41"/>
+      <c r="BL28" s="36"/>
       <c r="BM28" s="8">
         <v>13</v>
       </c>
@@ -3683,7 +3674,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="42"/>
+      <c r="BL29" s="37"/>
       <c r="BM29" s="8"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -3754,7 +3745,7 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="41"/>
+      <c r="BL30" s="36"/>
       <c r="BM30" s="8">
         <v>14</v>
       </c>
@@ -3823,7 +3814,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="42"/>
+      <c r="BL31" s="37"/>
       <c r="BM31" s="8"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -3894,7 +3885,7 @@
       <c r="BI32" s="1"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="41"/>
+      <c r="BL32" s="36"/>
       <c r="BM32" s="8">
         <v>15</v>
       </c>
@@ -3963,7 +3954,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="42"/>
+      <c r="BL33" s="37"/>
       <c r="BM33" s="8"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -4034,7 +4025,7 @@
       <c r="BI34" s="1"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="1"/>
-      <c r="BL34" s="41"/>
+      <c r="BL34" s="36"/>
       <c r="BM34" s="8">
         <v>16</v>
       </c>
@@ -4103,7 +4094,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="42"/>
+      <c r="BL35" s="37"/>
       <c r="BM35" s="8"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -4174,7 +4165,7 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="41"/>
+      <c r="BL36" s="36"/>
       <c r="BM36" s="8">
         <v>17</v>
       </c>
@@ -4243,7 +4234,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="42"/>
+      <c r="BL37" s="37"/>
       <c r="BM37" s="8"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -4314,7 +4305,7 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="41"/>
+      <c r="BL38" s="36"/>
       <c r="BM38" s="8">
         <v>18</v>
       </c>
@@ -4383,7 +4374,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="42"/>
+      <c r="BL39" s="37"/>
       <c r="BM39" s="8"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -4454,7 +4445,7 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="1"/>
-      <c r="BL40" s="41"/>
+      <c r="BL40" s="36"/>
       <c r="BM40" s="8">
         <v>19</v>
       </c>
@@ -4523,7 +4514,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="42"/>
+      <c r="BL41" s="37"/>
       <c r="BM41" s="8"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -4594,7 +4585,7 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="41"/>
+      <c r="BL42" s="36"/>
       <c r="BM42" s="8">
         <v>20</v>
       </c>
@@ -4663,7 +4654,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="42"/>
+      <c r="BL43" s="37"/>
       <c r="BM43" s="8"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -4734,7 +4725,7 @@
       <c r="BI44" s="1"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="1"/>
-      <c r="BL44" s="41"/>
+      <c r="BL44" s="36"/>
       <c r="BM44" s="8">
         <v>21</v>
       </c>
@@ -4803,7 +4794,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="42"/>
+      <c r="BL45" s="37"/>
       <c r="BM45" s="8"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -4874,7 +4865,7 @@
       <c r="BI46" s="1"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="1"/>
-      <c r="BL46" s="41"/>
+      <c r="BL46" s="36"/>
       <c r="BM46" s="8">
         <v>22</v>
       </c>
@@ -4943,7 +4934,7 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="42"/>
+      <c r="BL47" s="37"/>
       <c r="BM47" s="8"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:66">
@@ -5014,11 +5005,11 @@
       <c r="BI48" s="21"/>
       <c r="BJ48" s="22"/>
       <c r="BK48" s="21"/>
-      <c r="BL48" s="43"/>
-      <c r="BM48" s="45">
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="40">
         <v>23</v>
       </c>
-      <c r="BN48" s="46"/>
+      <c r="BN48" s="41"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
       <c r="A49" s="9"/>
@@ -5084,8 +5075,8 @@
       <c r="BI49" s="21"/>
       <c r="BJ49" s="22"/>
       <c r="BK49" s="21"/>
-      <c r="BL49" s="43"/>
-      <c r="BM49" s="47"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="42"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
       <c r="A50" s="19">
@@ -5134,7 +5125,7 @@
       <c r="AN50" s="22"/>
       <c r="AO50" s="21"/>
       <c r="AP50" s="22"/>
-      <c r="AQ50" s="50"/>
+      <c r="AQ50" s="45"/>
       <c r="AR50" s="22"/>
       <c r="AS50" s="21"/>
       <c r="AT50" s="22"/>
@@ -5155,7 +5146,7 @@
       <c r="BI50" s="21"/>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="21"/>
-      <c r="BL50" s="43"/>
+      <c r="BL50" s="38"/>
       <c r="BM50" s="7">
         <v>24</v>
       </c>
@@ -5224,8 +5215,8 @@
       <c r="BI51" s="21"/>
       <c r="BJ51" s="22"/>
       <c r="BK51" s="21"/>
-      <c r="BL51" s="43"/>
-      <c r="BM51" s="48"/>
+      <c r="BL51" s="38"/>
+      <c r="BM51" s="43"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
       <c r="A52" s="12">
@@ -5295,7 +5286,7 @@
       <c r="BI52" s="1"/>
       <c r="BJ52" s="11"/>
       <c r="BK52" s="1"/>
-      <c r="BL52" s="41"/>
+      <c r="BL52" s="36"/>
       <c r="BM52" s="8">
         <v>25</v>
       </c>
@@ -5364,7 +5355,7 @@
       <c r="BI53" s="14"/>
       <c r="BJ53" s="15"/>
       <c r="BK53" s="14"/>
-      <c r="BL53" s="42"/>
+      <c r="BL53" s="37"/>
       <c r="BM53" s="8"/>
     </row>
     <row r="54" ht="10.15" customHeight="1" spans="1:65">
@@ -5435,7 +5426,7 @@
       <c r="BI54" s="1"/>
       <c r="BJ54" s="11"/>
       <c r="BK54" s="1"/>
-      <c r="BL54" s="41"/>
+      <c r="BL54" s="36"/>
       <c r="BM54" s="8">
         <v>26</v>
       </c>
@@ -5504,7 +5495,7 @@
       <c r="BI55" s="14"/>
       <c r="BJ55" s="15"/>
       <c r="BK55" s="14"/>
-      <c r="BL55" s="42"/>
+      <c r="BL55" s="37"/>
       <c r="BM55" s="8"/>
     </row>
     <row r="56" ht="10.15" customHeight="1" spans="1:65">
@@ -5575,7 +5566,7 @@
       <c r="BI56" s="1"/>
       <c r="BJ56" s="11"/>
       <c r="BK56" s="1"/>
-      <c r="BL56" s="41"/>
+      <c r="BL56" s="36"/>
       <c r="BM56" s="8">
         <v>27</v>
       </c>
@@ -5644,7 +5635,7 @@
       <c r="BI57" s="14"/>
       <c r="BJ57" s="15"/>
       <c r="BK57" s="14"/>
-      <c r="BL57" s="42"/>
+      <c r="BL57" s="37"/>
       <c r="BM57" s="8"/>
     </row>
     <row r="58" ht="10.15" customHeight="1" spans="1:65">
@@ -5715,7 +5706,7 @@
       <c r="BI58" s="1"/>
       <c r="BJ58" s="11"/>
       <c r="BK58" s="1"/>
-      <c r="BL58" s="41"/>
+      <c r="BL58" s="36"/>
       <c r="BM58" s="8">
         <v>28</v>
       </c>
@@ -5784,7 +5775,7 @@
       <c r="BI59" s="14"/>
       <c r="BJ59" s="15"/>
       <c r="BK59" s="14"/>
-      <c r="BL59" s="42"/>
+      <c r="BL59" s="37"/>
       <c r="BM59" s="8"/>
     </row>
     <row r="60" ht="12.95" customHeight="1"/>
@@ -5978,7 +5969,7 @@
   <dimension ref="A1:BN88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+      <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6049,10 +6040,10 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="39">
+      <c r="AO1" s="34">
         <v>10</v>
       </c>
-      <c r="AP1" s="39"/>
+      <c r="AP1" s="34"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5">
@@ -6080,15 +6071,16 @@
       <c r="BK1" s="24"/>
       <c r="BL1" s="24"/>
     </row>
-    <row r="2" ht="11.1" customHeight="1" spans="27:34">
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="37"/>
+    <row r="2" ht="11.1" customHeight="1" spans="27:37">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AK2" s="30"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:65">
       <c r="A3" s="6" t="s">
@@ -6218,8 +6210,8 @@
       <c r="BK3" s="8">
         <v>31</v>
       </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="44"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="39"/>
     </row>
     <row r="4" ht="10.15" customHeight="1" spans="1:65">
       <c r="A4" s="9">
@@ -6244,42 +6236,42 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="29"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="27"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="11"/>
       <c r="BE4" s="1"/>
@@ -6289,7 +6281,7 @@
       <c r="BI4" s="1"/>
       <c r="BJ4" s="11"/>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="41"/>
+      <c r="BL4" s="36"/>
       <c r="BM4" s="8">
         <v>1</v>
       </c>
@@ -6311,44 +6303,44 @@
       <c r="N5" s="15"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="33"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="29"/>
       <c r="BC5" s="14"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="14"/>
@@ -6358,7 +6350,7 @@
       <c r="BI5" s="14"/>
       <c r="BJ5" s="15"/>
       <c r="BK5" s="14"/>
-      <c r="BL5" s="42"/>
+      <c r="BL5" s="37"/>
       <c r="BM5" s="8"/>
     </row>
     <row r="6" ht="10.15" customHeight="1" spans="1:65">
@@ -6384,42 +6376,42 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="29"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="27"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="11"/>
       <c r="BE6" s="1"/>
@@ -6429,7 +6421,7 @@
       <c r="BI6" s="1"/>
       <c r="BJ6" s="11"/>
       <c r="BK6" s="1"/>
-      <c r="BL6" s="41"/>
+      <c r="BL6" s="36"/>
       <c r="BM6" s="8">
         <v>2</v>
       </c>
@@ -6451,44 +6443,44 @@
       <c r="N7" s="15"/>
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="33"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="29"/>
       <c r="BC7" s="14"/>
       <c r="BD7" s="15"/>
       <c r="BE7" s="14"/>
@@ -6498,7 +6490,7 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="15"/>
       <c r="BK7" s="14"/>
-      <c r="BL7" s="42"/>
+      <c r="BL7" s="37"/>
       <c r="BM7" s="8"/>
     </row>
     <row r="8" ht="10.15" customHeight="1" spans="1:65">
@@ -6524,42 +6516,42 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="27"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="11"/>
       <c r="BE8" s="1"/>
@@ -6569,7 +6561,7 @@
       <c r="BI8" s="1"/>
       <c r="BJ8" s="11"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="41"/>
+      <c r="BL8" s="36"/>
       <c r="BM8" s="8">
         <v>3</v>
       </c>
@@ -6593,42 +6585,42 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="29"/>
       <c r="BC9" s="14"/>
       <c r="BD9" s="15"/>
       <c r="BE9" s="14"/>
@@ -6638,7 +6630,7 @@
       <c r="BI9" s="14"/>
       <c r="BJ9" s="15"/>
       <c r="BK9" s="14"/>
-      <c r="BL9" s="42"/>
+      <c r="BL9" s="37"/>
       <c r="BM9" s="8"/>
     </row>
     <row r="10" ht="10.15" customHeight="1" spans="1:65">
@@ -6664,42 +6656,42 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="27"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="27"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="11"/>
       <c r="BE10" s="1"/>
@@ -6709,7 +6701,7 @@
       <c r="BI10" s="1"/>
       <c r="BJ10" s="11"/>
       <c r="BK10" s="1"/>
-      <c r="BL10" s="41"/>
+      <c r="BL10" s="36"/>
       <c r="BM10" s="8">
         <v>4</v>
       </c>
@@ -6733,42 +6725,42 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="33"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="29"/>
       <c r="BC11" s="14"/>
       <c r="BD11" s="15"/>
       <c r="BE11" s="14"/>
@@ -6778,7 +6770,7 @@
       <c r="BI11" s="14"/>
       <c r="BJ11" s="15"/>
       <c r="BK11" s="14"/>
-      <c r="BL11" s="42"/>
+      <c r="BL11" s="37"/>
       <c r="BM11" s="8"/>
     </row>
     <row r="12" ht="10.15" customHeight="1" spans="1:65">
@@ -6804,42 +6796,42 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="27"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="11"/>
       <c r="BE12" s="1"/>
@@ -6849,7 +6841,7 @@
       <c r="BI12" s="1"/>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="41"/>
+      <c r="BL12" s="36"/>
       <c r="BM12" s="8">
         <v>5</v>
       </c>
@@ -6873,42 +6865,42 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="29"/>
       <c r="BC13" s="14"/>
       <c r="BD13" s="15"/>
       <c r="BE13" s="14"/>
@@ -6918,7 +6910,7 @@
       <c r="BI13" s="14"/>
       <c r="BJ13" s="15"/>
       <c r="BK13" s="14"/>
-      <c r="BL13" s="42"/>
+      <c r="BL13" s="37"/>
       <c r="BM13" s="8"/>
     </row>
     <row r="14" ht="10.15" customHeight="1" spans="1:65">
@@ -6944,42 +6936,42 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="29"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="27"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="11"/>
       <c r="BE14" s="1"/>
@@ -6989,7 +6981,7 @@
       <c r="BI14" s="1"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="41"/>
+      <c r="BL14" s="36"/>
       <c r="BM14" s="8">
         <v>6</v>
       </c>
@@ -7013,42 +7005,42 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="33"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="29"/>
       <c r="BC15" s="14"/>
       <c r="BD15" s="15"/>
       <c r="BE15" s="14"/>
@@ -7058,7 +7050,7 @@
       <c r="BI15" s="14"/>
       <c r="BJ15" s="15"/>
       <c r="BK15" s="14"/>
-      <c r="BL15" s="42"/>
+      <c r="BL15" s="37"/>
       <c r="BM15" s="8"/>
     </row>
     <row r="16" ht="10.15" customHeight="1" spans="1:65">
@@ -7084,42 +7076,42 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="29"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="29"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="29"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="29"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="27"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="11"/>
       <c r="BE16" s="1"/>
@@ -7129,7 +7121,7 @@
       <c r="BI16" s="1"/>
       <c r="BJ16" s="11"/>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="41"/>
+      <c r="BL16" s="36"/>
       <c r="BM16" s="8">
         <v>7</v>
       </c>
@@ -7153,42 +7145,42 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="32"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="32"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="32"/>
-      <c r="BB17" s="33"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="29"/>
       <c r="BC17" s="14"/>
       <c r="BD17" s="15"/>
       <c r="BE17" s="14"/>
@@ -7198,7 +7190,7 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="15"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="42"/>
+      <c r="BL17" s="37"/>
       <c r="BM17" s="8"/>
     </row>
     <row r="18" ht="10.15" customHeight="1" spans="1:65">
@@ -7224,42 +7216,42 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="29"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="27"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="11"/>
       <c r="BE18" s="1"/>
@@ -7269,7 +7261,7 @@
       <c r="BI18" s="1"/>
       <c r="BJ18" s="11"/>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="41"/>
+      <c r="BL18" s="36"/>
       <c r="BM18" s="8">
         <v>8</v>
       </c>
@@ -7293,42 +7285,42 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="32"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="32"/>
-      <c r="BB19" s="33"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="29"/>
       <c r="BC19" s="14"/>
       <c r="BD19" s="15"/>
       <c r="BE19" s="14"/>
@@ -7338,7 +7330,7 @@
       <c r="BI19" s="14"/>
       <c r="BJ19" s="15"/>
       <c r="BK19" s="14"/>
-      <c r="BL19" s="42"/>
+      <c r="BL19" s="37"/>
       <c r="BM19" s="8"/>
     </row>
     <row r="20" ht="10.15" customHeight="1" spans="1:65">
@@ -7364,42 +7356,42 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="29"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="27"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="11"/>
       <c r="BE20" s="1"/>
@@ -7409,7 +7401,7 @@
       <c r="BI20" s="1"/>
       <c r="BJ20" s="11"/>
       <c r="BK20" s="1"/>
-      <c r="BL20" s="41"/>
+      <c r="BL20" s="36"/>
       <c r="BM20" s="8">
         <v>9</v>
       </c>
@@ -7433,42 +7425,42 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="33"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="29"/>
       <c r="BC21" s="14"/>
       <c r="BD21" s="15"/>
       <c r="BE21" s="14"/>
@@ -7478,7 +7470,7 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="15"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="42"/>
+      <c r="BL21" s="37"/>
       <c r="BM21" s="8"/>
     </row>
     <row r="22" ht="10.15" customHeight="1" spans="1:65">
@@ -7504,42 +7496,42 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="34"/>
-      <c r="BB22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="27"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="11"/>
       <c r="BE22" s="1"/>
@@ -7549,7 +7541,7 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="11"/>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="41"/>
+      <c r="BL22" s="36"/>
       <c r="BM22" s="8">
         <v>10</v>
       </c>
@@ -7573,42 +7565,42 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="33"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="28"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="29"/>
       <c r="BC23" s="14"/>
       <c r="BD23" s="15"/>
       <c r="BE23" s="14"/>
@@ -7618,7 +7610,7 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="15"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="42"/>
+      <c r="BL23" s="37"/>
       <c r="BM23" s="8"/>
     </row>
     <row r="24" ht="10.15" customHeight="1" spans="1:65">
@@ -7644,42 +7636,42 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="34"/>
-      <c r="BB24" s="29"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="27"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="11"/>
       <c r="BE24" s="1"/>
@@ -7689,7 +7681,7 @@
       <c r="BI24" s="1"/>
       <c r="BJ24" s="11"/>
       <c r="BK24" s="1"/>
-      <c r="BL24" s="41"/>
+      <c r="BL24" s="36"/>
       <c r="BM24" s="8">
         <v>11</v>
       </c>
@@ -7713,42 +7705,42 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="33"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="32"/>
-      <c r="BB25" s="33"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="29"/>
       <c r="BC25" s="14"/>
       <c r="BD25" s="15"/>
       <c r="BE25" s="14"/>
@@ -7758,7 +7750,7 @@
       <c r="BI25" s="14"/>
       <c r="BJ25" s="15"/>
       <c r="BK25" s="14"/>
-      <c r="BL25" s="42"/>
+      <c r="BL25" s="37"/>
       <c r="BM25" s="8"/>
     </row>
     <row r="26" ht="10.15" customHeight="1" spans="1:65">
@@ -7784,42 +7776,42 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="29"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="29"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="29"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="29"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="29"/>
-      <c r="BA26" s="34"/>
-      <c r="BB26" s="29"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="27"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="27"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="11"/>
       <c r="BE26" s="1"/>
@@ -7829,7 +7821,7 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="11"/>
       <c r="BK26" s="1"/>
-      <c r="BL26" s="41"/>
+      <c r="BL26" s="36"/>
       <c r="BM26" s="8">
         <v>12</v>
       </c>
@@ -7853,42 +7845,42 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="33"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="28"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="28"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="29"/>
       <c r="BC27" s="14"/>
       <c r="BD27" s="15"/>
       <c r="BE27" s="14"/>
@@ -7898,7 +7890,7 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="15"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="42"/>
+      <c r="BL27" s="37"/>
       <c r="BM27" s="8"/>
     </row>
     <row r="28" ht="10.15" customHeight="1" spans="1:65">
@@ -7924,42 +7916,42 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="29"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="27"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="11"/>
       <c r="BE28" s="1"/>
@@ -7969,7 +7961,7 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="11"/>
       <c r="BK28" s="1"/>
-      <c r="BL28" s="41"/>
+      <c r="BL28" s="36"/>
       <c r="BM28" s="8">
         <v>13</v>
       </c>
@@ -7993,42 +7985,42 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="32"/>
-      <c r="BB29" s="33"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="28"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="28"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="28"/>
+      <c r="BB29" s="29"/>
       <c r="BC29" s="14"/>
       <c r="BD29" s="15"/>
       <c r="BE29" s="14"/>
@@ -8038,7 +8030,7 @@
       <c r="BI29" s="14"/>
       <c r="BJ29" s="15"/>
       <c r="BK29" s="14"/>
-      <c r="BL29" s="42"/>
+      <c r="BL29" s="37"/>
       <c r="BM29" s="8"/>
     </row>
     <row r="30" ht="10.15" customHeight="1" spans="1:65">
@@ -8062,42 +8054,42 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="29"/>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="34"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="34"/>
-      <c r="AV30" s="29"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="34"/>
-      <c r="BB30" s="29"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="27"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="11"/>
       <c r="BE30" s="1"/>
@@ -8107,7 +8099,7 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="11"/>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="41"/>
+      <c r="BL30" s="36"/>
       <c r="BM30" s="8">
         <v>14</v>
       </c>
@@ -8131,42 +8123,42 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="15"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="33"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="32"/>
-      <c r="BB31" s="33"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="29"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="28"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="28"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="28"/>
+      <c r="BB31" s="29"/>
       <c r="BC31" s="14"/>
       <c r="BD31" s="15"/>
       <c r="BE31" s="14"/>
@@ -8176,7 +8168,7 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="15"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="42"/>
+      <c r="BL31" s="37"/>
       <c r="BM31" s="8"/>
     </row>
     <row r="32" ht="10.15" customHeight="1" spans="1:65">
@@ -8200,42 +8192,42 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="29"/>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="29"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="29"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="29"/>
-      <c r="BA32" s="34"/>
-      <c r="BB32" s="29"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="27"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="11"/>
       <c r="BE32" s="1"/>
@@ -8245,7 +8237,7 @@
       <c r="BI32" s="1"/>
       <c r="BJ32" s="11"/>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="41"/>
+      <c r="BL32" s="36"/>
       <c r="BM32" s="8">
         <v>15</v>
       </c>
@@ -8269,42 +8261,42 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="33"/>
-      <c r="BA33" s="32"/>
-      <c r="BB33" s="33"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="29"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="29"/>
       <c r="BC33" s="14"/>
       <c r="BD33" s="15"/>
       <c r="BE33" s="14"/>
@@ -8314,7 +8306,7 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="15"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="42"/>
+      <c r="BL33" s="37"/>
       <c r="BM33" s="8"/>
     </row>
     <row r="34" ht="10.15" customHeight="1" spans="1:65">
@@ -8338,42 +8330,42 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="29"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="29"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="29"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="29"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="29"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="27"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="27"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="27"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="11"/>
       <c r="BE34" s="1"/>
@@ -8383,7 +8375,7 @@
       <c r="BI34" s="1"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="1"/>
-      <c r="BL34" s="41"/>
+      <c r="BL34" s="36"/>
       <c r="BM34" s="8">
         <v>16</v>
       </c>
@@ -8407,42 +8399,42 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="15"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="32"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="32"/>
-      <c r="BB35" s="33"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="28"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="28"/>
+      <c r="BB35" s="29"/>
       <c r="BC35" s="14"/>
       <c r="BD35" s="15"/>
       <c r="BE35" s="14"/>
@@ -8452,7 +8444,7 @@
       <c r="BI35" s="14"/>
       <c r="BJ35" s="15"/>
       <c r="BK35" s="14"/>
-      <c r="BL35" s="42"/>
+      <c r="BL35" s="37"/>
       <c r="BM35" s="8"/>
     </row>
     <row r="36" ht="10.15" customHeight="1" spans="1:65">
@@ -8476,42 +8468,42 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="29"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="29"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="29"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="29"/>
-      <c r="BA36" s="34"/>
-      <c r="BB36" s="29"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="27"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="11"/>
       <c r="BE36" s="1"/>
@@ -8521,7 +8513,7 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="41"/>
+      <c r="BL36" s="36"/>
       <c r="BM36" s="8">
         <v>17</v>
       </c>
@@ -8545,42 +8537,42 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="15"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="32"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="32"/>
-      <c r="BB37" s="33"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="28"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="28"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="29"/>
       <c r="BC37" s="14"/>
       <c r="BD37" s="15"/>
       <c r="BE37" s="14"/>
@@ -8590,7 +8582,7 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="15"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="42"/>
+      <c r="BL37" s="37"/>
       <c r="BM37" s="8"/>
     </row>
     <row r="38" ht="10.15" customHeight="1" spans="1:65">
@@ -8614,42 +8606,42 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="34"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="34"/>
-      <c r="BB38" s="29"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="27"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="27"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="27"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="27"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="11"/>
       <c r="BE38" s="1"/>
@@ -8659,7 +8651,7 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="11"/>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="41"/>
+      <c r="BL38" s="36"/>
       <c r="BM38" s="8">
         <v>18</v>
       </c>
@@ -8683,42 +8675,42 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="33"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="33"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="33"/>
-      <c r="BA39" s="32"/>
-      <c r="BB39" s="33"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="28"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="28"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="28"/>
+      <c r="BB39" s="29"/>
       <c r="BC39" s="14"/>
       <c r="BD39" s="15"/>
       <c r="BE39" s="14"/>
@@ -8728,7 +8720,7 @@
       <c r="BI39" s="14"/>
       <c r="BJ39" s="15"/>
       <c r="BK39" s="14"/>
-      <c r="BL39" s="42"/>
+      <c r="BL39" s="37"/>
       <c r="BM39" s="8"/>
     </row>
     <row r="40" ht="10.15" customHeight="1" spans="1:65">
@@ -8752,42 +8744,42 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="29"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="29"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="29"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="29"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="29"/>
-      <c r="BA40" s="34"/>
-      <c r="BB40" s="29"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="27"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="27"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="27"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="27"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="27"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="27"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="1"/>
@@ -8797,7 +8789,7 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="11"/>
       <c r="BK40" s="1"/>
-      <c r="BL40" s="41"/>
+      <c r="BL40" s="36"/>
       <c r="BM40" s="8">
         <v>19</v>
       </c>
@@ -8821,42 +8813,42 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="15"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="33"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="33"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="33"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="33"/>
-      <c r="AU41" s="32"/>
-      <c r="AV41" s="33"/>
-      <c r="AW41" s="32"/>
-      <c r="AX41" s="33"/>
-      <c r="AY41" s="32"/>
-      <c r="AZ41" s="33"/>
-      <c r="BA41" s="32"/>
-      <c r="BB41" s="33"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="28"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="28"/>
+      <c r="AZ41" s="29"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="29"/>
       <c r="BC41" s="14"/>
       <c r="BD41" s="15"/>
       <c r="BE41" s="14"/>
@@ -8866,7 +8858,7 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="15"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="42"/>
+      <c r="BL41" s="37"/>
       <c r="BM41" s="8"/>
     </row>
     <row r="42" ht="10.15" customHeight="1" spans="1:65">
@@ -8890,42 +8882,42 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="29"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="29"/>
-      <c r="AQ42" s="34"/>
-      <c r="AR42" s="29"/>
-      <c r="AS42" s="34"/>
-      <c r="AT42" s="29"/>
-      <c r="AU42" s="34"/>
-      <c r="AV42" s="29"/>
-      <c r="AW42" s="34"/>
-      <c r="AX42" s="29"/>
-      <c r="AY42" s="34"/>
-      <c r="AZ42" s="29"/>
-      <c r="BA42" s="34"/>
-      <c r="BB42" s="29"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="27"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="27"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="27"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="27"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="27"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="27"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="27"/>
       <c r="BC42" s="1"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="1"/>
@@ -8935,7 +8927,7 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="11"/>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="41"/>
+      <c r="BL42" s="36"/>
       <c r="BM42" s="8">
         <v>20</v>
       </c>
@@ -8959,42 +8951,42 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="33"/>
-      <c r="AK43" s="32"/>
-      <c r="AL43" s="33"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="33"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="32"/>
-      <c r="AR43" s="33"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="33"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="33"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="32"/>
-      <c r="AZ43" s="33"/>
-      <c r="BA43" s="32"/>
-      <c r="BB43" s="33"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="29"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="29"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="29"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="29"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="29"/>
       <c r="BC43" s="14"/>
       <c r="BD43" s="15"/>
       <c r="BE43" s="14"/>
@@ -9004,7 +8996,7 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="15"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="42"/>
+      <c r="BL43" s="37"/>
       <c r="BM43" s="8"/>
     </row>
     <row r="44" ht="10.15" customHeight="1" spans="1:65">
@@ -9028,42 +9020,42 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="29"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="29"/>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="29"/>
-      <c r="AS44" s="34"/>
-      <c r="AT44" s="29"/>
-      <c r="AU44" s="34"/>
-      <c r="AV44" s="29"/>
-      <c r="AW44" s="34"/>
-      <c r="AX44" s="29"/>
-      <c r="AY44" s="34"/>
-      <c r="AZ44" s="29"/>
-      <c r="BA44" s="34"/>
-      <c r="BB44" s="29"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="27"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="27"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="27"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="27"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="27"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="27"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="27"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="11"/>
       <c r="BE44" s="1"/>
@@ -9073,7 +9065,7 @@
       <c r="BI44" s="1"/>
       <c r="BJ44" s="11"/>
       <c r="BK44" s="1"/>
-      <c r="BL44" s="41"/>
+      <c r="BL44" s="36"/>
       <c r="BM44" s="8">
         <v>21</v>
       </c>
@@ -9097,42 +9089,42 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="15"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="33"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="33"/>
-      <c r="AI45" s="32"/>
-      <c r="AJ45" s="33"/>
-      <c r="AK45" s="32"/>
-      <c r="AL45" s="33"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="32"/>
-      <c r="AP45" s="33"/>
-      <c r="AQ45" s="32"/>
-      <c r="AR45" s="33"/>
-      <c r="AS45" s="32"/>
-      <c r="AT45" s="33"/>
-      <c r="AU45" s="32"/>
-      <c r="AV45" s="33"/>
-      <c r="AW45" s="32"/>
-      <c r="AX45" s="33"/>
-      <c r="AY45" s="32"/>
-      <c r="AZ45" s="33"/>
-      <c r="BA45" s="32"/>
-      <c r="BB45" s="33"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="29"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="29"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="29"/>
       <c r="BC45" s="14"/>
       <c r="BD45" s="15"/>
       <c r="BE45" s="14"/>
@@ -9142,7 +9134,7 @@
       <c r="BI45" s="14"/>
       <c r="BJ45" s="15"/>
       <c r="BK45" s="14"/>
-      <c r="BL45" s="42"/>
+      <c r="BL45" s="37"/>
       <c r="BM45" s="8"/>
     </row>
     <row r="46" ht="10.15" customHeight="1" spans="1:65">
@@ -9166,42 +9158,42 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="34"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="34"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="34"/>
-      <c r="AR46" s="29"/>
-      <c r="AS46" s="34"/>
-      <c r="AT46" s="29"/>
-      <c r="AU46" s="34"/>
-      <c r="AV46" s="29"/>
-      <c r="AW46" s="34"/>
-      <c r="AX46" s="29"/>
-      <c r="AY46" s="34"/>
-      <c r="AZ46" s="29"/>
-      <c r="BA46" s="34"/>
-      <c r="BB46" s="29"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="26"/>
+      <c r="AN46" s="27"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="27"/>
+      <c r="AQ46" s="26"/>
+      <c r="AR46" s="27"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="27"/>
+      <c r="AU46" s="26"/>
+      <c r="AV46" s="27"/>
+      <c r="AW46" s="26"/>
+      <c r="AX46" s="27"/>
+      <c r="AY46" s="26"/>
+      <c r="AZ46" s="27"/>
+      <c r="BA46" s="26"/>
+      <c r="BB46" s="27"/>
       <c r="BC46" s="1"/>
       <c r="BD46" s="11"/>
       <c r="BE46" s="1"/>
@@ -9211,7 +9203,7 @@
       <c r="BI46" s="1"/>
       <c r="BJ46" s="11"/>
       <c r="BK46" s="1"/>
-      <c r="BL46" s="41"/>
+      <c r="BL46" s="36"/>
       <c r="BM46" s="8">
         <v>22</v>
       </c>
@@ -9235,42 +9227,42 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="15"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="33"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="33"/>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="33"/>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="33"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="28"/>
+      <c r="AT47" s="29"/>
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="29"/>
+      <c r="AY47" s="28"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="28"/>
+      <c r="BB47" s="29"/>
       <c r="BC47" s="14"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="14"/>
@@ -9280,7 +9272,7 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="15"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="42"/>
+      <c r="BL47" s="37"/>
       <c r="BM47" s="8"/>
     </row>
     <row r="48" ht="10.15" customHeight="1" spans="1:66">
@@ -9304,42 +9296,42 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="22"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="35"/>
-      <c r="AJ48" s="36"/>
-      <c r="AK48" s="35"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="35"/>
-      <c r="AN48" s="36"/>
-      <c r="AO48" s="35"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="35"/>
-      <c r="AR48" s="36"/>
-      <c r="AS48" s="35"/>
-      <c r="AT48" s="36"/>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="36"/>
-      <c r="AW48" s="35"/>
-      <c r="AX48" s="36"/>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="36"/>
-      <c r="BA48" s="35"/>
-      <c r="BB48" s="36"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="31"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="32"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="32"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="32"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="32"/>
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="32"/>
       <c r="BC48" s="21"/>
       <c r="BD48" s="22"/>
       <c r="BE48" s="21"/>
@@ -9349,11 +9341,11 @@
       <c r="BI48" s="21"/>
       <c r="BJ48" s="22"/>
       <c r="BK48" s="21"/>
-      <c r="BL48" s="43"/>
-      <c r="BM48" s="45">
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="40">
         <v>23</v>
       </c>
-      <c r="BN48" s="46"/>
+      <c r="BN48" s="41"/>
     </row>
     <row r="49" ht="10.15" customHeight="1" spans="1:65">
       <c r="A49" s="9"/>
@@ -9374,42 +9366,42 @@
       <c r="P49" s="22"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="36"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="36"/>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="36"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="36"/>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="36"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="36"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="31"/>
+      <c r="AP49" s="32"/>
+      <c r="AQ49" s="31"/>
+      <c r="AR49" s="32"/>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="32"/>
+      <c r="AU49" s="31"/>
+      <c r="AV49" s="32"/>
+      <c r="AW49" s="31"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="32"/>
+      <c r="BA49" s="31"/>
+      <c r="BB49" s="32"/>
       <c r="BC49" s="21"/>
       <c r="BD49" s="22"/>
       <c r="BE49" s="21"/>
@@ -9419,8 +9411,8 @@
       <c r="BI49" s="21"/>
       <c r="BJ49" s="22"/>
       <c r="BK49" s="21"/>
-      <c r="BL49" s="43"/>
-      <c r="BM49" s="47"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="42"/>
     </row>
     <row r="50" ht="10.15" customHeight="1" spans="1:65">
       <c r="A50" s="19">
@@ -9443,42 +9435,42 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="22"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="36"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="36"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="36"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="36"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="36"/>
-      <c r="AQ50" s="38"/>
-      <c r="AR50" s="36"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="36"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="36"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="36"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="36"/>
-      <c r="BA50" s="35"/>
-      <c r="BB50" s="36"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="32"/>
+      <c r="AQ50" s="33"/>
+      <c r="AR50" s="32"/>
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="32"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="32"/>
+      <c r="AW50" s="31"/>
+      <c r="AX50" s="32"/>
+      <c r="AY50" s="31"/>
+      <c r="AZ50" s="32"/>
+      <c r="BA50" s="31"/>
+      <c r="BB50" s="32"/>
       <c r="BC50" s="21"/>
       <c r="BD50" s="22"/>
       <c r="BE50" s="21"/>
@@ -9488,7 +9480,7 @@
       <c r="BI50" s="21"/>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="21"/>
-      <c r="BL50" s="43"/>
+      <c r="BL50" s="38"/>
       <c r="BM50" s="7">
         <v>24</v>
       </c>
@@ -9512,42 +9504,42 @@
       <c r="P51" s="22"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="22"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="36"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="36"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="36"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="36"/>
-      <c r="AQ51" s="35"/>
-      <c r="AR51" s="36"/>
-      <c r="AS51" s="35"/>
-      <c r="AT51" s="36"/>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="36"/>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="36"/>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="36"/>
-      <c r="BA51" s="35"/>
-      <c r="BB51" s="36"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="32"/>
+      <c r="AQ51" s="31"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="31"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="31"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="31"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="31"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="31"/>
+      <c r="BB51" s="32"/>
       <c r="BC51" s="21"/>
       <c r="BD51" s="22"/>
       <c r="BE51" s="21"/>
@@ -9557,8 +9549,8 @@
       <c r="BI51" s="21"/>
       <c r="BJ51" s="22"/>
       <c r="BK51" s="21"/>
-      <c r="BL51" s="43"/>
-      <c r="BM51" s="48"/>
+      <c r="BL51" s="38"/>
+      <c r="BM51" s="43"/>
     </row>
     <row r="52" ht="10.15" customHeight="1" spans="1:65">
       <c r="A52" s="12">
@@ -9581,42 +9573,42 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="29"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="29"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="29"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="29"/>
-      <c r="AS52" s="34"/>
-      <c r="AT52" s="29"/>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="29"/>
-      <c r="AW52" s="34"/>
-      <c r="AX52" s="29"/>
-      <c r="AY52" s="34"/>
-      <c r="AZ52" s="29"/>
-      <c r="BA52" s="34"/>
-      <c r="BB52" s="29"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="26"/>
+      <c r="AL52" s="27"/>
+      <c r="AM52" s="26"/>
+      <c r="AN52" s="27"/>
+      <c r="AO52" s="26"/>
+      <c r="AP52" s="27"/>
+      <c r="AQ52" s="26"/>
+      <c r="AR52" s="27"/>
+      <c r="AS52" s="26"/>
+      <c r="AT52" s="27"/>
+      <c r="AU52" s="26"/>
+      <c r="AV52" s="27"/>
+      <c r="AW52" s="26"/>
+      <c r="AX52" s="27"/>
+      <c r="AY52" s="26"/>
+      <c r="AZ52" s="27"/>
+      <c r="BA52" s="26"/>
+      <c r="BB52" s="27"/>
       <c r="BC52" s="1"/>
       <c r="BD52" s="11"/>
       <c r="BE52" s="1"/>
@@ -9626,7 +9618,7 @@
       <c r="BI52" s="1"/>
       <c r="BJ52" s="11"/>
       <c r="BK52" s="1"/>
-      <c r="BL52" s="41"/>
+      <c r="BL52" s="36"/>
       <c r="BM52" s="8">
         <v>25</v>
       </c>
@@ -9650,42 +9642,42 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="14"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="32"/>
-      <c r="AL53" s="33"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="33"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="33"/>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="33"/>
-      <c r="AW53" s="32"/>
-      <c r="AX53" s="33"/>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="33"/>
-      <c r="BA53" s="32"/>
-      <c r="BB53" s="33"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="28"/>
+      <c r="AN53" s="29"/>
+      <c r="AO53" s="28"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="28"/>
+      <c r="AR53" s="29"/>
+      <c r="AS53" s="28"/>
+      <c r="AT53" s="29"/>
+      <c r="AU53" s="28"/>
+      <c r="AV53" s="29"/>
+      <c r="AW53" s="28"/>
+      <c r="AX53" s="29"/>
+      <c r="AY53" s="28"/>
+      <c r="AZ53" s="29"/>
+      <c r="BA53" s="28"/>
+      <c r="BB53" s="29"/>
       <c r="BC53" s="14"/>
       <c r="BD53" s="15"/>
       <c r="BE53" s="14"/>
@@ -9695,7 +9687,7 @@
       <c r="BI53" s="14"/>
       <c r="BJ53" s="15"/>
       <c r="BK53" s="14"/>
-      <c r="BL53" s="42"/>
+      <c r="BL53" s="37"/>
       <c r="BM53" s="8"/>
     </row>
     <row r="54" ht="10.15" customHeight="1" spans="1:65">
@@ -9719,42 +9711,42 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="29"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="29"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="29"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="29"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="29"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="29"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="29"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="29"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="29"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="29"/>
-      <c r="AY54" s="34"/>
-      <c r="AZ54" s="29"/>
-      <c r="BA54" s="34"/>
-      <c r="BB54" s="29"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="26"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="27"/>
+      <c r="AM54" s="26"/>
+      <c r="AN54" s="27"/>
+      <c r="AO54" s="26"/>
+      <c r="AP54" s="27"/>
+      <c r="AQ54" s="26"/>
+      <c r="AR54" s="27"/>
+      <c r="AS54" s="26"/>
+      <c r="AT54" s="27"/>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="26"/>
+      <c r="AX54" s="27"/>
+      <c r="AY54" s="26"/>
+      <c r="AZ54" s="27"/>
+      <c r="BA54" s="26"/>
+      <c r="BB54" s="27"/>
       <c r="BC54" s="1"/>
       <c r="BD54" s="11"/>
       <c r="BE54" s="1"/>
@@ -9764,7 +9756,7 @@
       <c r="BI54" s="1"/>
       <c r="BJ54" s="11"/>
       <c r="BK54" s="1"/>
-      <c r="BL54" s="41"/>
+      <c r="BL54" s="36"/>
       <c r="BM54" s="8">
         <v>26</v>
       </c>
@@ -9833,7 +9825,7 @@
       <c r="BI55" s="14"/>
       <c r="BJ55" s="15"/>
       <c r="BK55" s="14"/>
-      <c r="BL55" s="42"/>
+      <c r="BL55" s="37"/>
       <c r="BM55" s="8"/>
     </row>
     <row r="56" ht="10.15" customHeight="1" spans="1:65">
@@ -9902,7 +9894,7 @@
       <c r="BI56" s="1"/>
       <c r="BJ56" s="11"/>
       <c r="BK56" s="1"/>
-      <c r="BL56" s="41"/>
+      <c r="BL56" s="36"/>
       <c r="BM56" s="8">
         <v>27</v>
       </c>
@@ -9971,7 +9963,7 @@
       <c r="BI57" s="14"/>
       <c r="BJ57" s="15"/>
       <c r="BK57" s="14"/>
-      <c r="BL57" s="42"/>
+      <c r="BL57" s="37"/>
       <c r="BM57" s="8"/>
     </row>
     <row r="58" ht="10.15" customHeight="1" spans="1:65">
@@ -10040,7 +10032,7 @@
       <c r="BI58" s="1"/>
       <c r="BJ58" s="11"/>
       <c r="BK58" s="1"/>
-      <c r="BL58" s="41"/>
+      <c r="BL58" s="36"/>
       <c r="BM58" s="8">
         <v>28</v>
       </c>
@@ -10109,7 +10101,7 @@
       <c r="BI59" s="14"/>
       <c r="BJ59" s="15"/>
       <c r="BK59" s="14"/>
-      <c r="BL59" s="42"/>
+      <c r="BL59" s="37"/>
       <c r="BM59" s="8"/>
     </row>
     <row r="60" ht="12.95" customHeight="1"/>

--- a/阅读甘特图/2018年阅读记录-甘特图.xlsx
+++ b/阅读甘特图/2018年阅读记录-甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28703" windowHeight="13164" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -237,21 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -259,25 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +286,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,22 +319,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,39 +367,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +407,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,139 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,24 +588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,6 +881,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -907,26 +940,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,186 +978,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1621,7 @@
       <selection activeCell="BS28" sqref="BS28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -5969,10 +5969,10 @@
   <dimension ref="A1:BN88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ7" sqref="AZ7"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.25" customWidth="1"/>
@@ -6380,7 +6380,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="30"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="26"/>
+      <c r="W6" s="30"/>
       <c r="X6" s="27"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="27"/>
@@ -10298,7 +10298,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1"/>
